--- a/SpecsProject/Excel/Inventory_Project_SpecificationsV2.xlsx
+++ b/SpecsProject/Excel/Inventory_Project_SpecificationsV2.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Steven J\Desktop\SpecsProject\SpecsProject\Excel\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="570" windowWidth="16935" windowHeight="5070"/>
+    <workbookView xWindow="240" yWindow="576" windowWidth="16932" windowHeight="5076"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="460" uniqueCount="200">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="479" uniqueCount="198">
   <si>
     <t>Group</t>
   </si>
@@ -31,12 +36,6 @@
     <t xml:space="preserve">Price </t>
   </si>
   <si>
-    <t>Tax period</t>
-  </si>
-  <si>
-    <t>tax net Book Value</t>
-  </si>
-  <si>
     <t>Room Number</t>
   </si>
   <si>
@@ -61,9 +60,6 @@
     <t>Deactivation Date</t>
   </si>
   <si>
-    <t>Deactivation Method</t>
-  </si>
-  <si>
     <t>Condition</t>
   </si>
   <si>
@@ -73,15 +69,6 @@
     <t>Supplier</t>
   </si>
   <si>
-    <t>Asset over 500</t>
-  </si>
-  <si>
-    <t>Comment/History</t>
-  </si>
-  <si>
-    <t>Picture</t>
-  </si>
-  <si>
     <t xml:space="preserve">ArtWork </t>
   </si>
   <si>
@@ -614,12 +601,24 @@
   </si>
   <si>
     <t>Carpet</t>
+  </si>
+  <si>
+    <t>Deactivation_Method</t>
+  </si>
+  <si>
+    <t>Comment_History</t>
+  </si>
+  <si>
+    <t>Retired</t>
+  </si>
+  <si>
+    <t>Removed</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="4">
     <font>
       <sz val="11"/>
@@ -742,6 +741,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -788,7 +795,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -820,9 +827,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -854,6 +862,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1029,21 +1038,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="B113" workbookViewId="0">
+      <selection activeCell="H125" sqref="H125"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="15.140625" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="15.109375" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="23.140625" customWidth="1"/>
-    <col min="2" max="2" width="7.5703125" customWidth="1"/>
-    <col min="3" max="3" width="28.5703125" customWidth="1"/>
-    <col min="4" max="4" width="9.28515625" customWidth="1"/>
+    <col min="1" max="1" width="23.109375" customWidth="1"/>
+    <col min="2" max="2" width="7.5546875" customWidth="1"/>
+    <col min="3" max="3" width="28.5546875" customWidth="1"/>
+    <col min="4" max="4" width="9.33203125" customWidth="1"/>
     <col min="5" max="5" width="10" customWidth="1"/>
-    <col min="6" max="6" width="7.5703125" customWidth="1"/>
-    <col min="7" max="7" width="8.42578125" customWidth="1"/>
-    <col min="8" max="26" width="7.5703125" customWidth="1"/>
+    <col min="6" max="6" width="7.5546875" customWidth="1"/>
+    <col min="7" max="7" width="8.44140625" customWidth="1"/>
+    <col min="8" max="26" width="7.5546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="14.25" customHeight="1">
@@ -1062,58 +1073,52 @@
       <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="I1" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="J1" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="K1" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="L1" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="M1" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="3" t="s">
+      <c r="N1" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="3" t="s">
+      <c r="O1" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="3" t="s">
+      <c r="P1" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="R1" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="S1" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="T1" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="U1" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="V1" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="W1" s="5"/>
+      <c r="Q1" s="6" t="s">
+        <v>195</v>
+      </c>
+      <c r="R1" s="6" t="s">
+        <v>196</v>
+      </c>
+      <c r="S1" s="21" t="s">
+        <v>194</v>
+      </c>
+      <c r="T1" s="5"/>
+      <c r="U1" s="4"/>
+      <c r="V1" s="5"/>
+      <c r="W1" s="6"/>
     </row>
     <row r="2" spans="1:23" ht="14.25" customHeight="1">
       <c r="A2" s="6"/>
@@ -1165,13 +1170,13 @@
     </row>
     <row r="4" spans="1:23" ht="14.25" customHeight="1">
       <c r="A4" s="2" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="B4" s="7">
         <v>22</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="D4" s="9">
         <v>35697</v>
@@ -1179,12 +1184,8 @@
       <c r="E4" s="10">
         <v>1074.56</v>
       </c>
-      <c r="F4" s="10">
-        <v>7</v>
-      </c>
-      <c r="G4" s="11">
-        <v>0</v>
-      </c>
+      <c r="F4" s="10"/>
+      <c r="G4" s="11"/>
       <c r="H4" s="6"/>
       <c r="I4" s="6"/>
       <c r="J4" s="6"/>
@@ -1203,13 +1204,13 @@
     </row>
     <row r="5" spans="1:23" ht="14.25" customHeight="1">
       <c r="A5" s="2" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="B5" s="7">
         <v>23</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="D5" s="9">
         <v>35697</v>
@@ -1217,12 +1218,8 @@
       <c r="E5" s="10">
         <v>1074.56</v>
       </c>
-      <c r="F5" s="10">
-        <v>7</v>
-      </c>
-      <c r="G5" s="11">
-        <v>0</v>
-      </c>
+      <c r="F5" s="10"/>
+      <c r="G5" s="11"/>
       <c r="H5" s="6"/>
       <c r="I5" s="6"/>
       <c r="J5" s="6"/>
@@ -1241,13 +1238,13 @@
     </row>
     <row r="6" spans="1:23" ht="14.25" customHeight="1">
       <c r="A6" s="2" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="B6" s="7">
         <v>100</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="D6" s="9">
         <v>35417</v>
@@ -1255,12 +1252,8 @@
       <c r="E6" s="10">
         <v>4845.93</v>
       </c>
-      <c r="F6" s="10">
-        <v>7</v>
-      </c>
-      <c r="G6" s="10">
-        <v>4845.93</v>
-      </c>
+      <c r="F6" s="10"/>
+      <c r="G6" s="10"/>
       <c r="H6" s="12"/>
       <c r="I6" s="6"/>
       <c r="J6" s="6"/>
@@ -1279,13 +1272,13 @@
     </row>
     <row r="7" spans="1:23" ht="14.25" customHeight="1">
       <c r="A7" s="2" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="B7" s="7">
         <v>201</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="D7" s="9">
         <v>37351</v>
@@ -1293,12 +1286,8 @@
       <c r="E7" s="10">
         <v>365.7</v>
       </c>
-      <c r="F7" s="10">
-        <v>7</v>
-      </c>
-      <c r="G7" s="11">
-        <v>0</v>
-      </c>
+      <c r="F7" s="10"/>
+      <c r="G7" s="11"/>
       <c r="H7" s="6"/>
       <c r="I7" s="6"/>
       <c r="J7" s="6"/>
@@ -1317,13 +1306,13 @@
     </row>
     <row r="8" spans="1:23" ht="14.25" customHeight="1">
       <c r="A8" s="2" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="B8" s="7">
         <v>202</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="D8" s="9">
         <v>37351</v>
@@ -1331,12 +1320,8 @@
       <c r="E8" s="10">
         <v>333.9</v>
       </c>
-      <c r="F8" s="10">
-        <v>7</v>
-      </c>
-      <c r="G8" s="11">
-        <v>0</v>
-      </c>
+      <c r="F8" s="10"/>
+      <c r="G8" s="11"/>
       <c r="H8" s="6"/>
       <c r="I8" s="6"/>
       <c r="J8" s="6"/>
@@ -1355,13 +1340,13 @@
     </row>
     <row r="9" spans="1:23" ht="14.25" customHeight="1">
       <c r="A9" s="2" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="B9" s="7">
         <v>203</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="D9" s="9">
         <v>37351</v>
@@ -1369,12 +1354,8 @@
       <c r="E9" s="10">
         <v>524.70000000000005</v>
       </c>
-      <c r="F9" s="10">
-        <v>7</v>
-      </c>
-      <c r="G9" s="11">
-        <v>0</v>
-      </c>
+      <c r="F9" s="10"/>
+      <c r="G9" s="11"/>
       <c r="H9" s="6"/>
       <c r="I9" s="6"/>
       <c r="J9" s="6"/>
@@ -1393,13 +1374,13 @@
     </row>
     <row r="10" spans="1:23" ht="14.25" customHeight="1">
       <c r="A10" s="2" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="B10" s="7">
         <v>204</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="D10" s="9">
         <v>37351</v>
@@ -1407,12 +1388,8 @@
       <c r="E10" s="10">
         <v>1134.2</v>
       </c>
-      <c r="F10" s="10">
-        <v>7</v>
-      </c>
-      <c r="G10" s="11">
-        <v>0</v>
-      </c>
+      <c r="F10" s="10"/>
+      <c r="G10" s="11"/>
       <c r="H10" s="6"/>
       <c r="I10" s="6"/>
       <c r="J10" s="6"/>
@@ -1431,13 +1408,13 @@
     </row>
     <row r="11" spans="1:23" ht="14.25" customHeight="1">
       <c r="A11" s="2" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="B11" s="7">
         <v>205</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="D11" s="9">
         <v>37351</v>
@@ -1445,12 +1422,8 @@
       <c r="E11" s="10">
         <v>524.70000000000005</v>
       </c>
-      <c r="F11" s="10">
-        <v>7</v>
-      </c>
-      <c r="G11" s="11">
-        <v>0</v>
-      </c>
+      <c r="F11" s="10"/>
+      <c r="G11" s="11"/>
       <c r="H11" s="6"/>
       <c r="I11" s="6"/>
       <c r="J11" s="6"/>
@@ -1469,13 +1442,13 @@
     </row>
     <row r="12" spans="1:23" ht="14.25" customHeight="1">
       <c r="A12" s="2" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="B12" s="7">
         <v>206</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="D12" s="9">
         <v>37351</v>
@@ -1483,12 +1456,8 @@
       <c r="E12" s="10">
         <v>365.7</v>
       </c>
-      <c r="F12" s="10">
-        <v>7</v>
-      </c>
-      <c r="G12" s="11">
-        <v>0</v>
-      </c>
+      <c r="F12" s="10"/>
+      <c r="G12" s="11"/>
       <c r="H12" s="6"/>
       <c r="I12" s="6"/>
       <c r="J12" s="6"/>
@@ -1507,13 +1476,13 @@
     </row>
     <row r="13" spans="1:23" ht="14.25" customHeight="1">
       <c r="A13" s="2" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="B13" s="7">
         <v>214</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="D13" s="9">
         <v>37351</v>
@@ -1521,12 +1490,8 @@
       <c r="E13" s="10">
         <v>524.70000000000005</v>
       </c>
-      <c r="F13" s="10">
-        <v>7</v>
-      </c>
-      <c r="G13" s="11">
-        <v>0</v>
-      </c>
+      <c r="F13" s="10"/>
+      <c r="G13" s="11"/>
       <c r="H13" s="6"/>
       <c r="I13" s="6"/>
       <c r="J13" s="6"/>
@@ -1545,13 +1510,13 @@
     </row>
     <row r="14" spans="1:23" ht="14.25" customHeight="1">
       <c r="A14" s="2" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="B14" s="7">
         <v>215</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="D14" s="9">
         <v>37351</v>
@@ -1559,12 +1524,8 @@
       <c r="E14" s="10">
         <v>524.70000000000005</v>
       </c>
-      <c r="F14" s="10">
-        <v>7</v>
-      </c>
-      <c r="G14" s="11">
-        <v>0</v>
-      </c>
+      <c r="F14" s="10"/>
+      <c r="G14" s="11"/>
       <c r="H14" s="6"/>
       <c r="I14" s="6"/>
       <c r="J14" s="6"/>
@@ -1583,13 +1544,13 @@
     </row>
     <row r="15" spans="1:23" ht="14.25" customHeight="1">
       <c r="A15" s="2" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="B15" s="7">
         <v>216</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="D15" s="9">
         <v>37351</v>
@@ -1597,12 +1558,8 @@
       <c r="E15" s="10">
         <v>1317.58</v>
       </c>
-      <c r="F15" s="10">
-        <v>7</v>
-      </c>
-      <c r="G15" s="11">
-        <v>0</v>
-      </c>
+      <c r="F15" s="10"/>
+      <c r="G15" s="11"/>
       <c r="H15" s="6"/>
       <c r="I15" s="6"/>
       <c r="J15" s="6"/>
@@ -1621,13 +1578,13 @@
     </row>
     <row r="16" spans="1:23" ht="14.25" customHeight="1">
       <c r="A16" s="2" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="B16" s="7">
         <v>217</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="D16" s="9">
         <v>37351</v>
@@ -1635,12 +1592,8 @@
       <c r="E16" s="10">
         <v>318</v>
       </c>
-      <c r="F16" s="10">
-        <v>7</v>
-      </c>
-      <c r="G16" s="11">
-        <v>0</v>
-      </c>
+      <c r="F16" s="10"/>
+      <c r="G16" s="11"/>
       <c r="H16" s="6"/>
       <c r="I16" s="6"/>
       <c r="J16" s="6"/>
@@ -1659,13 +1612,13 @@
     </row>
     <row r="17" spans="1:22" ht="14.25" customHeight="1">
       <c r="A17" s="2" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="B17" s="7">
         <v>218</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="D17" s="9">
         <v>37351</v>
@@ -1673,12 +1626,8 @@
       <c r="E17" s="10">
         <v>318</v>
       </c>
-      <c r="F17" s="10">
-        <v>7</v>
-      </c>
-      <c r="G17" s="11">
-        <v>0</v>
-      </c>
+      <c r="F17" s="10"/>
+      <c r="G17" s="11"/>
       <c r="H17" s="6"/>
       <c r="I17" s="6"/>
       <c r="J17" s="6"/>
@@ -1697,13 +1646,13 @@
     </row>
     <row r="18" spans="1:22" ht="14.25" customHeight="1">
       <c r="A18" s="2" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="B18" s="7">
         <v>219</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="D18" s="9">
         <v>37351</v>
@@ -1711,12 +1660,8 @@
       <c r="E18" s="10">
         <v>1590</v>
       </c>
-      <c r="F18" s="10">
-        <v>7</v>
-      </c>
-      <c r="G18" s="11">
-        <v>0</v>
-      </c>
+      <c r="F18" s="10"/>
+      <c r="G18" s="11"/>
       <c r="H18" s="6"/>
       <c r="I18" s="6"/>
       <c r="J18" s="6"/>
@@ -1735,13 +1680,13 @@
     </row>
     <row r="19" spans="1:22" ht="14.25" customHeight="1">
       <c r="A19" s="2" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="B19" s="7">
         <v>220</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="D19" s="9">
         <v>37351</v>
@@ -1749,12 +1694,8 @@
       <c r="E19" s="10">
         <v>519.4</v>
       </c>
-      <c r="F19" s="10">
-        <v>7</v>
-      </c>
-      <c r="G19" s="11">
-        <v>0</v>
-      </c>
+      <c r="F19" s="10"/>
+      <c r="G19" s="11"/>
       <c r="H19" s="6"/>
       <c r="I19" s="6"/>
       <c r="J19" s="6"/>
@@ -1773,13 +1714,13 @@
     </row>
     <row r="20" spans="1:22" ht="14.25" customHeight="1">
       <c r="A20" s="2" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="B20" s="7">
         <v>221</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="D20" s="9">
         <v>37351</v>
@@ -1787,12 +1728,8 @@
       <c r="E20" s="10">
         <v>1054.7</v>
       </c>
-      <c r="F20" s="10">
-        <v>7</v>
-      </c>
-      <c r="G20" s="11">
-        <v>0</v>
-      </c>
+      <c r="F20" s="10"/>
+      <c r="G20" s="11"/>
       <c r="H20" s="6"/>
       <c r="I20" s="6"/>
       <c r="J20" s="6"/>
@@ -1811,13 +1748,13 @@
     </row>
     <row r="21" spans="1:22" ht="14.25" customHeight="1">
       <c r="A21" s="2" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="B21" s="7">
         <v>222</v>
       </c>
       <c r="C21" s="8" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="D21" s="9">
         <v>37351</v>
@@ -1825,12 +1762,8 @@
       <c r="E21" s="10">
         <v>318</v>
       </c>
-      <c r="F21" s="10">
-        <v>7</v>
-      </c>
-      <c r="G21" s="11">
-        <v>0</v>
-      </c>
+      <c r="F21" s="10"/>
+      <c r="G21" s="11"/>
       <c r="H21" s="6"/>
       <c r="I21" s="6"/>
       <c r="J21" s="6"/>
@@ -1849,13 +1782,13 @@
     </row>
     <row r="22" spans="1:22" ht="14.25" customHeight="1">
       <c r="A22" s="2" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="B22" s="7">
         <v>223</v>
       </c>
       <c r="C22" s="8" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="D22" s="9">
         <v>37351</v>
@@ -1863,12 +1796,8 @@
       <c r="E22" s="10">
         <v>318</v>
       </c>
-      <c r="F22" s="10">
-        <v>7</v>
-      </c>
-      <c r="G22" s="11">
-        <v>0</v>
-      </c>
+      <c r="F22" s="10"/>
+      <c r="G22" s="11"/>
       <c r="H22" s="6"/>
       <c r="I22" s="6"/>
       <c r="J22" s="6"/>
@@ -1887,13 +1816,13 @@
     </row>
     <row r="23" spans="1:22" ht="14.25" customHeight="1">
       <c r="A23" s="2" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="B23" s="7">
         <v>224</v>
       </c>
       <c r="C23" s="8" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="D23" s="9">
         <v>37351</v>
@@ -1901,12 +1830,8 @@
       <c r="E23" s="10">
         <v>371</v>
       </c>
-      <c r="F23" s="10">
-        <v>7</v>
-      </c>
-      <c r="G23" s="11">
-        <v>0</v>
-      </c>
+      <c r="F23" s="10"/>
+      <c r="G23" s="11"/>
       <c r="H23" s="6"/>
       <c r="I23" s="6"/>
       <c r="J23" s="6"/>
@@ -1925,13 +1850,13 @@
     </row>
     <row r="24" spans="1:22" ht="14.25" customHeight="1">
       <c r="A24" s="2" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="B24" s="7">
         <v>225</v>
       </c>
       <c r="C24" s="8" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="D24" s="9">
         <v>37351</v>
@@ -1939,12 +1864,8 @@
       <c r="E24" s="10">
         <v>371</v>
       </c>
-      <c r="F24" s="10">
-        <v>7</v>
-      </c>
-      <c r="G24" s="11">
-        <v>0</v>
-      </c>
+      <c r="F24" s="10"/>
+      <c r="G24" s="11"/>
       <c r="H24" s="6"/>
       <c r="I24" s="6"/>
       <c r="J24" s="6"/>
@@ -1963,13 +1884,13 @@
     </row>
     <row r="25" spans="1:22" ht="14.25" customHeight="1">
       <c r="A25" s="2" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="B25" s="7">
         <v>226</v>
       </c>
       <c r="C25" s="8" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="D25" s="9">
         <v>37351</v>
@@ -1977,12 +1898,8 @@
       <c r="E25" s="10">
         <v>333.9</v>
       </c>
-      <c r="F25" s="10">
-        <v>7</v>
-      </c>
-      <c r="G25" s="11">
-        <v>0</v>
-      </c>
+      <c r="F25" s="10"/>
+      <c r="G25" s="11"/>
       <c r="H25" s="6"/>
       <c r="I25" s="6"/>
       <c r="J25" s="6"/>
@@ -2001,13 +1918,13 @@
     </row>
     <row r="26" spans="1:22" ht="14.25" customHeight="1">
       <c r="A26" s="2" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="B26" s="7">
         <v>227</v>
       </c>
       <c r="C26" s="8" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="D26" s="9">
         <v>37351</v>
@@ -2015,12 +1932,8 @@
       <c r="E26" s="10">
         <v>333.9</v>
       </c>
-      <c r="F26" s="10">
-        <v>7</v>
-      </c>
-      <c r="G26" s="11">
-        <v>0</v>
-      </c>
+      <c r="F26" s="10"/>
+      <c r="G26" s="11"/>
       <c r="H26" s="6"/>
       <c r="I26" s="6"/>
       <c r="J26" s="6"/>
@@ -2039,13 +1952,13 @@
     </row>
     <row r="27" spans="1:22" ht="14.25" customHeight="1">
       <c r="A27" s="2" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="B27" s="7">
         <v>228</v>
       </c>
       <c r="C27" s="8" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="D27" s="9">
         <v>37351</v>
@@ -2053,12 +1966,8 @@
       <c r="E27" s="10">
         <v>365.7</v>
       </c>
-      <c r="F27" s="10">
-        <v>7</v>
-      </c>
-      <c r="G27" s="11">
-        <v>0</v>
-      </c>
+      <c r="F27" s="10"/>
+      <c r="G27" s="11"/>
       <c r="H27" s="6"/>
       <c r="I27" s="6"/>
       <c r="J27" s="6"/>
@@ -2077,13 +1986,13 @@
     </row>
     <row r="28" spans="1:22" ht="14.25" customHeight="1">
       <c r="A28" s="2" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="B28" s="7">
         <v>237</v>
       </c>
       <c r="C28" s="8" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="D28" s="9">
         <v>37351</v>
@@ -2091,12 +2000,8 @@
       <c r="E28" s="10">
         <v>524.70000000000005</v>
       </c>
-      <c r="F28" s="10">
-        <v>7</v>
-      </c>
-      <c r="G28" s="13">
-        <v>0</v>
-      </c>
+      <c r="F28" s="10"/>
+      <c r="G28" s="13"/>
       <c r="H28" s="6"/>
       <c r="I28" s="6"/>
       <c r="J28" s="6"/>
@@ -2115,13 +2020,13 @@
     </row>
     <row r="29" spans="1:22" ht="14.25" customHeight="1">
       <c r="A29" s="2" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="B29" s="7">
         <v>80</v>
       </c>
       <c r="C29" s="8" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="D29" s="9">
         <v>34992</v>
@@ -2129,12 +2034,8 @@
       <c r="E29" s="10">
         <v>208.95</v>
       </c>
-      <c r="F29" s="10">
-        <v>3</v>
-      </c>
-      <c r="G29" s="11">
-        <v>0</v>
-      </c>
+      <c r="F29" s="10"/>
+      <c r="G29" s="11"/>
       <c r="H29" s="6"/>
       <c r="I29" s="6"/>
       <c r="J29" s="6"/>
@@ -2153,13 +2054,13 @@
     </row>
     <row r="30" spans="1:22" ht="14.25" customHeight="1">
       <c r="A30" s="2" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="B30" s="14">
         <v>93</v>
       </c>
       <c r="C30" s="15" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="D30" s="16">
         <v>35223</v>
@@ -2167,12 +2068,8 @@
       <c r="E30" s="17">
         <v>901.69</v>
       </c>
-      <c r="F30" s="17">
-        <v>3</v>
-      </c>
-      <c r="G30" s="14">
-        <v>0</v>
-      </c>
+      <c r="F30" s="17"/>
+      <c r="G30" s="14"/>
       <c r="H30" s="6"/>
       <c r="I30" s="6"/>
       <c r="J30" s="6"/>
@@ -2183,7 +2080,9 @@
       <c r="O30" s="6"/>
       <c r="P30" s="6"/>
       <c r="Q30" s="6"/>
-      <c r="R30" s="6"/>
+      <c r="R30" s="6" t="s">
+        <v>197</v>
+      </c>
       <c r="S30" s="6"/>
       <c r="T30" s="6"/>
       <c r="U30" s="6"/>
@@ -2191,13 +2090,13 @@
     </row>
     <row r="31" spans="1:22" ht="14.25" customHeight="1">
       <c r="A31" s="2" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="B31" s="7">
         <v>106</v>
       </c>
       <c r="C31" s="8" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="D31" s="9">
         <v>36080</v>
@@ -2205,12 +2104,8 @@
       <c r="E31" s="10">
         <v>312.7</v>
       </c>
-      <c r="F31" s="10">
-        <v>3</v>
-      </c>
-      <c r="G31" s="11">
-        <v>0</v>
-      </c>
+      <c r="F31" s="10"/>
+      <c r="G31" s="11"/>
       <c r="H31" s="6"/>
       <c r="I31" s="6"/>
       <c r="J31" s="6"/>
@@ -2229,13 +2124,13 @@
     </row>
     <row r="32" spans="1:22" ht="14.25" customHeight="1">
       <c r="A32" s="2" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="B32" s="7">
         <v>107</v>
       </c>
       <c r="C32" s="8" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="D32" s="9">
         <v>36080</v>
@@ -2243,12 +2138,8 @@
       <c r="E32" s="10">
         <v>263.94</v>
       </c>
-      <c r="F32" s="10">
-        <v>3</v>
-      </c>
-      <c r="G32" s="11">
-        <v>0</v>
-      </c>
+      <c r="F32" s="10"/>
+      <c r="G32" s="11"/>
       <c r="H32" s="6"/>
       <c r="I32" s="6"/>
       <c r="J32" s="6"/>
@@ -2267,13 +2158,13 @@
     </row>
     <row r="33" spans="1:22" ht="14.25" customHeight="1">
       <c r="A33" s="2" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="B33" s="7">
         <v>108</v>
       </c>
       <c r="C33" s="8" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="D33" s="9">
         <v>36080</v>
@@ -2281,12 +2172,8 @@
       <c r="E33" s="10">
         <v>147.34</v>
       </c>
-      <c r="F33" s="10">
-        <v>3</v>
-      </c>
-      <c r="G33" s="11">
-        <v>0</v>
-      </c>
+      <c r="F33" s="10"/>
+      <c r="G33" s="11"/>
       <c r="H33" s="6"/>
       <c r="I33" s="6"/>
       <c r="J33" s="6"/>
@@ -2305,13 +2192,13 @@
     </row>
     <row r="34" spans="1:22" ht="14.25" customHeight="1">
       <c r="A34" s="2" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="B34" s="7">
         <v>109</v>
       </c>
       <c r="C34" s="8" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="D34" s="9">
         <v>36080</v>
@@ -2319,12 +2206,8 @@
       <c r="E34" s="10">
         <v>450</v>
       </c>
-      <c r="F34" s="17">
-        <v>3</v>
-      </c>
-      <c r="G34" s="14">
-        <v>0</v>
-      </c>
+      <c r="F34" s="17"/>
+      <c r="G34" s="14"/>
       <c r="H34" s="6"/>
       <c r="I34" s="6"/>
       <c r="J34" s="6"/>
@@ -2335,7 +2218,9 @@
       <c r="O34" s="6"/>
       <c r="P34" s="6"/>
       <c r="Q34" s="6"/>
-      <c r="R34" s="6"/>
+      <c r="R34" s="6" t="s">
+        <v>197</v>
+      </c>
       <c r="S34" s="6"/>
       <c r="T34" s="6"/>
       <c r="U34" s="6"/>
@@ -2343,13 +2228,13 @@
     </row>
     <row r="35" spans="1:22" ht="14.25" customHeight="1">
       <c r="A35" s="2" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="B35" s="7">
         <v>130</v>
       </c>
       <c r="C35" s="8" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="D35" s="9">
         <v>36290</v>
@@ -2357,12 +2242,8 @@
       <c r="E35" s="10">
         <v>764.96</v>
       </c>
-      <c r="F35" s="17">
-        <v>3</v>
-      </c>
-      <c r="G35" s="14">
-        <v>0</v>
-      </c>
+      <c r="F35" s="17"/>
+      <c r="G35" s="14"/>
       <c r="H35" s="6"/>
       <c r="I35" s="6"/>
       <c r="J35" s="6"/>
@@ -2373,7 +2254,9 @@
       <c r="O35" s="6"/>
       <c r="P35" s="6"/>
       <c r="Q35" s="6"/>
-      <c r="R35" s="6"/>
+      <c r="R35" s="6" t="s">
+        <v>197</v>
+      </c>
       <c r="S35" s="6"/>
       <c r="T35" s="6"/>
       <c r="U35" s="6"/>
@@ -2381,13 +2264,13 @@
     </row>
     <row r="36" spans="1:22" ht="14.25" customHeight="1">
       <c r="A36" s="2" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="B36" s="7">
         <v>172</v>
       </c>
       <c r="C36" s="8" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="D36" s="9">
         <v>36531</v>
@@ -2395,12 +2278,8 @@
       <c r="E36" s="10">
         <v>4817.43</v>
       </c>
-      <c r="F36" s="10">
-        <v>3</v>
-      </c>
-      <c r="G36" s="11">
-        <v>0</v>
-      </c>
+      <c r="F36" s="10"/>
+      <c r="G36" s="11"/>
       <c r="H36" s="6"/>
       <c r="I36" s="6"/>
       <c r="J36" s="6"/>
@@ -2419,13 +2298,13 @@
     </row>
     <row r="37" spans="1:22" ht="14.25" customHeight="1">
       <c r="A37" s="2" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="B37" s="7">
         <v>181</v>
       </c>
       <c r="C37" s="8" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="D37" s="9">
         <v>36697</v>
@@ -2433,12 +2312,8 @@
       <c r="E37" s="10">
         <v>1598.87</v>
       </c>
-      <c r="F37" s="10">
-        <v>3</v>
-      </c>
-      <c r="G37" s="11">
-        <v>0</v>
-      </c>
+      <c r="F37" s="10"/>
+      <c r="G37" s="11"/>
       <c r="H37" s="6"/>
       <c r="I37" s="6"/>
       <c r="J37" s="6"/>
@@ -2457,13 +2332,13 @@
     </row>
     <row r="38" spans="1:22" ht="14.25" customHeight="1">
       <c r="A38" s="2" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="B38" s="7">
         <v>182</v>
       </c>
       <c r="C38" s="8" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="D38" s="9">
         <v>36769</v>
@@ -2471,12 +2346,8 @@
       <c r="E38" s="10">
         <v>1598.77</v>
       </c>
-      <c r="F38" s="10">
-        <v>3</v>
-      </c>
-      <c r="G38" s="11">
-        <v>0</v>
-      </c>
+      <c r="F38" s="10"/>
+      <c r="G38" s="11"/>
       <c r="H38" s="6"/>
       <c r="I38" s="6"/>
       <c r="J38" s="6"/>
@@ -2495,13 +2366,13 @@
     </row>
     <row r="39" spans="1:22" ht="14.25" customHeight="1">
       <c r="A39" s="2" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="B39" s="7">
         <v>292</v>
       </c>
       <c r="C39" s="8" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="D39" s="9">
         <v>38419</v>
@@ -2509,12 +2380,8 @@
       <c r="E39" s="10">
         <v>4774.24</v>
       </c>
-      <c r="F39" s="17">
-        <v>3</v>
-      </c>
-      <c r="G39" s="14">
-        <v>0</v>
-      </c>
+      <c r="F39" s="17"/>
+      <c r="G39" s="14"/>
       <c r="H39" s="6"/>
       <c r="I39" s="6"/>
       <c r="J39" s="6"/>
@@ -2525,7 +2392,9 @@
       <c r="O39" s="6"/>
       <c r="P39" s="6"/>
       <c r="Q39" s="6"/>
-      <c r="R39" s="6"/>
+      <c r="R39" s="6" t="s">
+        <v>197</v>
+      </c>
       <c r="S39" s="6"/>
       <c r="T39" s="6"/>
       <c r="U39" s="6"/>
@@ -2533,13 +2402,13 @@
     </row>
     <row r="40" spans="1:22" ht="14.25" customHeight="1">
       <c r="A40" s="2" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="B40" s="7">
         <v>293</v>
       </c>
       <c r="C40" s="8" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="D40" s="9">
         <v>38574</v>
@@ -2547,12 +2416,8 @@
       <c r="E40" s="10">
         <v>845.88</v>
       </c>
-      <c r="F40" s="10">
-        <v>3</v>
-      </c>
-      <c r="G40" s="11">
-        <v>0</v>
-      </c>
+      <c r="F40" s="10"/>
+      <c r="G40" s="11"/>
       <c r="H40" s="6"/>
       <c r="I40" s="6"/>
       <c r="J40" s="6"/>
@@ -2571,13 +2436,13 @@
     </row>
     <row r="41" spans="1:22" ht="14.25" customHeight="1">
       <c r="A41" s="2" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="B41" s="7">
         <v>294</v>
       </c>
       <c r="C41" s="8" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="D41" s="9">
         <v>38635</v>
@@ -2585,12 +2450,8 @@
       <c r="E41" s="10">
         <v>2189.5</v>
       </c>
-      <c r="F41" s="10">
-        <v>3</v>
-      </c>
-      <c r="G41" s="11">
-        <v>0</v>
-      </c>
+      <c r="F41" s="10"/>
+      <c r="G41" s="11"/>
       <c r="H41" s="6"/>
       <c r="I41" s="6"/>
       <c r="J41" s="6"/>
@@ -2609,13 +2470,13 @@
     </row>
     <row r="42" spans="1:22" ht="14.25" customHeight="1">
       <c r="A42" s="2" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="B42" s="7">
         <v>295</v>
       </c>
       <c r="C42" s="8" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="D42" s="9">
         <v>38653</v>
@@ -2623,12 +2484,8 @@
       <c r="E42" s="10">
         <v>563.91999999999996</v>
       </c>
-      <c r="F42" s="10">
-        <v>3</v>
-      </c>
-      <c r="G42" s="11">
-        <v>0</v>
-      </c>
+      <c r="F42" s="10"/>
+      <c r="G42" s="11"/>
       <c r="H42" s="6"/>
       <c r="I42" s="6"/>
       <c r="J42" s="6"/>
@@ -2647,13 +2504,13 @@
     </row>
     <row r="43" spans="1:22" ht="14.25" customHeight="1">
       <c r="A43" s="2" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="B43" s="7">
         <v>311</v>
       </c>
       <c r="C43" s="8" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="D43" s="9">
         <v>38874</v>
@@ -2661,12 +2518,8 @@
       <c r="E43" s="10">
         <v>4803.13</v>
       </c>
-      <c r="F43" s="17">
-        <v>3</v>
-      </c>
-      <c r="G43" s="14">
-        <v>0</v>
-      </c>
+      <c r="F43" s="17"/>
+      <c r="G43" s="14"/>
       <c r="H43" s="6"/>
       <c r="I43" s="6"/>
       <c r="J43" s="6"/>
@@ -2677,7 +2530,9 @@
       <c r="O43" s="6"/>
       <c r="P43" s="6"/>
       <c r="Q43" s="6"/>
-      <c r="R43" s="6"/>
+      <c r="R43" s="6" t="s">
+        <v>197</v>
+      </c>
       <c r="S43" s="6"/>
       <c r="T43" s="6"/>
       <c r="U43" s="6"/>
@@ -2685,13 +2540,13 @@
     </row>
     <row r="44" spans="1:22" ht="14.25" customHeight="1">
       <c r="A44" s="2" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="B44" s="7">
         <v>325</v>
       </c>
       <c r="C44" s="8" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="D44" s="9">
         <v>39212</v>
@@ -2699,12 +2554,8 @@
       <c r="E44" s="10">
         <v>1190</v>
       </c>
-      <c r="F44" s="17">
-        <v>3</v>
-      </c>
-      <c r="G44" s="14">
-        <v>0</v>
-      </c>
+      <c r="F44" s="17"/>
+      <c r="G44" s="14"/>
       <c r="H44" s="6"/>
       <c r="I44" s="6"/>
       <c r="J44" s="6"/>
@@ -2715,7 +2566,9 @@
       <c r="O44" s="6"/>
       <c r="P44" s="6"/>
       <c r="Q44" s="6"/>
-      <c r="R44" s="6"/>
+      <c r="R44" s="6" t="s">
+        <v>197</v>
+      </c>
       <c r="S44" s="6"/>
       <c r="T44" s="6"/>
       <c r="U44" s="6"/>
@@ -2723,13 +2576,13 @@
     </row>
     <row r="45" spans="1:22" ht="14.25" customHeight="1">
       <c r="A45" s="2" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="B45" s="7">
         <v>326</v>
       </c>
       <c r="C45" s="8" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="D45" s="9">
         <v>39234</v>
@@ -2737,12 +2590,8 @@
       <c r="E45" s="10">
         <v>1794.17</v>
       </c>
-      <c r="F45" s="17">
-        <v>3</v>
-      </c>
-      <c r="G45" s="14">
-        <v>0</v>
-      </c>
+      <c r="F45" s="17"/>
+      <c r="G45" s="14"/>
       <c r="H45" s="6"/>
       <c r="I45" s="6"/>
       <c r="J45" s="6"/>
@@ -2753,7 +2602,9 @@
       <c r="O45" s="6"/>
       <c r="P45" s="6"/>
       <c r="Q45" s="6"/>
-      <c r="R45" s="6"/>
+      <c r="R45" s="6" t="s">
+        <v>197</v>
+      </c>
       <c r="S45" s="6"/>
       <c r="T45" s="6"/>
       <c r="U45" s="6"/>
@@ -2761,13 +2612,13 @@
     </row>
     <row r="46" spans="1:22" ht="14.25" customHeight="1">
       <c r="A46" s="2" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="B46" s="7">
         <v>331</v>
       </c>
       <c r="C46" s="8" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="D46" s="9">
         <v>39605</v>
@@ -2775,12 +2626,8 @@
       <c r="E46" s="10">
         <v>1568.5</v>
       </c>
-      <c r="F46" s="17">
-        <v>3</v>
-      </c>
-      <c r="G46" s="14">
-        <v>0</v>
-      </c>
+      <c r="F46" s="17"/>
+      <c r="G46" s="14"/>
       <c r="H46" s="6"/>
       <c r="I46" s="6"/>
       <c r="J46" s="6"/>
@@ -2791,7 +2638,9 @@
       <c r="O46" s="6"/>
       <c r="P46" s="6"/>
       <c r="Q46" s="6"/>
-      <c r="R46" s="6"/>
+      <c r="R46" s="6" t="s">
+        <v>197</v>
+      </c>
       <c r="S46" s="6"/>
       <c r="T46" s="6"/>
       <c r="U46" s="6"/>
@@ -2799,13 +2648,13 @@
     </row>
     <row r="47" spans="1:22" ht="14.25" customHeight="1">
       <c r="A47" s="2" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="B47" s="7">
         <v>332</v>
       </c>
       <c r="C47" s="8" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="D47" s="9">
         <v>39645</v>
@@ -2813,12 +2662,8 @@
       <c r="E47" s="10">
         <v>1314.4</v>
       </c>
-      <c r="F47" s="10">
-        <v>3</v>
-      </c>
-      <c r="G47" s="11">
-        <v>0</v>
-      </c>
+      <c r="F47" s="10"/>
+      <c r="G47" s="11"/>
       <c r="H47" s="6"/>
       <c r="I47" s="6"/>
       <c r="J47" s="6"/>
@@ -2837,13 +2682,13 @@
     </row>
     <row r="48" spans="1:22" ht="14.25" customHeight="1">
       <c r="A48" s="2" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="B48" s="7">
         <v>337</v>
       </c>
       <c r="C48" s="8" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="D48" s="9">
         <v>39932</v>
@@ -2851,12 +2696,8 @@
       <c r="E48" s="10">
         <v>1647.24</v>
       </c>
-      <c r="F48" s="10">
-        <v>3</v>
-      </c>
-      <c r="G48" s="11">
-        <v>0</v>
-      </c>
+      <c r="F48" s="10"/>
+      <c r="G48" s="11"/>
       <c r="H48" s="6"/>
       <c r="I48" s="6"/>
       <c r="J48" s="6"/>
@@ -2875,13 +2716,13 @@
     </row>
     <row r="49" spans="1:22" ht="14.25" customHeight="1">
       <c r="A49" s="2" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="B49" s="7">
         <v>338</v>
       </c>
       <c r="C49" s="8" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="D49" s="9">
         <v>40032</v>
@@ -2889,12 +2730,8 @@
       <c r="E49" s="10">
         <v>5342.4</v>
       </c>
-      <c r="F49" s="10">
-        <v>3</v>
-      </c>
-      <c r="G49" s="11">
-        <v>0</v>
-      </c>
+      <c r="F49" s="10"/>
+      <c r="G49" s="11"/>
       <c r="H49" s="6"/>
       <c r="I49" s="6"/>
       <c r="J49" s="6"/>
@@ -2913,13 +2750,13 @@
     </row>
     <row r="50" spans="1:22" ht="14.25" customHeight="1">
       <c r="A50" s="2" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="B50" s="7">
         <v>339</v>
       </c>
       <c r="C50" s="8" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="D50" s="9">
         <v>40042</v>
@@ -2927,12 +2764,8 @@
       <c r="E50" s="10">
         <v>6824.28</v>
       </c>
-      <c r="F50" s="17">
-        <v>3</v>
-      </c>
-      <c r="G50" s="14">
-        <v>0</v>
-      </c>
+      <c r="F50" s="17"/>
+      <c r="G50" s="14"/>
       <c r="H50" s="6"/>
       <c r="I50" s="6"/>
       <c r="J50" s="6"/>
@@ -2943,7 +2776,9 @@
       <c r="O50" s="6"/>
       <c r="P50" s="6"/>
       <c r="Q50" s="6"/>
-      <c r="R50" s="6"/>
+      <c r="R50" s="6" t="s">
+        <v>197</v>
+      </c>
       <c r="S50" s="6"/>
       <c r="T50" s="6"/>
       <c r="U50" s="6"/>
@@ -2951,13 +2786,13 @@
     </row>
     <row r="51" spans="1:22" ht="14.25" customHeight="1">
       <c r="A51" s="2" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="B51" s="7">
         <v>340</v>
       </c>
       <c r="C51" s="8" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="D51" s="9">
         <v>40045</v>
@@ -2965,12 +2800,8 @@
       <c r="E51" s="10">
         <v>2117.6</v>
       </c>
-      <c r="F51" s="17">
-        <v>3</v>
-      </c>
-      <c r="G51" s="14">
-        <v>0</v>
-      </c>
+      <c r="F51" s="17"/>
+      <c r="G51" s="14"/>
       <c r="H51" s="6"/>
       <c r="I51" s="6"/>
       <c r="J51" s="6"/>
@@ -2981,7 +2812,9 @@
       <c r="O51" s="6"/>
       <c r="P51" s="6"/>
       <c r="Q51" s="6"/>
-      <c r="R51" s="6"/>
+      <c r="R51" s="6" t="s">
+        <v>197</v>
+      </c>
       <c r="S51" s="6"/>
       <c r="T51" s="6"/>
       <c r="U51" s="6"/>
@@ -2989,13 +2822,13 @@
     </row>
     <row r="52" spans="1:22" ht="14.25" customHeight="1">
       <c r="A52" s="2" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="B52" s="7">
         <v>341</v>
       </c>
       <c r="C52" s="8" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="D52" s="9">
         <v>40045</v>
@@ -3003,12 +2836,8 @@
       <c r="E52" s="10">
         <v>2423.6</v>
       </c>
-      <c r="F52" s="10">
-        <v>3</v>
-      </c>
-      <c r="G52" s="11">
-        <v>0</v>
-      </c>
+      <c r="F52" s="10"/>
+      <c r="G52" s="11"/>
       <c r="H52" s="6"/>
       <c r="I52" s="6"/>
       <c r="J52" s="6"/>
@@ -3027,13 +2856,13 @@
     </row>
     <row r="53" spans="1:22" ht="14.25" customHeight="1">
       <c r="A53" s="2" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="B53" s="7">
         <v>342</v>
       </c>
       <c r="C53" s="8" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="D53" s="9">
         <v>40045</v>
@@ -3041,12 +2870,8 @@
       <c r="E53" s="10">
         <v>1490</v>
       </c>
-      <c r="F53" s="10">
-        <v>3</v>
-      </c>
-      <c r="G53" s="11">
-        <v>0</v>
-      </c>
+      <c r="F53" s="10"/>
+      <c r="G53" s="11"/>
       <c r="H53" s="6"/>
       <c r="I53" s="6"/>
       <c r="J53" s="6"/>
@@ -3065,13 +2890,13 @@
     </row>
     <row r="54" spans="1:22" ht="14.25" customHeight="1">
       <c r="A54" s="2" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="B54" s="7">
         <v>344</v>
       </c>
       <c r="C54" s="8" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="D54" s="9">
         <v>40148</v>
@@ -3079,12 +2904,8 @@
       <c r="E54" s="10">
         <v>200.34</v>
       </c>
-      <c r="F54" s="17">
-        <v>3</v>
-      </c>
-      <c r="G54" s="14">
-        <v>0</v>
-      </c>
+      <c r="F54" s="17"/>
+      <c r="G54" s="14"/>
       <c r="H54" s="6"/>
       <c r="I54" s="6"/>
       <c r="J54" s="6"/>
@@ -3095,7 +2916,9 @@
       <c r="O54" s="6"/>
       <c r="P54" s="6"/>
       <c r="Q54" s="6"/>
-      <c r="R54" s="6"/>
+      <c r="R54" s="6" t="s">
+        <v>197</v>
+      </c>
       <c r="S54" s="6"/>
       <c r="T54" s="6"/>
       <c r="U54" s="6"/>
@@ -3103,13 +2926,13 @@
     </row>
     <row r="55" spans="1:22" ht="14.25" customHeight="1">
       <c r="A55" s="2" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="B55" s="7">
         <v>363</v>
       </c>
       <c r="C55" s="8" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="D55" s="9">
         <v>40315</v>
@@ -3117,12 +2940,8 @@
       <c r="E55" s="10">
         <v>1240.2</v>
       </c>
-      <c r="F55" s="17">
-        <v>5</v>
-      </c>
-      <c r="G55" s="14">
-        <v>0</v>
-      </c>
+      <c r="F55" s="17"/>
+      <c r="G55" s="14"/>
       <c r="H55" s="6"/>
       <c r="I55" s="6"/>
       <c r="J55" s="6"/>
@@ -3133,7 +2952,9 @@
       <c r="O55" s="6"/>
       <c r="P55" s="6"/>
       <c r="Q55" s="6"/>
-      <c r="R55" s="6"/>
+      <c r="R55" s="6" t="s">
+        <v>197</v>
+      </c>
       <c r="S55" s="6"/>
       <c r="T55" s="6"/>
       <c r="U55" s="6"/>
@@ -3141,13 +2962,13 @@
     </row>
     <row r="56" spans="1:22" ht="14.25" customHeight="1">
       <c r="A56" s="2" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="B56" s="7">
         <v>364</v>
       </c>
       <c r="C56" s="8" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="D56" s="9">
         <v>40315</v>
@@ -3155,12 +2976,8 @@
       <c r="E56" s="10">
         <v>1234.9000000000001</v>
       </c>
-      <c r="F56" s="10">
-        <v>5</v>
-      </c>
-      <c r="G56" s="11">
-        <v>0</v>
-      </c>
+      <c r="F56" s="10"/>
+      <c r="G56" s="11"/>
       <c r="H56" s="6"/>
       <c r="I56" s="6"/>
       <c r="J56" s="6"/>
@@ -3179,13 +2996,13 @@
     </row>
     <row r="57" spans="1:22" ht="14.25" customHeight="1">
       <c r="A57" s="2" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="B57" s="7">
         <v>376</v>
       </c>
       <c r="C57" s="8" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="D57" s="9">
         <v>40746</v>
@@ -3193,12 +3010,8 @@
       <c r="E57" s="10">
         <v>1523.22</v>
       </c>
-      <c r="F57" s="17">
-        <v>3</v>
-      </c>
-      <c r="G57" s="14">
-        <v>0</v>
-      </c>
+      <c r="F57" s="17"/>
+      <c r="G57" s="14"/>
       <c r="H57" s="6"/>
       <c r="I57" s="6"/>
       <c r="J57" s="6"/>
@@ -3209,7 +3022,9 @@
       <c r="O57" s="6"/>
       <c r="P57" s="6"/>
       <c r="Q57" s="6"/>
-      <c r="R57" s="6"/>
+      <c r="R57" s="6" t="s">
+        <v>197</v>
+      </c>
       <c r="S57" s="6"/>
       <c r="T57" s="6"/>
       <c r="U57" s="6"/>
@@ -3217,13 +3032,13 @@
     </row>
     <row r="58" spans="1:22" ht="14.25" customHeight="1">
       <c r="A58" s="2" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="B58" s="7">
         <v>377</v>
       </c>
       <c r="C58" s="8" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="D58" s="9">
         <v>40900</v>
@@ -3231,12 +3046,8 @@
       <c r="E58" s="10">
         <v>2779.85</v>
       </c>
-      <c r="F58" s="17">
-        <v>3</v>
-      </c>
-      <c r="G58" s="14">
-        <v>0</v>
-      </c>
+      <c r="F58" s="17"/>
+      <c r="G58" s="14"/>
       <c r="H58" s="6"/>
       <c r="I58" s="6"/>
       <c r="J58" s="6"/>
@@ -3247,7 +3058,9 @@
       <c r="O58" s="6"/>
       <c r="P58" s="6"/>
       <c r="Q58" s="6"/>
-      <c r="R58" s="6"/>
+      <c r="R58" s="6" t="s">
+        <v>197</v>
+      </c>
       <c r="S58" s="6"/>
       <c r="T58" s="6"/>
       <c r="U58" s="6"/>
@@ -3255,13 +3068,13 @@
     </row>
     <row r="59" spans="1:22" ht="14.25" customHeight="1">
       <c r="A59" s="2" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="B59" s="7">
         <v>383</v>
       </c>
       <c r="C59" s="8" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="D59" s="9">
         <v>41262</v>
@@ -3269,12 +3082,8 @@
       <c r="E59" s="10">
         <v>1968.42</v>
       </c>
-      <c r="F59" s="10">
-        <v>3</v>
-      </c>
-      <c r="G59" s="11">
-        <v>0</v>
-      </c>
+      <c r="F59" s="10"/>
+      <c r="G59" s="11"/>
       <c r="H59" s="6"/>
       <c r="I59" s="6"/>
       <c r="J59" s="6"/>
@@ -3293,13 +3102,13 @@
     </row>
     <row r="60" spans="1:22" ht="14.25" customHeight="1">
       <c r="A60" s="1" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="B60" s="11">
         <v>407</v>
       </c>
       <c r="C60" s="18" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="D60" s="19">
         <v>42247</v>
@@ -3307,12 +3116,8 @@
       <c r="E60" s="20">
         <v>1796</v>
       </c>
-      <c r="F60" s="10">
-        <v>3</v>
-      </c>
-      <c r="G60" s="13">
-        <v>773.28</v>
-      </c>
+      <c r="F60" s="10"/>
+      <c r="G60" s="13"/>
       <c r="H60" s="3"/>
       <c r="I60" s="6"/>
       <c r="J60" s="6"/>
@@ -3331,13 +3136,13 @@
     </row>
     <row r="61" spans="1:22" ht="14.25" customHeight="1">
       <c r="A61" s="21" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="B61" s="7">
         <v>321</v>
       </c>
       <c r="C61" s="8" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="D61" s="9">
         <v>39254</v>
@@ -3345,12 +3150,8 @@
       <c r="E61" s="10">
         <v>2201.12</v>
       </c>
-      <c r="F61" s="10">
-        <v>5</v>
-      </c>
-      <c r="G61" s="11">
-        <v>0</v>
-      </c>
+      <c r="F61" s="10"/>
+      <c r="G61" s="11"/>
       <c r="H61" s="6"/>
       <c r="I61" s="6"/>
       <c r="J61" s="6"/>
@@ -3369,13 +3170,13 @@
     </row>
     <row r="62" spans="1:22" ht="14.25" customHeight="1">
       <c r="A62" s="21" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="B62" s="7">
         <v>329</v>
       </c>
       <c r="C62" s="8" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="D62" s="9">
         <v>39721</v>
@@ -3383,12 +3184,8 @@
       <c r="E62" s="10">
         <v>1896.34</v>
       </c>
-      <c r="F62" s="10">
-        <v>5</v>
-      </c>
-      <c r="G62" s="11">
-        <v>0</v>
-      </c>
+      <c r="F62" s="10"/>
+      <c r="G62" s="11"/>
       <c r="H62" s="6"/>
       <c r="I62" s="6"/>
       <c r="J62" s="6"/>
@@ -3407,13 +3204,13 @@
     </row>
     <row r="63" spans="1:22" ht="14.25" customHeight="1">
       <c r="A63" s="21" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="B63" s="7">
         <v>330</v>
       </c>
       <c r="C63" s="8" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="D63" s="9">
         <v>39553</v>
@@ -3421,12 +3218,8 @@
       <c r="E63" s="10">
         <v>3051.69</v>
       </c>
-      <c r="F63" s="10">
-        <v>5</v>
-      </c>
-      <c r="G63" s="11">
-        <v>0</v>
-      </c>
+      <c r="F63" s="10"/>
+      <c r="G63" s="11"/>
       <c r="H63" s="6"/>
       <c r="I63" s="6"/>
       <c r="J63" s="6"/>
@@ -3445,13 +3238,13 @@
     </row>
     <row r="64" spans="1:22" ht="14.25" customHeight="1">
       <c r="A64" s="21" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="B64" s="7">
         <v>334</v>
       </c>
       <c r="C64" s="8" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="D64" s="9">
         <v>40022</v>
@@ -3459,12 +3252,8 @@
       <c r="E64" s="10">
         <v>2169.81</v>
       </c>
-      <c r="F64" s="10">
-        <v>5</v>
-      </c>
-      <c r="G64" s="11">
-        <v>0</v>
-      </c>
+      <c r="F64" s="10"/>
+      <c r="G64" s="11"/>
       <c r="H64" s="6"/>
       <c r="I64" s="6"/>
       <c r="J64" s="6"/>
@@ -3483,13 +3272,13 @@
     </row>
     <row r="65" spans="1:22" ht="14.25" customHeight="1">
       <c r="A65" s="21" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="B65" s="7">
         <v>350</v>
       </c>
       <c r="C65" s="8" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="D65" s="9">
         <v>40254</v>
@@ -3497,12 +3286,8 @@
       <c r="E65" s="10">
         <v>2134.31</v>
       </c>
-      <c r="F65" s="10">
-        <v>5</v>
-      </c>
-      <c r="G65" s="11">
-        <v>0</v>
-      </c>
+      <c r="F65" s="10"/>
+      <c r="G65" s="11"/>
       <c r="H65" s="6"/>
       <c r="I65" s="6"/>
       <c r="J65" s="6"/>
@@ -3521,13 +3306,13 @@
     </row>
     <row r="66" spans="1:22" ht="14.25" customHeight="1">
       <c r="A66" s="21" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="B66" s="7">
         <v>354</v>
       </c>
       <c r="C66" s="8" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="D66" s="9">
         <v>40395</v>
@@ -3535,12 +3320,8 @@
       <c r="E66" s="10">
         <v>2056.4</v>
       </c>
-      <c r="F66" s="10">
-        <v>5</v>
-      </c>
-      <c r="G66" s="11">
-        <v>0</v>
-      </c>
+      <c r="F66" s="10"/>
+      <c r="G66" s="11"/>
       <c r="H66" s="6"/>
       <c r="I66" s="6"/>
       <c r="J66" s="6"/>
@@ -3559,13 +3340,13 @@
     </row>
     <row r="67" spans="1:22" ht="14.25" customHeight="1">
       <c r="A67" s="21" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="B67" s="7">
         <v>356</v>
       </c>
       <c r="C67" s="8" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="D67" s="9">
         <v>40443</v>
@@ -3573,12 +3354,8 @@
       <c r="E67" s="10">
         <v>803.48</v>
       </c>
-      <c r="F67" s="10">
-        <v>5</v>
-      </c>
-      <c r="G67" s="11">
-        <v>0</v>
-      </c>
+      <c r="F67" s="10"/>
+      <c r="G67" s="11"/>
       <c r="H67" s="6"/>
       <c r="I67" s="6"/>
       <c r="J67" s="6"/>
@@ -3597,13 +3374,13 @@
     </row>
     <row r="68" spans="1:22" ht="14.25" customHeight="1">
       <c r="A68" s="21" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="B68" s="7">
         <v>368</v>
       </c>
       <c r="C68" s="8" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="D68" s="9">
         <v>40568</v>
@@ -3611,12 +3388,8 @@
       <c r="E68" s="10">
         <v>1641.94</v>
       </c>
-      <c r="F68" s="10">
-        <v>5</v>
-      </c>
-      <c r="G68" s="11">
-        <v>0</v>
-      </c>
+      <c r="F68" s="10"/>
+      <c r="G68" s="11"/>
       <c r="H68" s="6"/>
       <c r="I68" s="6"/>
       <c r="J68" s="6"/>
@@ -3635,13 +3408,13 @@
     </row>
     <row r="69" spans="1:22" ht="14.25" customHeight="1">
       <c r="A69" s="21" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="B69" s="7">
         <v>369</v>
       </c>
       <c r="C69" s="8" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="D69" s="9">
         <v>40763</v>
@@ -3649,12 +3422,8 @@
       <c r="E69" s="10">
         <v>1817.37</v>
       </c>
-      <c r="F69" s="10">
-        <v>5</v>
-      </c>
-      <c r="G69" s="11">
-        <v>0</v>
-      </c>
+      <c r="F69" s="10"/>
+      <c r="G69" s="11"/>
       <c r="H69" s="6"/>
       <c r="I69" s="6"/>
       <c r="J69" s="6"/>
@@ -3673,13 +3442,13 @@
     </row>
     <row r="70" spans="1:22" ht="14.25" customHeight="1">
       <c r="A70" s="21" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="B70" s="7">
         <v>370</v>
       </c>
       <c r="C70" s="8" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="D70" s="9">
         <v>40851</v>
@@ -3687,12 +3456,8 @@
       <c r="E70" s="10">
         <v>1206.68</v>
       </c>
-      <c r="F70" s="10">
-        <v>5</v>
-      </c>
-      <c r="G70" s="11">
-        <v>0</v>
-      </c>
+      <c r="F70" s="10"/>
+      <c r="G70" s="11"/>
       <c r="H70" s="6"/>
       <c r="I70" s="6"/>
       <c r="J70" s="6"/>
@@ -3711,13 +3476,13 @@
     </row>
     <row r="71" spans="1:22" ht="14.25" customHeight="1">
       <c r="A71" s="21" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="B71" s="7">
         <v>371</v>
       </c>
       <c r="C71" s="8" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="D71" s="9">
         <v>40862</v>
@@ -3725,12 +3490,8 @@
       <c r="E71" s="10">
         <v>1241.26</v>
       </c>
-      <c r="F71" s="10">
-        <v>5</v>
-      </c>
-      <c r="G71" s="11">
-        <v>0</v>
-      </c>
+      <c r="F71" s="10"/>
+      <c r="G71" s="11"/>
       <c r="H71" s="6"/>
       <c r="I71" s="6"/>
       <c r="J71" s="6"/>
@@ -3749,13 +3510,13 @@
     </row>
     <row r="72" spans="1:22" ht="14.25" customHeight="1">
       <c r="A72" s="21" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="B72" s="7">
         <v>373</v>
       </c>
       <c r="C72" s="8" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="D72" s="9">
         <v>40851</v>
@@ -3763,12 +3524,8 @@
       <c r="E72" s="10">
         <v>1206.68</v>
       </c>
-      <c r="F72" s="10">
-        <v>5</v>
-      </c>
-      <c r="G72" s="11">
-        <v>0</v>
-      </c>
+      <c r="F72" s="10"/>
+      <c r="G72" s="11"/>
       <c r="H72" s="6"/>
       <c r="I72" s="6"/>
       <c r="J72" s="6"/>
@@ -3787,13 +3544,13 @@
     </row>
     <row r="73" spans="1:22" ht="14.25" customHeight="1">
       <c r="A73" s="21" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="B73" s="7">
         <v>374</v>
       </c>
       <c r="C73" s="8" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="D73" s="9">
         <v>40851</v>
@@ -3801,12 +3558,8 @@
       <c r="E73" s="10">
         <v>1206.68</v>
       </c>
-      <c r="F73" s="10">
-        <v>5</v>
-      </c>
-      <c r="G73" s="11">
-        <v>0</v>
-      </c>
+      <c r="F73" s="10"/>
+      <c r="G73" s="11"/>
       <c r="H73" s="6"/>
       <c r="I73" s="6"/>
       <c r="J73" s="6"/>
@@ -3825,13 +3578,13 @@
     </row>
     <row r="74" spans="1:22" ht="14.25" customHeight="1">
       <c r="A74" s="21" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="B74" s="7">
         <v>375</v>
       </c>
       <c r="C74" s="8" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="D74" s="9">
         <v>40851</v>
@@ -3839,12 +3592,8 @@
       <c r="E74" s="10">
         <v>1206.67</v>
       </c>
-      <c r="F74" s="10">
-        <v>5</v>
-      </c>
-      <c r="G74" s="11">
-        <v>0</v>
-      </c>
+      <c r="F74" s="10"/>
+      <c r="G74" s="11"/>
       <c r="H74" s="6"/>
       <c r="I74" s="6"/>
       <c r="J74" s="6"/>
@@ -3863,13 +3612,13 @@
     </row>
     <row r="75" spans="1:22" ht="14.25" customHeight="1">
       <c r="A75" s="21" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="B75" s="7">
         <v>379</v>
       </c>
       <c r="C75" s="8" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="D75" s="9">
         <v>41115</v>
@@ -3877,12 +3626,8 @@
       <c r="E75" s="10">
         <v>1403.97</v>
       </c>
-      <c r="F75" s="10">
-        <v>5</v>
-      </c>
-      <c r="G75" s="11">
-        <v>0</v>
-      </c>
+      <c r="F75" s="10"/>
+      <c r="G75" s="11"/>
       <c r="H75" s="6"/>
       <c r="I75" s="6"/>
       <c r="J75" s="6"/>
@@ -3901,13 +3646,13 @@
     </row>
     <row r="76" spans="1:22" ht="14.25" customHeight="1">
       <c r="A76" s="21" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="B76" s="7">
         <v>380</v>
       </c>
       <c r="C76" s="8" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="D76" s="9">
         <v>41248</v>
@@ -3915,12 +3660,8 @@
       <c r="E76" s="10">
         <v>1338.62</v>
       </c>
-      <c r="F76" s="10">
-        <v>5</v>
-      </c>
-      <c r="G76" s="11">
-        <v>0</v>
-      </c>
+      <c r="F76" s="10"/>
+      <c r="G76" s="11"/>
       <c r="H76" s="6"/>
       <c r="I76" s="6"/>
       <c r="J76" s="6"/>
@@ -3939,13 +3680,13 @@
     </row>
     <row r="77" spans="1:22" ht="14.25" customHeight="1">
       <c r="A77" s="21" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="B77" s="7">
         <v>381</v>
       </c>
       <c r="C77" s="8" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="D77" s="9">
         <v>41264</v>
@@ -3953,12 +3694,8 @@
       <c r="E77" s="10">
         <v>1247.6199999999999</v>
       </c>
-      <c r="F77" s="22">
-        <v>5</v>
-      </c>
-      <c r="G77" s="11">
-        <v>0</v>
-      </c>
+      <c r="F77" s="22"/>
+      <c r="G77" s="11"/>
       <c r="H77" s="6"/>
       <c r="I77" s="6"/>
       <c r="J77" s="6"/>
@@ -3977,13 +3714,13 @@
     </row>
     <row r="78" spans="1:22" ht="14.25" customHeight="1">
       <c r="A78" s="21" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="B78" s="23">
         <v>500</v>
       </c>
       <c r="C78" s="24" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="D78" s="25">
         <v>41264</v>
@@ -3991,12 +3728,8 @@
       <c r="E78" s="10">
         <v>1247.6199999999999</v>
       </c>
-      <c r="F78" s="22">
-        <v>5</v>
-      </c>
-      <c r="G78" s="11">
-        <v>0</v>
-      </c>
+      <c r="F78" s="22"/>
+      <c r="G78" s="11"/>
       <c r="H78" s="6"/>
       <c r="I78" s="6"/>
       <c r="J78" s="6"/>
@@ -4015,13 +3748,13 @@
     </row>
     <row r="79" spans="1:22" ht="14.25" customHeight="1">
       <c r="A79" s="21" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="B79" s="23">
         <v>501</v>
       </c>
       <c r="C79" s="24" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="D79" s="25">
         <v>41264</v>
@@ -4029,12 +3762,8 @@
       <c r="E79" s="22">
         <v>1247.6199999999999</v>
       </c>
-      <c r="F79" s="22">
-        <v>5</v>
-      </c>
-      <c r="G79" s="11">
-        <v>0</v>
-      </c>
+      <c r="F79" s="22"/>
+      <c r="G79" s="11"/>
       <c r="H79" s="6"/>
       <c r="I79" s="6"/>
       <c r="J79" s="6"/>
@@ -4053,13 +3782,13 @@
     </row>
     <row r="80" spans="1:22" ht="14.25" customHeight="1">
       <c r="A80" s="21" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="B80" s="23">
         <v>502</v>
       </c>
       <c r="C80" s="24" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="D80" s="25">
         <v>41264</v>
@@ -4067,12 +3796,8 @@
       <c r="E80" s="22">
         <v>1247.6199999999999</v>
       </c>
-      <c r="F80" s="22">
-        <v>5</v>
-      </c>
-      <c r="G80" s="11">
-        <v>0</v>
-      </c>
+      <c r="F80" s="22"/>
+      <c r="G80" s="11"/>
       <c r="H80" s="6"/>
       <c r="I80" s="6"/>
       <c r="J80" s="6"/>
@@ -4091,13 +3816,13 @@
     </row>
     <row r="81" spans="1:22" ht="14.25" customHeight="1">
       <c r="A81" s="21" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="B81" s="23">
         <v>503</v>
       </c>
       <c r="C81" s="24" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="D81" s="25">
         <v>41264</v>
@@ -4105,12 +3830,8 @@
       <c r="E81" s="22">
         <v>1247.6199999999999</v>
       </c>
-      <c r="F81" s="22">
-        <v>5</v>
-      </c>
-      <c r="G81" s="11">
-        <v>0</v>
-      </c>
+      <c r="F81" s="22"/>
+      <c r="G81" s="11"/>
       <c r="H81" s="6"/>
       <c r="I81" s="6"/>
       <c r="J81" s="6"/>
@@ -4129,13 +3850,13 @@
     </row>
     <row r="82" spans="1:22" ht="14.25" customHeight="1">
       <c r="A82" s="21" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="B82" s="23">
         <v>504</v>
       </c>
       <c r="C82" s="24" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="D82" s="25">
         <v>41264</v>
@@ -4143,12 +3864,8 @@
       <c r="E82" s="22">
         <v>1247.6199999999999</v>
       </c>
-      <c r="F82" s="22">
-        <v>5</v>
-      </c>
-      <c r="G82" s="11">
-        <v>0</v>
-      </c>
+      <c r="F82" s="22"/>
+      <c r="G82" s="11"/>
       <c r="H82" s="6"/>
       <c r="I82" s="6"/>
       <c r="J82" s="6"/>
@@ -4167,13 +3884,13 @@
     </row>
     <row r="83" spans="1:22" ht="14.25" customHeight="1">
       <c r="A83" s="21" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="B83" s="7">
         <v>384</v>
       </c>
       <c r="C83" s="24" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="D83" s="25">
         <v>41445</v>
@@ -4181,12 +3898,8 @@
       <c r="E83" s="10">
         <v>1343.72</v>
       </c>
-      <c r="F83" s="22">
-        <v>5</v>
-      </c>
-      <c r="G83" s="11">
-        <v>0</v>
-      </c>
+      <c r="F83" s="22"/>
+      <c r="G83" s="11"/>
       <c r="H83" s="6"/>
       <c r="I83" s="6"/>
       <c r="J83" s="6"/>
@@ -4205,13 +3918,13 @@
     </row>
     <row r="84" spans="1:22" ht="14.25" customHeight="1">
       <c r="A84" s="21" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="B84" s="23">
         <v>505</v>
       </c>
       <c r="C84" s="24" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="D84" s="25">
         <v>41445</v>
@@ -4219,12 +3932,8 @@
       <c r="E84" s="10">
         <v>1343.72</v>
       </c>
-      <c r="F84" s="22">
-        <v>5</v>
-      </c>
-      <c r="G84" s="11">
-        <v>0</v>
-      </c>
+      <c r="F84" s="22"/>
+      <c r="G84" s="11"/>
       <c r="H84" s="6"/>
       <c r="I84" s="6"/>
       <c r="J84" s="6"/>
@@ -4243,13 +3952,13 @@
     </row>
     <row r="85" spans="1:22" ht="14.25" customHeight="1">
       <c r="A85" s="21" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="B85" s="23">
         <v>506</v>
       </c>
       <c r="C85" s="24" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="D85" s="25">
         <v>41445</v>
@@ -4257,12 +3966,8 @@
       <c r="E85" s="26">
         <v>1343.72</v>
       </c>
-      <c r="F85" s="22">
-        <v>5</v>
-      </c>
-      <c r="G85" s="11">
-        <v>0</v>
-      </c>
+      <c r="F85" s="22"/>
+      <c r="G85" s="11"/>
       <c r="H85" s="6"/>
       <c r="I85" s="6"/>
       <c r="J85" s="6"/>
@@ -4281,13 +3986,13 @@
     </row>
     <row r="86" spans="1:22" ht="14.25" customHeight="1">
       <c r="A86" s="21" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="B86" s="23">
         <v>507</v>
       </c>
       <c r="C86" s="24" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="D86" s="25">
         <v>41445</v>
@@ -4295,12 +4000,8 @@
       <c r="E86" s="26">
         <v>1343.72</v>
       </c>
-      <c r="F86" s="22">
-        <v>5</v>
-      </c>
-      <c r="G86" s="11">
-        <v>0</v>
-      </c>
+      <c r="F86" s="22"/>
+      <c r="G86" s="11"/>
       <c r="H86" s="6"/>
       <c r="I86" s="6"/>
       <c r="J86" s="6"/>
@@ -4319,13 +4020,13 @@
     </row>
     <row r="87" spans="1:22" ht="14.25" customHeight="1">
       <c r="A87" s="21" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="B87" s="23">
         <v>508</v>
       </c>
       <c r="C87" s="24" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="D87" s="25">
         <v>41445</v>
@@ -4333,12 +4034,8 @@
       <c r="E87" s="26">
         <v>1343.72</v>
       </c>
-      <c r="F87" s="22">
-        <v>5</v>
-      </c>
-      <c r="G87" s="13">
-        <v>0</v>
-      </c>
+      <c r="F87" s="22"/>
+      <c r="G87" s="13"/>
       <c r="H87" s="6"/>
       <c r="I87" s="6"/>
       <c r="J87" s="6"/>
@@ -4357,13 +4054,13 @@
     </row>
     <row r="88" spans="1:22" ht="14.25" customHeight="1">
       <c r="A88" s="21" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="B88" s="23">
         <v>509</v>
       </c>
       <c r="C88" s="8" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="D88" s="9">
         <v>41445</v>
@@ -4371,12 +4068,8 @@
       <c r="E88" s="10">
         <v>1343.76</v>
       </c>
-      <c r="F88" s="22">
-        <v>5</v>
-      </c>
-      <c r="G88" s="11">
-        <v>0</v>
-      </c>
+      <c r="F88" s="22"/>
+      <c r="G88" s="11"/>
       <c r="H88" s="6"/>
       <c r="I88" s="6"/>
       <c r="J88" s="6"/>
@@ -4395,13 +4088,13 @@
     </row>
     <row r="89" spans="1:22" ht="14.25" customHeight="1">
       <c r="A89" s="21" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="B89" s="7">
         <v>386</v>
       </c>
       <c r="C89" s="8" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="D89" s="9">
         <v>41536</v>
@@ -4409,12 +4102,8 @@
       <c r="E89" s="10">
         <v>1150.0999999999999</v>
       </c>
-      <c r="F89" s="10">
-        <v>5</v>
-      </c>
-      <c r="G89" s="11">
-        <v>0</v>
-      </c>
+      <c r="F89" s="10"/>
+      <c r="G89" s="11"/>
       <c r="H89" s="6"/>
       <c r="I89" s="6"/>
       <c r="J89" s="6"/>
@@ -4433,13 +4122,13 @@
     </row>
     <row r="90" spans="1:22" ht="14.25" customHeight="1">
       <c r="A90" s="21" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="B90" s="7">
         <v>389</v>
       </c>
       <c r="C90" s="8" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="D90" s="9">
         <v>41808</v>
@@ -4447,12 +4136,8 @@
       <c r="E90" s="10">
         <v>773.79</v>
       </c>
-      <c r="F90" s="10">
-        <v>5</v>
-      </c>
-      <c r="G90" s="11">
-        <v>0</v>
-      </c>
+      <c r="F90" s="10"/>
+      <c r="G90" s="11"/>
       <c r="H90" s="6"/>
       <c r="I90" s="6"/>
       <c r="J90" s="6"/>
@@ -4471,13 +4156,13 @@
     </row>
     <row r="91" spans="1:22" ht="14.25" customHeight="1">
       <c r="A91" s="21" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="B91" s="7">
         <v>390</v>
       </c>
       <c r="C91" s="8" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="D91" s="9">
         <v>41808</v>
@@ -4485,12 +4170,8 @@
       <c r="E91" s="10">
         <v>773.79</v>
       </c>
-      <c r="F91" s="10">
-        <v>5</v>
-      </c>
-      <c r="G91" s="11">
-        <v>0</v>
-      </c>
+      <c r="F91" s="10"/>
+      <c r="G91" s="11"/>
       <c r="H91" s="6"/>
       <c r="I91" s="6"/>
       <c r="J91" s="6"/>
@@ -4509,13 +4190,13 @@
     </row>
     <row r="92" spans="1:22" ht="14.25" customHeight="1">
       <c r="A92" s="21" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="B92" s="7">
         <v>391</v>
       </c>
       <c r="C92" s="8" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="D92" s="9">
         <v>41808</v>
@@ -4523,12 +4204,8 @@
       <c r="E92" s="10">
         <v>773.79</v>
       </c>
-      <c r="F92" s="10">
-        <v>5</v>
-      </c>
-      <c r="G92" s="11">
-        <v>0</v>
-      </c>
+      <c r="F92" s="10"/>
+      <c r="G92" s="11"/>
       <c r="H92" s="6"/>
       <c r="I92" s="6"/>
       <c r="J92" s="6"/>
@@ -4547,13 +4224,13 @@
     </row>
     <row r="93" spans="1:22" ht="14.25" customHeight="1">
       <c r="A93" s="21" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="B93" s="7">
         <v>392</v>
       </c>
       <c r="C93" s="8" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="D93" s="9">
         <v>41849</v>
@@ -4561,12 +4238,8 @@
       <c r="E93" s="10">
         <v>1156.46</v>
       </c>
-      <c r="F93" s="10">
-        <v>5</v>
-      </c>
-      <c r="G93" s="11">
-        <v>0</v>
-      </c>
+      <c r="F93" s="10"/>
+      <c r="G93" s="11"/>
       <c r="H93" s="6"/>
       <c r="I93" s="6"/>
       <c r="J93" s="6"/>
@@ -4585,13 +4258,13 @@
     </row>
     <row r="94" spans="1:22" ht="14.25" customHeight="1">
       <c r="A94" s="21" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="B94" s="7">
         <v>393</v>
       </c>
       <c r="C94" s="8" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="D94" s="9">
         <v>41891</v>
@@ -4599,12 +4272,8 @@
       <c r="E94" s="10">
         <v>1649.09</v>
       </c>
-      <c r="F94" s="10">
-        <v>5</v>
-      </c>
-      <c r="G94" s="11">
-        <v>0</v>
-      </c>
+      <c r="F94" s="10"/>
+      <c r="G94" s="11"/>
       <c r="H94" s="6"/>
       <c r="I94" s="6"/>
       <c r="J94" s="6"/>
@@ -4623,13 +4292,13 @@
     </row>
     <row r="95" spans="1:22" ht="14.25" customHeight="1">
       <c r="A95" s="21" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="B95" s="7">
         <v>396</v>
       </c>
       <c r="C95" s="8" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="D95" s="9">
         <v>41990</v>
@@ -4637,12 +4306,8 @@
       <c r="E95" s="10">
         <v>1407.68</v>
       </c>
-      <c r="F95" s="10">
-        <v>5</v>
-      </c>
-      <c r="G95" s="11">
-        <v>0</v>
-      </c>
+      <c r="F95" s="10"/>
+      <c r="G95" s="11"/>
       <c r="H95" s="6"/>
       <c r="I95" s="6"/>
       <c r="J95" s="6"/>
@@ -4661,13 +4326,13 @@
     </row>
     <row r="96" spans="1:22" ht="14.25" customHeight="1">
       <c r="A96" s="21" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="B96" s="7">
         <v>397</v>
       </c>
       <c r="C96" s="8" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="D96" s="9">
         <v>41891</v>
@@ -4675,12 +4340,8 @@
       <c r="E96" s="10">
         <v>1649.09</v>
       </c>
-      <c r="F96" s="10">
-        <v>5</v>
-      </c>
-      <c r="G96" s="11">
-        <v>0</v>
-      </c>
+      <c r="F96" s="10"/>
+      <c r="G96" s="11"/>
       <c r="H96" s="6"/>
       <c r="I96" s="6"/>
       <c r="J96" s="6"/>
@@ -4699,13 +4360,13 @@
     </row>
     <row r="97" spans="1:22" ht="14.25" customHeight="1">
       <c r="A97" s="21" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="B97" s="7">
         <v>406</v>
       </c>
       <c r="C97" s="8" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="D97" s="9">
         <v>42166</v>
@@ -4713,12 +4374,8 @@
       <c r="E97" s="10">
         <v>2431.64</v>
       </c>
-      <c r="F97" s="22">
-        <v>5</v>
-      </c>
-      <c r="G97" s="13">
-        <v>972.66</v>
-      </c>
+      <c r="F97" s="22"/>
+      <c r="G97" s="13"/>
       <c r="H97" s="6"/>
       <c r="I97" s="6"/>
       <c r="J97" s="6"/>
@@ -4737,13 +4394,13 @@
     </row>
     <row r="98" spans="1:22" ht="14.25" customHeight="1">
       <c r="A98" s="2" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="B98" s="7">
         <v>298</v>
       </c>
       <c r="C98" s="8" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="D98" s="9">
         <v>38709</v>
@@ -4751,12 +4408,8 @@
       <c r="E98" s="10">
         <v>505.44</v>
       </c>
-      <c r="F98" s="10">
-        <v>5</v>
-      </c>
-      <c r="G98" s="11">
-        <v>0</v>
-      </c>
+      <c r="F98" s="10"/>
+      <c r="G98" s="11"/>
       <c r="H98" s="6"/>
       <c r="I98" s="6"/>
       <c r="J98" s="6"/>
@@ -4775,13 +4428,13 @@
     </row>
     <row r="99" spans="1:22" ht="14.25" customHeight="1">
       <c r="A99" s="2" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="B99" s="7">
         <v>349</v>
       </c>
       <c r="C99" s="8" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="D99" s="9">
         <v>40245</v>
@@ -4789,12 +4442,8 @@
       <c r="E99" s="10">
         <v>604.20000000000005</v>
       </c>
-      <c r="F99" s="10">
-        <v>5</v>
-      </c>
-      <c r="G99" s="11">
-        <v>0</v>
-      </c>
+      <c r="F99" s="10"/>
+      <c r="G99" s="11"/>
       <c r="H99" s="6"/>
       <c r="I99" s="6"/>
       <c r="J99" s="6"/>
@@ -4813,13 +4462,13 @@
     </row>
     <row r="100" spans="1:22" ht="14.25" customHeight="1">
       <c r="A100" s="2" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="B100" s="7">
         <v>372</v>
       </c>
       <c r="C100" s="8" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="D100" s="9">
         <v>40856</v>
@@ -4827,12 +4476,8 @@
       <c r="E100" s="10">
         <v>1046.75</v>
       </c>
-      <c r="F100" s="10">
-        <v>5</v>
-      </c>
-      <c r="G100" s="13">
-        <v>0</v>
-      </c>
+      <c r="F100" s="10"/>
+      <c r="G100" s="13"/>
       <c r="H100" s="6"/>
       <c r="I100" s="6"/>
       <c r="J100" s="6"/>
@@ -4851,13 +4496,13 @@
     </row>
     <row r="101" spans="1:22" ht="14.25" customHeight="1">
       <c r="A101" s="2" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="B101" s="7">
         <v>150</v>
       </c>
       <c r="C101" s="8" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="D101" s="9">
         <v>36208</v>
@@ -4865,12 +4510,8 @@
       <c r="E101" s="10">
         <v>683.7</v>
       </c>
-      <c r="F101" s="17">
-        <v>5</v>
-      </c>
-      <c r="G101" s="14">
-        <v>0</v>
-      </c>
+      <c r="F101" s="17"/>
+      <c r="G101" s="14"/>
       <c r="H101" s="6"/>
       <c r="I101" s="6"/>
       <c r="J101" s="6"/>
@@ -4881,7 +4522,9 @@
       <c r="O101" s="6"/>
       <c r="P101" s="6"/>
       <c r="Q101" s="6"/>
-      <c r="R101" s="6"/>
+      <c r="R101" s="6" t="s">
+        <v>197</v>
+      </c>
       <c r="S101" s="6"/>
       <c r="T101" s="6"/>
       <c r="U101" s="6"/>
@@ -4889,13 +4532,13 @@
     </row>
     <row r="102" spans="1:22" ht="14.25" customHeight="1">
       <c r="A102" s="2" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="B102" s="7">
         <v>251</v>
       </c>
       <c r="C102" s="8" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="D102" s="9">
         <v>37775</v>
@@ -4903,12 +4546,8 @@
       <c r="E102" s="10">
         <v>1058.94</v>
       </c>
-      <c r="F102" s="17">
-        <v>5</v>
-      </c>
-      <c r="G102" s="14">
-        <v>0</v>
-      </c>
+      <c r="F102" s="17"/>
+      <c r="G102" s="14"/>
       <c r="H102" s="6"/>
       <c r="I102" s="6"/>
       <c r="J102" s="6"/>
@@ -4919,7 +4558,9 @@
       <c r="O102" s="6"/>
       <c r="P102" s="6"/>
       <c r="Q102" s="6"/>
-      <c r="R102" s="6"/>
+      <c r="R102" s="6" t="s">
+        <v>197</v>
+      </c>
       <c r="S102" s="6"/>
       <c r="T102" s="6"/>
       <c r="U102" s="6"/>
@@ -4927,13 +4568,13 @@
     </row>
     <row r="103" spans="1:22" ht="14.25" customHeight="1">
       <c r="A103" s="2" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="B103" s="7">
         <v>266</v>
       </c>
       <c r="C103" s="8" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="D103" s="9">
         <v>37915</v>
@@ -4941,12 +4582,8 @@
       <c r="E103" s="10">
         <v>583</v>
       </c>
-      <c r="F103" s="17">
-        <v>5</v>
-      </c>
-      <c r="G103" s="14">
-        <v>0</v>
-      </c>
+      <c r="F103" s="17"/>
+      <c r="G103" s="14"/>
       <c r="H103" s="6"/>
       <c r="I103" s="6"/>
       <c r="J103" s="6"/>
@@ -4957,7 +4594,9 @@
       <c r="O103" s="6"/>
       <c r="P103" s="6"/>
       <c r="Q103" s="6"/>
-      <c r="R103" s="6"/>
+      <c r="R103" s="6" t="s">
+        <v>197</v>
+      </c>
       <c r="S103" s="6"/>
       <c r="T103" s="6"/>
       <c r="U103" s="6"/>
@@ -4965,13 +4604,13 @@
     </row>
     <row r="104" spans="1:22" ht="14.25" customHeight="1">
       <c r="A104" s="2" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="B104" s="7">
         <v>307</v>
       </c>
       <c r="C104" s="8" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="D104" s="9">
         <v>38894</v>
@@ -4979,12 +4618,8 @@
       <c r="E104" s="10">
         <v>1193.56</v>
       </c>
-      <c r="F104" s="17">
-        <v>5</v>
-      </c>
-      <c r="G104" s="14">
-        <v>0</v>
-      </c>
+      <c r="F104" s="17"/>
+      <c r="G104" s="14"/>
       <c r="H104" s="6"/>
       <c r="I104" s="6"/>
       <c r="J104" s="6"/>
@@ -4995,7 +4630,9 @@
       <c r="O104" s="6"/>
       <c r="P104" s="6"/>
       <c r="Q104" s="6"/>
-      <c r="R104" s="6"/>
+      <c r="R104" s="6" t="s">
+        <v>197</v>
+      </c>
       <c r="S104" s="6"/>
       <c r="T104" s="6"/>
       <c r="U104" s="6"/>
@@ -5003,13 +4640,13 @@
     </row>
     <row r="105" spans="1:22" ht="14.25" customHeight="1">
       <c r="A105" s="2" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="B105" s="7">
         <v>313</v>
       </c>
       <c r="C105" s="8" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="D105" s="9">
         <v>38811</v>
@@ -5017,12 +4654,8 @@
       <c r="E105" s="10">
         <v>27931</v>
       </c>
-      <c r="F105" s="10">
-        <v>7</v>
-      </c>
-      <c r="G105" s="11">
-        <v>0</v>
-      </c>
+      <c r="F105" s="10"/>
+      <c r="G105" s="11"/>
       <c r="H105" s="6"/>
       <c r="I105" s="6"/>
       <c r="J105" s="6"/>
@@ -5041,13 +4674,13 @@
     </row>
     <row r="106" spans="1:22" ht="14.25" customHeight="1">
       <c r="A106" s="2" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="B106" s="7">
         <v>323</v>
       </c>
       <c r="C106" s="8" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="D106" s="9">
         <v>39414</v>
@@ -5055,12 +4688,8 @@
       <c r="E106" s="10">
         <v>17395.13</v>
       </c>
-      <c r="F106" s="17">
-        <v>5</v>
-      </c>
-      <c r="G106" s="14">
-        <v>0</v>
-      </c>
+      <c r="F106" s="17"/>
+      <c r="G106" s="14"/>
       <c r="H106" s="6"/>
       <c r="I106" s="6"/>
       <c r="J106" s="6"/>
@@ -5071,7 +4700,9 @@
       <c r="O106" s="6"/>
       <c r="P106" s="6"/>
       <c r="Q106" s="6"/>
-      <c r="R106" s="6"/>
+      <c r="R106" s="6" t="s">
+        <v>197</v>
+      </c>
       <c r="S106" s="6"/>
       <c r="T106" s="6"/>
       <c r="U106" s="6"/>
@@ -5079,13 +4710,13 @@
     </row>
     <row r="107" spans="1:22" ht="14.25" customHeight="1">
       <c r="A107" s="2" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="B107" s="7">
         <v>335</v>
       </c>
       <c r="C107" s="8" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="D107" s="9">
         <v>40032</v>
@@ -5093,12 +4724,8 @@
       <c r="E107" s="10">
         <v>7593.84</v>
       </c>
-      <c r="F107" s="10">
-        <v>5</v>
-      </c>
-      <c r="G107" s="11">
-        <v>0</v>
-      </c>
+      <c r="F107" s="10"/>
+      <c r="G107" s="11"/>
       <c r="H107" s="6"/>
       <c r="I107" s="6"/>
       <c r="J107" s="6"/>
@@ -5117,13 +4744,13 @@
     </row>
     <row r="108" spans="1:22" ht="14.25" customHeight="1">
       <c r="A108" s="2" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="B108" s="7">
         <v>357</v>
       </c>
       <c r="C108" s="8" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="D108" s="9">
         <v>40315</v>
@@ -5131,12 +4758,8 @@
       <c r="E108" s="10">
         <v>5818.34</v>
       </c>
-      <c r="F108" s="10">
-        <v>5</v>
-      </c>
-      <c r="G108" s="11">
-        <v>0</v>
-      </c>
+      <c r="F108" s="10"/>
+      <c r="G108" s="11"/>
       <c r="H108" s="6"/>
       <c r="I108" s="6"/>
       <c r="J108" s="6"/>
@@ -5155,13 +4778,13 @@
     </row>
     <row r="109" spans="1:22" ht="14.25" customHeight="1">
       <c r="A109" s="2" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="B109" s="7">
         <v>358</v>
       </c>
       <c r="C109" s="8" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="D109" s="9">
         <v>40315</v>
@@ -5169,12 +4792,8 @@
       <c r="E109" s="10">
         <v>1976.9</v>
       </c>
-      <c r="F109" s="10">
-        <v>5</v>
-      </c>
-      <c r="G109" s="11">
-        <v>0</v>
-      </c>
+      <c r="F109" s="10"/>
+      <c r="G109" s="11"/>
       <c r="H109" s="6"/>
       <c r="I109" s="6"/>
       <c r="J109" s="6"/>
@@ -5193,13 +4812,13 @@
     </row>
     <row r="110" spans="1:22" ht="14.25" customHeight="1">
       <c r="A110" s="2" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="B110" s="7">
         <v>359</v>
       </c>
       <c r="C110" s="8" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="D110" s="9">
         <v>40315</v>
@@ -5207,12 +4826,8 @@
       <c r="E110" s="10">
         <v>3447.12</v>
       </c>
-      <c r="F110" s="10">
-        <v>5</v>
-      </c>
-      <c r="G110" s="11">
-        <v>0</v>
-      </c>
+      <c r="F110" s="10"/>
+      <c r="G110" s="11"/>
       <c r="H110" s="6"/>
       <c r="I110" s="6"/>
       <c r="J110" s="6"/>
@@ -5231,13 +4846,13 @@
     </row>
     <row r="111" spans="1:22" ht="14.25" customHeight="1">
       <c r="A111" s="2" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="B111" s="7">
         <v>360</v>
       </c>
       <c r="C111" s="8" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="D111" s="9">
         <v>40315</v>
@@ -5245,12 +4860,8 @@
       <c r="E111" s="10">
         <v>718.68</v>
       </c>
-      <c r="F111" s="10">
-        <v>5</v>
-      </c>
-      <c r="G111" s="11">
-        <v>0</v>
-      </c>
+      <c r="F111" s="10"/>
+      <c r="G111" s="11"/>
       <c r="H111" s="6"/>
       <c r="I111" s="6"/>
       <c r="J111" s="6"/>
@@ -5269,13 +4880,13 @@
     </row>
     <row r="112" spans="1:22" ht="14.25" customHeight="1">
       <c r="A112" s="2" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="B112" s="7">
         <v>361</v>
       </c>
       <c r="C112" s="8" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="D112" s="9">
         <v>40315</v>
@@ -5283,12 +4894,8 @@
       <c r="E112" s="10">
         <v>4779.54</v>
       </c>
-      <c r="F112" s="10">
-        <v>5</v>
-      </c>
-      <c r="G112" s="11">
-        <v>0</v>
-      </c>
+      <c r="F112" s="10"/>
+      <c r="G112" s="11"/>
       <c r="H112" s="6"/>
       <c r="I112" s="6"/>
       <c r="J112" s="6"/>
@@ -5307,13 +4914,13 @@
     </row>
     <row r="113" spans="1:22" ht="14.25" customHeight="1">
       <c r="A113" s="2" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="B113" s="7">
         <v>362</v>
       </c>
       <c r="C113" s="8" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="D113" s="9">
         <v>40315</v>
@@ -5321,12 +4928,8 @@
       <c r="E113" s="10">
         <v>328.6</v>
       </c>
-      <c r="F113" s="17">
-        <v>5</v>
-      </c>
-      <c r="G113" s="14">
-        <v>0</v>
-      </c>
+      <c r="F113" s="17"/>
+      <c r="G113" s="14"/>
       <c r="H113" s="6"/>
       <c r="I113" s="6"/>
       <c r="J113" s="6"/>
@@ -5337,7 +4940,9 @@
       <c r="O113" s="6"/>
       <c r="P113" s="6"/>
       <c r="Q113" s="6"/>
-      <c r="R113" s="6"/>
+      <c r="R113" s="6" t="s">
+        <v>197</v>
+      </c>
       <c r="S113" s="6"/>
       <c r="T113" s="6"/>
       <c r="U113" s="6"/>
@@ -5345,13 +4950,13 @@
     </row>
     <row r="114" spans="1:22" ht="14.25" customHeight="1">
       <c r="A114" s="2" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="B114" s="7">
         <v>365</v>
       </c>
       <c r="C114" s="8" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="D114" s="9">
         <v>40315</v>
@@ -5359,12 +4964,8 @@
       <c r="E114" s="10">
         <v>178.08</v>
       </c>
-      <c r="F114" s="10">
-        <v>5</v>
-      </c>
-      <c r="G114" s="11">
-        <v>0</v>
-      </c>
+      <c r="F114" s="10"/>
+      <c r="G114" s="11"/>
       <c r="H114" s="6"/>
       <c r="I114" s="6"/>
       <c r="J114" s="6"/>
@@ -5383,13 +4984,13 @@
     </row>
     <row r="115" spans="1:22" ht="14.25" customHeight="1">
       <c r="A115" s="2" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="B115" s="7">
         <v>378</v>
       </c>
       <c r="C115" s="8" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="D115" s="9">
         <v>41093</v>
@@ -5397,12 +4998,8 @@
       <c r="E115" s="10">
         <v>10011.700000000001</v>
       </c>
-      <c r="F115" s="10">
-        <v>5</v>
-      </c>
-      <c r="G115" s="11">
-        <v>0</v>
-      </c>
+      <c r="F115" s="10"/>
+      <c r="G115" s="11"/>
       <c r="H115" s="6"/>
       <c r="I115" s="6"/>
       <c r="J115" s="6"/>
@@ -5421,13 +5018,13 @@
     </row>
     <row r="116" spans="1:22" ht="14.25" customHeight="1">
       <c r="A116" s="2" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="B116" s="7">
         <v>382</v>
       </c>
       <c r="C116" s="8" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="D116" s="9">
         <v>40968</v>
@@ -5435,12 +5032,8 @@
       <c r="E116" s="10">
         <v>569.75</v>
       </c>
-      <c r="F116" s="17">
-        <v>5</v>
-      </c>
-      <c r="G116" s="14">
-        <v>0</v>
-      </c>
+      <c r="F116" s="17"/>
+      <c r="G116" s="14"/>
       <c r="H116" s="6"/>
       <c r="I116" s="6"/>
       <c r="J116" s="6"/>
@@ -5451,7 +5044,9 @@
       <c r="O116" s="6"/>
       <c r="P116" s="6"/>
       <c r="Q116" s="6"/>
-      <c r="R116" s="6"/>
+      <c r="R116" s="6" t="s">
+        <v>197</v>
+      </c>
       <c r="S116" s="6"/>
       <c r="T116" s="6"/>
       <c r="U116" s="6"/>
@@ -5459,13 +5054,13 @@
     </row>
     <row r="117" spans="1:22" ht="14.25" customHeight="1">
       <c r="A117" s="2" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="B117" s="7">
         <v>388</v>
       </c>
       <c r="C117" s="8" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="D117" s="9">
         <v>41715</v>
@@ -5473,12 +5068,8 @@
       <c r="E117" s="10">
         <v>5434.09</v>
       </c>
-      <c r="F117" s="17">
-        <v>5</v>
-      </c>
-      <c r="G117" s="14">
-        <v>0</v>
-      </c>
+      <c r="F117" s="17"/>
+      <c r="G117" s="14"/>
       <c r="H117" s="6"/>
       <c r="I117" s="6"/>
       <c r="J117" s="6"/>
@@ -5489,7 +5080,9 @@
       <c r="O117" s="6"/>
       <c r="P117" s="6"/>
       <c r="Q117" s="6"/>
-      <c r="R117" s="6"/>
+      <c r="R117" s="6" t="s">
+        <v>197</v>
+      </c>
       <c r="S117" s="6"/>
       <c r="T117" s="6"/>
       <c r="U117" s="6"/>
@@ -5497,13 +5090,13 @@
     </row>
     <row r="118" spans="1:22" ht="14.25" customHeight="1">
       <c r="A118" s="2" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="B118" s="7">
         <v>395</v>
       </c>
       <c r="C118" s="8" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="D118" s="9">
         <v>41961</v>
@@ -5511,12 +5104,8 @@
       <c r="E118" s="10">
         <v>12705.69</v>
       </c>
-      <c r="F118" s="10">
-        <v>5</v>
-      </c>
-      <c r="G118" s="13">
-        <v>0</v>
-      </c>
+      <c r="F118" s="10"/>
+      <c r="G118" s="13"/>
       <c r="H118" s="6"/>
       <c r="I118" s="6"/>
       <c r="J118" s="6"/>
@@ -5535,13 +5124,13 @@
     </row>
     <row r="119" spans="1:22" ht="14.25" customHeight="1">
       <c r="A119" s="21" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="B119" s="7">
         <v>246</v>
       </c>
       <c r="C119" s="8" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="D119" s="9">
         <v>37697</v>
@@ -5549,12 +5138,8 @@
       <c r="E119" s="10">
         <v>1939.79</v>
       </c>
-      <c r="F119" s="10">
-        <v>5</v>
-      </c>
-      <c r="G119" s="11">
-        <v>0</v>
-      </c>
+      <c r="F119" s="10"/>
+      <c r="G119" s="11"/>
       <c r="H119" s="6"/>
       <c r="I119" s="6"/>
       <c r="J119" s="6"/>
@@ -5573,13 +5158,13 @@
     </row>
     <row r="120" spans="1:22" ht="14.25" customHeight="1">
       <c r="A120" s="21" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="B120" s="7">
         <v>253</v>
       </c>
       <c r="C120" s="8" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="D120" s="9">
         <v>37883</v>
@@ -5587,12 +5172,8 @@
       <c r="E120" s="10">
         <v>2104.4699999999998</v>
       </c>
-      <c r="F120" s="10">
-        <v>5</v>
-      </c>
-      <c r="G120" s="11">
-        <v>0</v>
-      </c>
+      <c r="F120" s="10"/>
+      <c r="G120" s="11"/>
       <c r="H120" s="6"/>
       <c r="I120" s="6"/>
       <c r="J120" s="6"/>
@@ -5611,13 +5192,13 @@
     </row>
     <row r="121" spans="1:22" ht="14.25" customHeight="1">
       <c r="A121" s="21" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="B121" s="7">
         <v>290</v>
       </c>
       <c r="C121" s="8" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="D121" s="9">
         <v>38208</v>
@@ -5625,12 +5206,8 @@
       <c r="E121" s="10">
         <v>2092.13</v>
       </c>
-      <c r="F121" s="10">
-        <v>5</v>
-      </c>
-      <c r="G121" s="11">
-        <v>0</v>
-      </c>
+      <c r="F121" s="10"/>
+      <c r="G121" s="11"/>
       <c r="H121" s="6"/>
       <c r="I121" s="6"/>
       <c r="J121" s="6"/>
@@ -5649,13 +5226,13 @@
     </row>
     <row r="122" spans="1:22" ht="14.25" customHeight="1">
       <c r="A122" s="21" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="B122" s="23">
         <v>510</v>
       </c>
       <c r="C122" s="24" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="D122" s="9">
         <v>38208</v>
@@ -5663,12 +5240,8 @@
       <c r="E122" s="10">
         <v>2093.14</v>
       </c>
-      <c r="F122" s="10">
-        <v>5</v>
-      </c>
-      <c r="G122" s="11">
-        <v>0</v>
-      </c>
+      <c r="F122" s="10"/>
+      <c r="G122" s="11"/>
       <c r="H122" s="6"/>
       <c r="I122" s="6"/>
       <c r="J122" s="6"/>
@@ -5687,13 +5260,13 @@
     </row>
     <row r="123" spans="1:22" ht="14.25" customHeight="1">
       <c r="A123" s="21" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="B123" s="7">
         <v>303</v>
       </c>
       <c r="C123" s="8" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="D123" s="9">
         <v>38533</v>
@@ -5701,12 +5274,8 @@
       <c r="E123" s="10">
         <v>2393.48</v>
       </c>
-      <c r="F123" s="10">
-        <v>7</v>
-      </c>
-      <c r="G123" s="11">
-        <v>0</v>
-      </c>
+      <c r="F123" s="10"/>
+      <c r="G123" s="11"/>
       <c r="H123" s="6"/>
       <c r="I123" s="6"/>
       <c r="J123" s="6"/>
@@ -5725,13 +5294,13 @@
     </row>
     <row r="124" spans="1:22" ht="14.25" customHeight="1">
       <c r="A124" s="21" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="B124" s="7">
         <v>322</v>
       </c>
       <c r="C124" s="8" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="D124" s="9">
         <v>39402</v>
@@ -5739,12 +5308,8 @@
       <c r="E124" s="10">
         <v>1914.79</v>
       </c>
-      <c r="F124" s="10">
-        <v>5</v>
-      </c>
-      <c r="G124" s="11">
-        <v>0</v>
-      </c>
+      <c r="F124" s="10"/>
+      <c r="G124" s="11"/>
       <c r="H124" s="6"/>
       <c r="I124" s="6"/>
       <c r="J124" s="6"/>
@@ -5763,13 +5328,13 @@
     </row>
     <row r="125" spans="1:22" ht="14.25" customHeight="1">
       <c r="A125" s="21" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="B125" s="7">
         <v>352</v>
       </c>
       <c r="C125" s="8" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="D125" s="9">
         <v>40350</v>
@@ -5777,12 +5342,8 @@
       <c r="E125" s="10">
         <v>740.94</v>
       </c>
-      <c r="F125" s="10">
-        <v>5</v>
-      </c>
-      <c r="G125" s="13">
-        <v>0</v>
-      </c>
+      <c r="F125" s="10"/>
+      <c r="G125" s="13"/>
       <c r="H125" s="6"/>
       <c r="I125" s="6"/>
       <c r="J125" s="6"/>
@@ -5801,13 +5362,13 @@
     </row>
     <row r="126" spans="1:22" ht="14.25" customHeight="1">
       <c r="A126" s="21" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="B126" s="7">
         <v>385</v>
       </c>
       <c r="C126" s="8" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="D126" s="9">
         <v>41465</v>
@@ -5815,12 +5376,8 @@
       <c r="E126" s="10">
         <v>1696</v>
       </c>
-      <c r="F126" s="10">
-        <v>5</v>
-      </c>
-      <c r="G126" s="11">
-        <v>0</v>
-      </c>
+      <c r="F126" s="10"/>
+      <c r="G126" s="11"/>
       <c r="H126" s="6"/>
       <c r="I126" s="6"/>
       <c r="J126" s="6"/>
@@ -5839,13 +5396,13 @@
     </row>
     <row r="127" spans="1:22" ht="14.25" customHeight="1">
       <c r="A127" s="2" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="B127" s="7">
         <v>28</v>
       </c>
       <c r="C127" s="8" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="D127" s="9">
         <v>35481</v>
@@ -5853,12 +5410,8 @@
       <c r="E127" s="10">
         <v>701.72</v>
       </c>
-      <c r="F127" s="10">
-        <v>7</v>
-      </c>
-      <c r="G127" s="11">
-        <v>0</v>
-      </c>
+      <c r="F127" s="10"/>
+      <c r="G127" s="11"/>
       <c r="H127" s="6"/>
       <c r="I127" s="6"/>
       <c r="J127" s="6"/>
@@ -5877,13 +5430,13 @@
     </row>
     <row r="128" spans="1:22" ht="14.25" customHeight="1">
       <c r="A128" s="2" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="B128" s="7">
         <v>103</v>
       </c>
       <c r="C128" s="8" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="D128" s="9">
         <v>36140</v>
@@ -5891,12 +5444,8 @@
       <c r="E128" s="10">
         <v>791.82</v>
       </c>
-      <c r="F128" s="10">
-        <v>7</v>
-      </c>
-      <c r="G128" s="11">
-        <v>0</v>
-      </c>
+      <c r="F128" s="10"/>
+      <c r="G128" s="11"/>
       <c r="H128" s="6"/>
       <c r="I128" s="6"/>
       <c r="J128" s="6"/>
@@ -5915,13 +5464,13 @@
     </row>
     <row r="129" spans="1:22" ht="14.25" customHeight="1">
       <c r="A129" s="2" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="B129" s="7">
         <v>113</v>
       </c>
       <c r="C129" s="8" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="D129" s="9">
         <v>35906</v>
@@ -5929,12 +5478,8 @@
       <c r="E129" s="10">
         <v>683.7</v>
       </c>
-      <c r="F129" s="10">
-        <v>7</v>
-      </c>
-      <c r="G129" s="11">
-        <v>0</v>
-      </c>
+      <c r="F129" s="10"/>
+      <c r="G129" s="11"/>
       <c r="H129" s="6"/>
       <c r="I129" s="6"/>
       <c r="J129" s="6"/>
@@ -5953,13 +5498,13 @@
     </row>
     <row r="130" spans="1:22" ht="14.25" customHeight="1">
       <c r="A130" s="2" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="B130" s="7">
         <v>394</v>
       </c>
       <c r="C130" s="8" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="D130" s="9">
         <v>41933</v>
@@ -5967,12 +5512,8 @@
       <c r="E130" s="10">
         <v>1452.88</v>
       </c>
-      <c r="F130" s="10">
-        <v>5</v>
-      </c>
-      <c r="G130" s="11">
-        <v>0</v>
-      </c>
+      <c r="F130" s="10"/>
+      <c r="G130" s="11"/>
       <c r="H130" s="6"/>
       <c r="I130" s="6"/>
       <c r="J130" s="6"/>
@@ -5991,13 +5532,13 @@
     </row>
     <row r="131" spans="1:22" ht="14.25" customHeight="1">
       <c r="A131" s="2" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="B131" s="7">
         <v>398</v>
       </c>
       <c r="C131" s="8" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="D131" s="9">
         <v>41719</v>
@@ -6005,12 +5546,8 @@
       <c r="E131" s="10">
         <v>669</v>
       </c>
-      <c r="F131" s="10">
-        <v>7</v>
-      </c>
-      <c r="G131" s="11">
-        <v>0</v>
-      </c>
+      <c r="F131" s="10"/>
+      <c r="G131" s="11"/>
       <c r="H131" s="6"/>
       <c r="I131" s="6"/>
       <c r="J131" s="6"/>
@@ -6029,13 +5566,13 @@
     </row>
     <row r="132" spans="1:22" ht="14.25" customHeight="1">
       <c r="A132" s="2" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="B132" s="7">
         <v>399</v>
       </c>
       <c r="C132" s="8" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="D132" s="9">
         <v>41953</v>
@@ -6043,12 +5580,8 @@
       <c r="E132" s="10">
         <v>879.98</v>
       </c>
-      <c r="F132" s="10">
-        <v>7</v>
-      </c>
-      <c r="G132" s="13">
-        <v>0</v>
-      </c>
+      <c r="F132" s="10"/>
+      <c r="G132" s="13"/>
       <c r="H132" s="6"/>
       <c r="I132" s="6"/>
       <c r="J132" s="6"/>
@@ -6067,13 +5600,13 @@
     </row>
     <row r="133" spans="1:22" ht="14.25" customHeight="1">
       <c r="A133" s="2" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="B133" s="7">
         <v>328</v>
       </c>
       <c r="C133" s="8" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="D133" s="9">
         <v>39618</v>
@@ -6081,12 +5614,8 @@
       <c r="E133" s="10">
         <v>14216.19</v>
       </c>
-      <c r="F133" s="10">
-        <v>7</v>
-      </c>
-      <c r="G133" s="11">
-        <v>0</v>
-      </c>
+      <c r="F133" s="10"/>
+      <c r="G133" s="11"/>
       <c r="H133" s="6"/>
       <c r="I133" s="6"/>
       <c r="J133" s="6"/>
@@ -6105,13 +5634,13 @@
     </row>
     <row r="134" spans="1:22" ht="14.25" customHeight="1">
       <c r="A134" s="2" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="B134" s="7">
         <v>351</v>
       </c>
       <c r="C134" s="8" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="D134" s="9">
         <v>40266</v>
@@ -6119,12 +5648,8 @@
       <c r="E134" s="10">
         <v>365.69</v>
       </c>
-      <c r="F134" s="10">
-        <v>5</v>
-      </c>
-      <c r="G134" s="11">
-        <v>0</v>
-      </c>
+      <c r="F134" s="10"/>
+      <c r="G134" s="11"/>
       <c r="H134" s="6"/>
       <c r="I134" s="6"/>
       <c r="J134" s="6"/>
@@ -6143,13 +5668,13 @@
     </row>
     <row r="135" spans="1:22" ht="14.25" customHeight="1">
       <c r="A135" s="2" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="B135" s="7">
         <v>355</v>
       </c>
       <c r="C135" s="8" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="D135" s="9">
         <v>40441</v>
@@ -6157,12 +5682,8 @@
       <c r="E135" s="10">
         <v>1282.5999999999999</v>
       </c>
-      <c r="F135" s="10">
-        <v>5</v>
-      </c>
-      <c r="G135" s="11">
-        <v>0</v>
-      </c>
+      <c r="F135" s="10"/>
+      <c r="G135" s="11"/>
       <c r="H135" s="6"/>
       <c r="I135" s="6"/>
       <c r="J135" s="6"/>
@@ -6181,13 +5702,13 @@
     </row>
     <row r="136" spans="1:22" ht="14.25" customHeight="1">
       <c r="A136" s="2" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="B136" s="7">
         <v>367</v>
       </c>
       <c r="C136" s="8" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="D136" s="9">
         <v>40851</v>
@@ -6195,12 +5716,8 @@
       <c r="E136" s="10">
         <v>941.94</v>
       </c>
-      <c r="F136" s="10">
-        <v>7</v>
-      </c>
-      <c r="G136" s="13">
-        <v>0</v>
-      </c>
+      <c r="F136" s="10"/>
+      <c r="G136" s="13"/>
       <c r="H136" s="6"/>
       <c r="I136" s="6"/>
       <c r="J136" s="6"/>
@@ -6219,13 +5736,13 @@
     </row>
     <row r="137" spans="1:22" ht="14.25" customHeight="1">
       <c r="A137" s="21" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="B137" s="7">
         <v>1</v>
       </c>
       <c r="C137" s="8" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="D137" s="9">
         <v>35013</v>
@@ -6233,12 +5750,8 @@
       <c r="E137" s="10">
         <v>705.43</v>
       </c>
-      <c r="F137" s="22">
-        <v>7</v>
-      </c>
-      <c r="G137" s="11">
-        <v>0</v>
-      </c>
+      <c r="F137" s="22"/>
+      <c r="G137" s="11"/>
       <c r="H137" s="6"/>
       <c r="I137" s="6"/>
       <c r="J137" s="6"/>
@@ -6257,13 +5770,13 @@
     </row>
     <row r="138" spans="1:22" ht="14.25" customHeight="1">
       <c r="A138" s="27" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="B138" s="23">
         <v>511</v>
       </c>
       <c r="C138" s="24" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="D138" s="9">
         <v>35013</v>
@@ -6271,12 +5784,8 @@
       <c r="E138" s="10">
         <v>705.43</v>
       </c>
-      <c r="F138" s="22">
-        <v>7</v>
-      </c>
-      <c r="G138" s="11">
-        <v>0</v>
-      </c>
+      <c r="F138" s="22"/>
+      <c r="G138" s="11"/>
       <c r="H138" s="6"/>
       <c r="I138" s="6"/>
       <c r="J138" s="6"/>
@@ -6295,13 +5804,13 @@
     </row>
     <row r="139" spans="1:22" ht="14.25" customHeight="1">
       <c r="A139" s="27" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="B139" s="7">
         <v>3</v>
       </c>
       <c r="C139" s="8" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="D139" s="9">
         <v>35013</v>
@@ -6309,12 +5818,8 @@
       <c r="E139" s="10">
         <v>1068.48</v>
       </c>
-      <c r="F139" s="10">
-        <v>7</v>
-      </c>
-      <c r="G139" s="11">
-        <v>0</v>
-      </c>
+      <c r="F139" s="10"/>
+      <c r="G139" s="11"/>
       <c r="H139" s="6"/>
       <c r="I139" s="6"/>
       <c r="J139" s="6"/>
@@ -6333,13 +5838,13 @@
     </row>
     <row r="140" spans="1:22" ht="14.25" customHeight="1">
       <c r="A140" s="27" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="B140" s="7">
         <v>4</v>
       </c>
       <c r="C140" s="8" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="D140" s="9">
         <v>35013</v>
@@ -6347,12 +5852,8 @@
       <c r="E140" s="10">
         <v>795</v>
       </c>
-      <c r="F140" s="10">
-        <v>7</v>
-      </c>
-      <c r="G140" s="11">
-        <v>0</v>
-      </c>
+      <c r="F140" s="10"/>
+      <c r="G140" s="11"/>
       <c r="H140" s="6"/>
       <c r="I140" s="6"/>
       <c r="J140" s="6"/>
@@ -6371,13 +5872,13 @@
     </row>
     <row r="141" spans="1:22" ht="14.25" customHeight="1">
       <c r="A141" s="27" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="B141" s="7">
         <v>5</v>
       </c>
       <c r="C141" s="8" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="D141" s="9">
         <v>35013</v>
@@ -6385,12 +5886,8 @@
       <c r="E141" s="10">
         <v>371</v>
       </c>
-      <c r="F141" s="10">
-        <v>7</v>
-      </c>
-      <c r="G141" s="11">
-        <v>0</v>
-      </c>
+      <c r="F141" s="10"/>
+      <c r="G141" s="11"/>
       <c r="H141" s="6"/>
       <c r="I141" s="6"/>
       <c r="J141" s="6"/>
@@ -6409,13 +5906,13 @@
     </row>
     <row r="142" spans="1:22" ht="14.25" customHeight="1">
       <c r="A142" s="27" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="B142" s="7">
         <v>8</v>
       </c>
       <c r="C142" s="8" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="D142" s="9">
         <v>34963</v>
@@ -6423,12 +5920,8 @@
       <c r="E142" s="10">
         <v>14000</v>
       </c>
-      <c r="F142" s="10">
-        <v>7</v>
-      </c>
-      <c r="G142" s="11">
-        <v>0</v>
-      </c>
+      <c r="F142" s="10"/>
+      <c r="G142" s="11"/>
       <c r="H142" s="6"/>
       <c r="I142" s="6"/>
       <c r="J142" s="6"/>
@@ -6447,13 +5940,13 @@
     </row>
     <row r="143" spans="1:22" ht="14.25" customHeight="1">
       <c r="A143" s="27" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="B143" s="7">
         <v>9</v>
       </c>
       <c r="C143" s="8" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="D143" s="9">
         <v>34717</v>
@@ -6461,12 +5954,8 @@
       <c r="E143" s="10">
         <v>704.89</v>
       </c>
-      <c r="F143" s="10">
-        <v>7</v>
-      </c>
-      <c r="G143" s="11">
-        <v>0</v>
-      </c>
+      <c r="F143" s="10"/>
+      <c r="G143" s="11"/>
       <c r="H143" s="6"/>
       <c r="I143" s="6"/>
       <c r="J143" s="6"/>
@@ -6485,13 +5974,13 @@
     </row>
     <row r="144" spans="1:22" ht="14.25" customHeight="1">
       <c r="A144" s="27" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="B144" s="7">
         <v>16</v>
       </c>
       <c r="C144" s="8" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="D144" s="9">
         <v>35146</v>
@@ -6499,12 +5988,8 @@
       <c r="E144" s="10">
         <v>1053.6400000000001</v>
       </c>
-      <c r="F144" s="10">
-        <v>7</v>
-      </c>
-      <c r="G144" s="11">
-        <v>0</v>
-      </c>
+      <c r="F144" s="10"/>
+      <c r="G144" s="11"/>
       <c r="H144" s="6"/>
       <c r="I144" s="6"/>
       <c r="J144" s="6"/>
@@ -6523,13 +6008,13 @@
     </row>
     <row r="145" spans="1:22" ht="14.25" customHeight="1">
       <c r="A145" s="27" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="B145" s="7">
         <v>21</v>
       </c>
       <c r="C145" s="8" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="D145" s="9">
         <v>35481</v>
@@ -6537,12 +6022,8 @@
       <c r="E145" s="10">
         <v>621.16</v>
       </c>
-      <c r="F145" s="10">
-        <v>7</v>
-      </c>
-      <c r="G145" s="11">
-        <v>0</v>
-      </c>
+      <c r="F145" s="10"/>
+      <c r="G145" s="11"/>
       <c r="H145" s="6"/>
       <c r="I145" s="6"/>
       <c r="J145" s="6"/>
@@ -6561,13 +6042,13 @@
     </row>
     <row r="146" spans="1:22" ht="14.25" customHeight="1">
       <c r="A146" s="27" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="B146" s="7">
         <v>141</v>
       </c>
       <c r="C146" s="8" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="D146" s="9">
         <v>36220</v>
@@ -6575,12 +6056,8 @@
       <c r="E146" s="10">
         <v>20543</v>
       </c>
-      <c r="F146" s="10">
-        <v>7</v>
-      </c>
-      <c r="G146" s="11">
-        <v>0</v>
-      </c>
+      <c r="F146" s="10"/>
+      <c r="G146" s="11"/>
       <c r="H146" s="6"/>
       <c r="I146" s="6"/>
       <c r="J146" s="6"/>
@@ -6599,13 +6076,13 @@
     </row>
     <row r="147" spans="1:22" ht="14.25" customHeight="1">
       <c r="A147" s="27" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="B147" s="7">
         <v>142</v>
       </c>
       <c r="C147" s="8" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="D147" s="9">
         <v>36500</v>
@@ -6613,12 +6090,8 @@
       <c r="E147" s="10">
         <v>1989</v>
       </c>
-      <c r="F147" s="10">
-        <v>7</v>
-      </c>
-      <c r="G147" s="11">
-        <v>0</v>
-      </c>
+      <c r="F147" s="10"/>
+      <c r="G147" s="11"/>
       <c r="H147" s="6"/>
       <c r="I147" s="6"/>
       <c r="J147" s="6"/>
@@ -6637,13 +6110,13 @@
     </row>
     <row r="148" spans="1:22" ht="14.25" customHeight="1">
       <c r="A148" s="27" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="B148" s="7">
         <v>154</v>
       </c>
       <c r="C148" s="8" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="D148" s="9">
         <v>36500</v>
@@ -6651,12 +6124,8 @@
       <c r="E148" s="10">
         <v>976</v>
       </c>
-      <c r="F148" s="10">
-        <v>7</v>
-      </c>
-      <c r="G148" s="11">
-        <v>0</v>
-      </c>
+      <c r="F148" s="10"/>
+      <c r="G148" s="11"/>
       <c r="H148" s="6"/>
       <c r="I148" s="6"/>
       <c r="J148" s="6"/>
@@ -6675,13 +6144,13 @@
     </row>
     <row r="149" spans="1:22" ht="14.25" customHeight="1">
       <c r="A149" s="27" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="B149" s="7">
         <v>155</v>
       </c>
       <c r="C149" s="8" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="D149" s="9">
         <v>36500</v>
@@ -6689,12 +6158,8 @@
       <c r="E149" s="10">
         <v>1035</v>
       </c>
-      <c r="F149" s="10">
-        <v>7</v>
-      </c>
-      <c r="G149" s="11">
-        <v>0</v>
-      </c>
+      <c r="F149" s="10"/>
+      <c r="G149" s="11"/>
       <c r="H149" s="6"/>
       <c r="I149" s="6"/>
       <c r="J149" s="6"/>
@@ -6713,13 +6178,13 @@
     </row>
     <row r="150" spans="1:22" ht="14.25" customHeight="1">
       <c r="A150" s="27" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="B150" s="7">
         <v>174</v>
       </c>
       <c r="C150" s="8" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="D150" s="9">
         <v>36536</v>
@@ -6727,12 +6192,8 @@
       <c r="E150" s="10">
         <v>1440.54</v>
       </c>
-      <c r="F150" s="10">
-        <v>7</v>
-      </c>
-      <c r="G150" s="11">
-        <v>0</v>
-      </c>
+      <c r="F150" s="10"/>
+      <c r="G150" s="11"/>
       <c r="H150" s="6"/>
       <c r="I150" s="6"/>
       <c r="J150" s="6"/>
@@ -6751,13 +6212,13 @@
     </row>
     <row r="151" spans="1:22" ht="14.25" customHeight="1">
       <c r="A151" s="27" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="B151" s="7">
         <v>197</v>
       </c>
       <c r="C151" s="8" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="D151" s="9">
         <v>37181</v>
@@ -6765,12 +6226,8 @@
       <c r="E151" s="10">
         <v>19857.080000000002</v>
       </c>
-      <c r="F151" s="10">
-        <v>7</v>
-      </c>
-      <c r="G151" s="11">
-        <v>0</v>
-      </c>
+      <c r="F151" s="10"/>
+      <c r="G151" s="11"/>
       <c r="H151" s="6"/>
       <c r="I151" s="6"/>
       <c r="J151" s="6"/>
@@ -6789,13 +6246,13 @@
     </row>
     <row r="152" spans="1:22" ht="14.25" customHeight="1">
       <c r="A152" s="27" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="B152" s="7">
         <v>199</v>
       </c>
       <c r="C152" s="8" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="D152" s="9">
         <v>37181</v>
@@ -6803,12 +6260,8 @@
       <c r="E152" s="10">
         <v>379.05</v>
       </c>
-      <c r="F152" s="22">
-        <v>7</v>
-      </c>
-      <c r="G152" s="11">
-        <v>0</v>
-      </c>
+      <c r="F152" s="22"/>
+      <c r="G152" s="11"/>
       <c r="H152" s="6"/>
       <c r="I152" s="6"/>
       <c r="J152" s="6"/>
@@ -6827,13 +6280,13 @@
     </row>
     <row r="153" spans="1:22" ht="14.25" customHeight="1">
       <c r="A153" s="27" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="B153" s="23">
         <v>512</v>
       </c>
       <c r="C153" s="24" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="D153" s="9">
         <v>37181</v>
@@ -6841,12 +6294,8 @@
       <c r="E153" s="10">
         <v>379.05</v>
       </c>
-      <c r="F153" s="22">
-        <v>7</v>
-      </c>
-      <c r="G153" s="11">
-        <v>0</v>
-      </c>
+      <c r="F153" s="22"/>
+      <c r="G153" s="11"/>
       <c r="H153" s="6"/>
       <c r="I153" s="6"/>
       <c r="J153" s="6"/>
@@ -6865,13 +6314,13 @@
     </row>
     <row r="154" spans="1:22" ht="14.25" customHeight="1">
       <c r="A154" s="27" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="B154" s="23">
         <v>513</v>
       </c>
       <c r="C154" s="24" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="D154" s="9">
         <v>37181</v>
@@ -6879,12 +6328,8 @@
       <c r="E154" s="10">
         <v>380.06</v>
       </c>
-      <c r="F154" s="22">
-        <v>7</v>
-      </c>
-      <c r="G154" s="11">
-        <v>0</v>
-      </c>
+      <c r="F154" s="22"/>
+      <c r="G154" s="11"/>
       <c r="H154" s="6"/>
       <c r="I154" s="6"/>
       <c r="J154" s="6"/>
@@ -6903,13 +6348,13 @@
     </row>
     <row r="155" spans="1:22" ht="14.25" customHeight="1">
       <c r="A155" s="27" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="B155" s="23">
         <v>514</v>
       </c>
       <c r="C155" s="24" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="D155" s="9">
         <v>37181</v>
@@ -6917,12 +6362,8 @@
       <c r="E155" s="10">
         <v>380.06</v>
       </c>
-      <c r="F155" s="22">
-        <v>7</v>
-      </c>
-      <c r="G155" s="11">
-        <v>0</v>
-      </c>
+      <c r="F155" s="22"/>
+      <c r="G155" s="11"/>
       <c r="H155" s="6"/>
       <c r="I155" s="6"/>
       <c r="J155" s="6"/>
@@ -6941,13 +6382,13 @@
     </row>
     <row r="156" spans="1:22" ht="14.25" customHeight="1">
       <c r="A156" s="27" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="B156" s="7">
         <v>208</v>
       </c>
       <c r="C156" s="8" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="D156" s="9">
         <v>37274</v>
@@ -6955,12 +6396,8 @@
       <c r="E156" s="10">
         <v>6340.56</v>
       </c>
-      <c r="F156" s="10">
-        <v>7</v>
-      </c>
-      <c r="G156" s="11">
-        <v>0</v>
-      </c>
+      <c r="F156" s="10"/>
+      <c r="G156" s="11"/>
       <c r="H156" s="6"/>
       <c r="I156" s="6"/>
       <c r="J156" s="6"/>
@@ -6979,13 +6416,13 @@
     </row>
     <row r="157" spans="1:22" ht="14.25" customHeight="1">
       <c r="A157" s="27" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="B157" s="7">
         <v>209</v>
       </c>
       <c r="C157" s="8" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="D157" s="9">
         <v>37274</v>
@@ -6993,12 +6430,8 @@
       <c r="E157" s="10">
         <v>5836.6</v>
       </c>
-      <c r="F157" s="10">
-        <v>7</v>
-      </c>
-      <c r="G157" s="11">
-        <v>0</v>
-      </c>
+      <c r="F157" s="10"/>
+      <c r="G157" s="11"/>
       <c r="H157" s="6"/>
       <c r="I157" s="6"/>
       <c r="J157" s="6"/>
@@ -7017,13 +6450,13 @@
     </row>
     <row r="158" spans="1:22" ht="14.25" customHeight="1">
       <c r="A158" s="27" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="B158" s="7">
         <v>210</v>
       </c>
       <c r="C158" s="8" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="D158" s="9">
         <v>37274</v>
@@ -7031,12 +6464,8 @@
       <c r="E158" s="10">
         <v>3189.03</v>
       </c>
-      <c r="F158" s="10">
-        <v>7</v>
-      </c>
-      <c r="G158" s="11">
-        <v>0</v>
-      </c>
+      <c r="F158" s="10"/>
+      <c r="G158" s="11"/>
       <c r="H158" s="6"/>
       <c r="I158" s="6"/>
       <c r="J158" s="6"/>
@@ -7055,13 +6484,13 @@
     </row>
     <row r="159" spans="1:22" ht="14.25" customHeight="1">
       <c r="A159" s="27" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="B159" s="7">
         <v>211</v>
       </c>
       <c r="C159" s="8" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="D159" s="9">
         <v>37274</v>
@@ -7069,12 +6498,8 @@
       <c r="E159" s="10">
         <v>12608.69</v>
       </c>
-      <c r="F159" s="10">
-        <v>7</v>
-      </c>
-      <c r="G159" s="11">
-        <v>0</v>
-      </c>
+      <c r="F159" s="10"/>
+      <c r="G159" s="11"/>
       <c r="H159" s="6"/>
       <c r="I159" s="6"/>
       <c r="J159" s="6"/>
@@ -7093,13 +6518,13 @@
     </row>
     <row r="160" spans="1:22" ht="14.25" customHeight="1">
       <c r="A160" s="27" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="B160" s="7">
         <v>212</v>
       </c>
       <c r="C160" s="8" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="D160" s="9">
         <v>37274</v>
@@ -7107,12 +6532,8 @@
       <c r="E160" s="10">
         <v>6631.34</v>
       </c>
-      <c r="F160" s="10">
-        <v>7</v>
-      </c>
-      <c r="G160" s="11">
-        <v>0</v>
-      </c>
+      <c r="F160" s="10"/>
+      <c r="G160" s="11"/>
       <c r="H160" s="6"/>
       <c r="I160" s="6"/>
       <c r="J160" s="6"/>
@@ -7131,13 +6552,13 @@
     </row>
     <row r="161" spans="1:22" ht="14.25" customHeight="1">
       <c r="A161" s="27" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="B161" s="7">
         <v>213</v>
       </c>
       <c r="C161" s="8" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="D161" s="9">
         <v>37272</v>
@@ -7145,12 +6566,8 @@
       <c r="E161" s="10">
         <v>4221.3</v>
       </c>
-      <c r="F161" s="10">
-        <v>7</v>
-      </c>
-      <c r="G161" s="11">
-        <v>0</v>
-      </c>
+      <c r="F161" s="10"/>
+      <c r="G161" s="11"/>
       <c r="H161" s="6"/>
       <c r="I161" s="6"/>
       <c r="J161" s="6"/>
@@ -7169,13 +6586,13 @@
     </row>
     <row r="162" spans="1:22" ht="14.25" customHeight="1">
       <c r="A162" s="27" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="B162" s="7">
         <v>239</v>
       </c>
       <c r="C162" s="8" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="D162" s="9">
         <v>37063</v>
@@ -7183,12 +6600,8 @@
       <c r="E162" s="10">
         <v>1250</v>
       </c>
-      <c r="F162" s="10">
-        <v>7</v>
-      </c>
-      <c r="G162" s="11">
-        <v>0</v>
-      </c>
+      <c r="F162" s="10"/>
+      <c r="G162" s="11"/>
       <c r="H162" s="6"/>
       <c r="I162" s="6"/>
       <c r="J162" s="6"/>
@@ -7207,13 +6620,13 @@
     </row>
     <row r="163" spans="1:22" ht="14.25" customHeight="1">
       <c r="A163" s="27" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="B163" s="7">
         <v>301</v>
       </c>
       <c r="C163" s="8" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="D163" s="9">
         <v>38509</v>
@@ -7221,12 +6634,8 @@
       <c r="E163" s="10">
         <v>2776.14</v>
       </c>
-      <c r="F163" s="10">
-        <v>7</v>
-      </c>
-      <c r="G163" s="11">
-        <v>0</v>
-      </c>
+      <c r="F163" s="10"/>
+      <c r="G163" s="11"/>
       <c r="H163" s="6"/>
       <c r="I163" s="6"/>
       <c r="J163" s="6"/>
@@ -7245,13 +6654,13 @@
     </row>
     <row r="164" spans="1:22" ht="14.25" customHeight="1">
       <c r="A164" s="27" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="B164" s="7">
         <v>302</v>
       </c>
       <c r="C164" s="8" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="D164" s="9">
         <v>38509</v>
@@ -7259,12 +6668,8 @@
       <c r="E164" s="10">
         <v>8013.63</v>
       </c>
-      <c r="F164" s="10">
-        <v>7</v>
-      </c>
-      <c r="G164" s="11">
-        <v>0</v>
-      </c>
+      <c r="F164" s="10"/>
+      <c r="G164" s="11"/>
       <c r="H164" s="6"/>
       <c r="I164" s="6"/>
       <c r="J164" s="6"/>
@@ -7283,13 +6688,13 @@
     </row>
     <row r="165" spans="1:22" ht="14.25" customHeight="1">
       <c r="A165" s="27" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="B165" s="7">
         <v>314</v>
       </c>
       <c r="C165" s="8" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="D165" s="9">
         <v>39007</v>
@@ -7297,12 +6702,8 @@
       <c r="E165" s="10">
         <v>6686.71</v>
       </c>
-      <c r="F165" s="10">
-        <v>7</v>
-      </c>
-      <c r="G165" s="11">
-        <v>0</v>
-      </c>
+      <c r="F165" s="10"/>
+      <c r="G165" s="11"/>
       <c r="H165" s="6"/>
       <c r="I165" s="6"/>
       <c r="J165" s="6"/>
@@ -7321,13 +6722,13 @@
     </row>
     <row r="166" spans="1:22" ht="14.25" customHeight="1">
       <c r="A166" s="27" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="B166" s="7">
         <v>316</v>
       </c>
       <c r="C166" s="8" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="D166" s="9">
         <v>38869</v>
@@ -7335,12 +6736,8 @@
       <c r="E166" s="10">
         <v>3323.7</v>
       </c>
-      <c r="F166" s="10">
-        <v>7</v>
-      </c>
-      <c r="G166" s="11">
-        <v>0</v>
-      </c>
+      <c r="F166" s="10"/>
+      <c r="G166" s="11"/>
       <c r="H166" s="6"/>
       <c r="I166" s="6"/>
       <c r="J166" s="6"/>
@@ -7359,13 +6756,13 @@
     </row>
     <row r="167" spans="1:22" ht="14.25" customHeight="1">
       <c r="A167" s="27" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="B167" s="7">
         <v>318</v>
       </c>
       <c r="C167" s="8" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="D167" s="9">
         <v>39309</v>
@@ -7373,12 +6770,8 @@
       <c r="E167" s="10">
         <v>1530</v>
       </c>
-      <c r="F167" s="10">
-        <v>7</v>
-      </c>
-      <c r="G167" s="11">
-        <v>0</v>
-      </c>
+      <c r="F167" s="10"/>
+      <c r="G167" s="11"/>
       <c r="H167" s="6"/>
       <c r="I167" s="6"/>
       <c r="J167" s="6"/>
@@ -7397,13 +6790,13 @@
     </row>
     <row r="168" spans="1:22" ht="14.25" customHeight="1">
       <c r="A168" s="27" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="B168" s="7">
         <v>319</v>
       </c>
       <c r="C168" s="8" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="D168" s="9">
         <v>39309</v>
@@ -7411,12 +6804,8 @@
       <c r="E168" s="10">
         <v>2460.08</v>
       </c>
-      <c r="F168" s="10">
-        <v>7</v>
-      </c>
-      <c r="G168" s="11">
-        <v>0</v>
-      </c>
+      <c r="F168" s="10"/>
+      <c r="G168" s="11"/>
       <c r="H168" s="6"/>
       <c r="I168" s="6"/>
       <c r="J168" s="6"/>
@@ -7435,13 +6824,13 @@
     </row>
     <row r="169" spans="1:22" ht="14.25" customHeight="1">
       <c r="A169" s="27" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="B169" s="7">
         <v>333</v>
       </c>
       <c r="C169" s="8" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="D169" s="9">
         <v>40135</v>
@@ -7449,12 +6838,8 @@
       <c r="E169" s="10">
         <v>6300</v>
       </c>
-      <c r="F169" s="10">
-        <v>7</v>
-      </c>
-      <c r="G169" s="11">
-        <v>0</v>
-      </c>
+      <c r="F169" s="10"/>
+      <c r="G169" s="11"/>
       <c r="H169" s="6"/>
       <c r="I169" s="6"/>
       <c r="J169" s="6"/>
@@ -7473,13 +6858,13 @@
     </row>
     <row r="170" spans="1:22" ht="14.25" customHeight="1">
       <c r="A170" s="27" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="B170" s="7">
         <v>387</v>
       </c>
       <c r="C170" s="8" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="D170" s="9">
         <v>41492</v>
@@ -7487,12 +6872,8 @@
       <c r="E170" s="10">
         <v>3698.34</v>
       </c>
-      <c r="F170" s="10">
-        <v>7</v>
-      </c>
-      <c r="G170" s="11">
-        <v>0</v>
-      </c>
+      <c r="F170" s="10"/>
+      <c r="G170" s="11"/>
       <c r="H170" s="6"/>
       <c r="I170" s="6"/>
       <c r="J170" s="6"/>
@@ -7511,13 +6892,13 @@
     </row>
     <row r="171" spans="1:22" ht="14.25" customHeight="1">
       <c r="A171" s="27" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="B171" s="7">
         <v>400</v>
       </c>
       <c r="C171" s="8" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="D171" s="9">
         <v>42179</v>
@@ -7525,12 +6906,8 @@
       <c r="E171" s="10">
         <v>2545.5</v>
       </c>
-      <c r="F171" s="10">
-        <v>7</v>
-      </c>
-      <c r="G171" s="10">
-        <v>1090.93</v>
-      </c>
+      <c r="F171" s="10"/>
+      <c r="G171" s="10"/>
       <c r="H171" s="12"/>
       <c r="I171" s="6"/>
       <c r="J171" s="6"/>
@@ -7549,13 +6926,13 @@
     </row>
     <row r="172" spans="1:22" ht="14.25" customHeight="1">
       <c r="A172" s="27" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="B172" s="7">
         <v>401</v>
       </c>
       <c r="C172" s="8" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="D172" s="9">
         <v>42179</v>
@@ -7563,12 +6940,8 @@
       <c r="E172" s="10">
         <v>13192.28</v>
       </c>
-      <c r="F172" s="10">
-        <v>7</v>
-      </c>
-      <c r="G172" s="10">
-        <v>5653.83</v>
-      </c>
+      <c r="F172" s="10"/>
+      <c r="G172" s="10"/>
       <c r="H172" s="12"/>
       <c r="I172" s="6"/>
       <c r="J172" s="6"/>
@@ -7587,13 +6960,13 @@
     </row>
     <row r="173" spans="1:22" ht="14.25" customHeight="1">
       <c r="A173" s="27" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="B173" s="7">
         <v>402</v>
       </c>
       <c r="C173" s="24" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="D173" s="9">
         <v>42179</v>
@@ -7601,12 +6974,8 @@
       <c r="E173" s="10">
         <v>958.98</v>
       </c>
-      <c r="F173" s="10">
-        <v>7</v>
-      </c>
-      <c r="G173" s="10">
-        <v>410.99</v>
-      </c>
+      <c r="F173" s="10"/>
+      <c r="G173" s="10"/>
       <c r="H173" s="12"/>
       <c r="I173" s="6"/>
       <c r="J173" s="6"/>
@@ -7625,13 +6994,13 @@
     </row>
     <row r="174" spans="1:22" ht="14.25" customHeight="1">
       <c r="A174" s="27" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="B174" s="23">
         <v>515</v>
       </c>
       <c r="C174" s="24" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="D174" s="9">
         <v>42179</v>
@@ -7639,12 +7008,8 @@
       <c r="E174" s="10">
         <v>958.98</v>
       </c>
-      <c r="F174" s="10">
-        <v>7</v>
-      </c>
-      <c r="G174" s="22">
-        <v>410.99</v>
-      </c>
+      <c r="F174" s="10"/>
+      <c r="G174" s="22"/>
       <c r="H174" s="12"/>
       <c r="I174" s="6"/>
       <c r="J174" s="6"/>
@@ -7663,13 +7028,13 @@
     </row>
     <row r="175" spans="1:22" ht="14.25" customHeight="1">
       <c r="A175" s="27" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="B175" s="23">
         <v>516</v>
       </c>
       <c r="C175" s="24" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="D175" s="9">
         <v>42179</v>
@@ -7677,12 +7042,8 @@
       <c r="E175" s="10">
         <v>958.98</v>
       </c>
-      <c r="F175" s="10">
-        <v>7</v>
-      </c>
-      <c r="G175" s="22">
-        <v>410.99</v>
-      </c>
+      <c r="F175" s="10"/>
+      <c r="G175" s="22"/>
       <c r="H175" s="12"/>
       <c r="I175" s="6"/>
       <c r="J175" s="6"/>
@@ -7701,13 +7062,13 @@
     </row>
     <row r="176" spans="1:22" ht="14.25" customHeight="1">
       <c r="A176" s="27" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="B176" s="23">
         <v>517</v>
       </c>
       <c r="C176" s="24" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="D176" s="9">
         <v>42179</v>
@@ -7715,12 +7076,8 @@
       <c r="E176" s="10">
         <v>958.98</v>
       </c>
-      <c r="F176" s="10">
-        <v>7</v>
-      </c>
-      <c r="G176" s="23">
-        <v>410.99</v>
-      </c>
+      <c r="F176" s="10"/>
+      <c r="G176" s="23"/>
       <c r="H176" s="6"/>
       <c r="I176" s="6"/>
       <c r="J176" s="6"/>
@@ -7739,13 +7096,13 @@
     </row>
     <row r="177" spans="1:22" ht="14.25" customHeight="1">
       <c r="A177" s="27" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="B177" s="23">
         <v>518</v>
       </c>
       <c r="C177" s="24" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="D177" s="9">
         <v>42179</v>
@@ -7753,12 +7110,8 @@
       <c r="E177" s="10">
         <v>958.98</v>
       </c>
-      <c r="F177" s="22">
-        <v>7</v>
-      </c>
-      <c r="G177" s="23">
-        <v>410.99</v>
-      </c>
+      <c r="F177" s="22"/>
+      <c r="G177" s="23"/>
       <c r="H177" s="6"/>
       <c r="I177" s="6"/>
       <c r="J177" s="6"/>
@@ -7777,13 +7130,13 @@
     </row>
     <row r="178" spans="1:22" ht="14.25" customHeight="1">
       <c r="A178" s="27" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="B178" s="23">
         <v>519</v>
       </c>
       <c r="C178" s="24" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="D178" s="9">
         <v>42179</v>
@@ -7791,12 +7144,8 @@
       <c r="E178" s="10">
         <v>958.98</v>
       </c>
-      <c r="F178" s="22">
-        <v>7</v>
-      </c>
-      <c r="G178" s="23">
-        <v>410.99</v>
-      </c>
+      <c r="F178" s="22"/>
+      <c r="G178" s="23"/>
       <c r="H178" s="6"/>
       <c r="I178" s="6"/>
       <c r="J178" s="6"/>
@@ -7815,13 +7164,13 @@
     </row>
     <row r="179" spans="1:22" ht="14.25" customHeight="1">
       <c r="A179" s="27" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="B179" s="23">
         <v>520</v>
       </c>
       <c r="C179" s="24" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="D179" s="9">
         <v>42179</v>
@@ -7829,12 +7178,8 @@
       <c r="E179" s="10">
         <v>958.98</v>
       </c>
-      <c r="F179" s="22">
-        <v>7</v>
-      </c>
-      <c r="G179" s="23">
-        <v>410.99</v>
-      </c>
+      <c r="F179" s="22"/>
+      <c r="G179" s="23"/>
       <c r="H179" s="6"/>
       <c r="I179" s="6"/>
       <c r="J179" s="6"/>
@@ -7853,13 +7198,13 @@
     </row>
     <row r="180" spans="1:22" ht="14.25" customHeight="1">
       <c r="A180" s="27" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="B180" s="23">
         <v>521</v>
       </c>
       <c r="C180" s="24" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="D180" s="9">
         <v>42179</v>
@@ -7867,12 +7212,8 @@
       <c r="E180" s="10">
         <v>958.98</v>
       </c>
-      <c r="F180" s="22">
-        <v>7</v>
-      </c>
-      <c r="G180" s="23">
-        <v>410.99</v>
-      </c>
+      <c r="F180" s="22"/>
+      <c r="G180" s="23"/>
       <c r="H180" s="6"/>
       <c r="I180" s="6"/>
       <c r="J180" s="6"/>
@@ -7891,13 +7232,13 @@
     </row>
     <row r="181" spans="1:22" ht="14.25" customHeight="1">
       <c r="A181" s="27" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="B181" s="23">
         <v>522</v>
       </c>
       <c r="C181" s="24" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="D181" s="9">
         <v>42179</v>
@@ -7905,12 +7246,8 @@
       <c r="E181" s="10">
         <v>958.98</v>
       </c>
-      <c r="F181" s="22">
-        <v>7</v>
-      </c>
-      <c r="G181" s="23">
-        <v>410.99</v>
-      </c>
+      <c r="F181" s="22"/>
+      <c r="G181" s="23"/>
       <c r="H181" s="6"/>
       <c r="I181" s="6"/>
       <c r="J181" s="6"/>
@@ -7929,13 +7266,13 @@
     </row>
     <row r="182" spans="1:22" ht="14.25" customHeight="1">
       <c r="A182" s="27" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="B182" s="23">
         <v>523</v>
       </c>
       <c r="C182" s="24" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="D182" s="9">
         <v>42179</v>
@@ -7943,12 +7280,8 @@
       <c r="E182" s="10">
         <v>958.98</v>
       </c>
-      <c r="F182" s="22">
-        <v>7</v>
-      </c>
-      <c r="G182" s="11">
-        <v>411</v>
-      </c>
+      <c r="F182" s="22"/>
+      <c r="G182" s="11"/>
       <c r="H182" s="6"/>
       <c r="I182" s="6"/>
       <c r="J182" s="6"/>
@@ -7967,13 +7300,13 @@
     </row>
     <row r="183" spans="1:22" ht="14.25" customHeight="1">
       <c r="A183" s="27" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="B183" s="7">
         <v>403</v>
       </c>
       <c r="C183" s="8" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="D183" s="9">
         <v>42179</v>
@@ -7981,12 +7314,8 @@
       <c r="E183" s="10">
         <v>938.98</v>
       </c>
-      <c r="F183" s="22">
-        <v>7</v>
-      </c>
-      <c r="G183" s="11">
-        <v>402.42</v>
-      </c>
+      <c r="F183" s="22"/>
+      <c r="G183" s="11"/>
       <c r="H183" s="6"/>
       <c r="I183" s="6"/>
       <c r="J183" s="6"/>
@@ -8005,13 +7334,13 @@
     </row>
     <row r="184" spans="1:22" ht="14.25" customHeight="1">
       <c r="A184" s="27" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="B184" s="23">
         <v>524</v>
       </c>
       <c r="C184" s="24" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="D184" s="9">
         <v>42179</v>
@@ -8019,12 +7348,8 @@
       <c r="E184" s="26">
         <v>938.98</v>
       </c>
-      <c r="F184" s="22">
-        <v>7</v>
-      </c>
-      <c r="G184" s="23">
-        <v>402.42</v>
-      </c>
+      <c r="F184" s="22"/>
+      <c r="G184" s="23"/>
       <c r="H184" s="6"/>
       <c r="I184" s="6"/>
       <c r="J184" s="6"/>
@@ -8043,13 +7368,13 @@
     </row>
     <row r="185" spans="1:22" ht="14.25" customHeight="1">
       <c r="A185" s="27" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="B185" s="23">
         <v>525</v>
       </c>
       <c r="C185" s="24" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="D185" s="9">
         <v>42179</v>
@@ -8057,12 +7382,8 @@
       <c r="E185" s="26">
         <v>938.98</v>
       </c>
-      <c r="F185" s="22">
-        <v>7</v>
-      </c>
-      <c r="G185" s="23">
-        <v>402.42</v>
-      </c>
+      <c r="F185" s="22"/>
+      <c r="G185" s="23"/>
       <c r="H185" s="6"/>
       <c r="I185" s="6"/>
       <c r="J185" s="6"/>
@@ -8081,13 +7402,13 @@
     </row>
     <row r="186" spans="1:22" ht="14.25" customHeight="1">
       <c r="A186" s="27" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="B186" s="23">
         <v>526</v>
       </c>
       <c r="C186" s="24" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="D186" s="9">
         <v>42179</v>
@@ -8095,12 +7416,8 @@
       <c r="E186" s="26">
         <v>938.98</v>
       </c>
-      <c r="F186" s="22">
-        <v>7</v>
-      </c>
-      <c r="G186" s="23">
-        <v>402.42</v>
-      </c>
+      <c r="F186" s="22"/>
+      <c r="G186" s="23"/>
       <c r="H186" s="6"/>
       <c r="I186" s="6"/>
       <c r="J186" s="6"/>
@@ -8119,13 +7436,13 @@
     </row>
     <row r="187" spans="1:22" ht="14.25" customHeight="1">
       <c r="A187" s="27" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="B187" s="23">
         <v>527</v>
       </c>
       <c r="C187" s="24" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="D187" s="9">
         <v>42179</v>
@@ -8133,12 +7450,8 @@
       <c r="E187" s="26">
         <v>938.98</v>
       </c>
-      <c r="F187" s="22">
-        <v>7</v>
-      </c>
-      <c r="G187" s="23">
-        <v>402.42</v>
-      </c>
+      <c r="F187" s="22"/>
+      <c r="G187" s="23"/>
       <c r="H187" s="6"/>
       <c r="I187" s="6"/>
       <c r="J187" s="6"/>
@@ -8157,13 +7470,13 @@
     </row>
     <row r="188" spans="1:22" ht="14.25" customHeight="1">
       <c r="A188" s="27" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="B188" s="23">
         <v>528</v>
       </c>
       <c r="C188" s="24" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="D188" s="9">
         <v>42179</v>
@@ -8171,12 +7484,8 @@
       <c r="E188" s="26">
         <v>938.98</v>
       </c>
-      <c r="F188" s="22">
-        <v>7</v>
-      </c>
-      <c r="G188" s="23">
-        <v>402.42</v>
-      </c>
+      <c r="F188" s="22"/>
+      <c r="G188" s="23"/>
       <c r="H188" s="6"/>
       <c r="I188" s="6"/>
       <c r="J188" s="6"/>
@@ -8195,13 +7504,13 @@
     </row>
     <row r="189" spans="1:22" ht="14.25" customHeight="1">
       <c r="A189" s="27" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="B189" s="7">
         <v>404</v>
       </c>
       <c r="C189" s="8" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="D189" s="9">
         <v>42179</v>
@@ -8209,12 +7518,8 @@
       <c r="E189" s="10">
         <v>9540</v>
       </c>
-      <c r="F189" s="22">
-        <v>7</v>
-      </c>
-      <c r="G189" s="10">
-        <v>4088.57</v>
-      </c>
+      <c r="F189" s="22"/>
+      <c r="G189" s="10"/>
       <c r="H189" s="12"/>
       <c r="I189" s="6"/>
       <c r="J189" s="6"/>
@@ -8233,13 +7538,13 @@
     </row>
     <row r="190" spans="1:22" ht="14.25" customHeight="1">
       <c r="A190" s="27" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="B190" s="7">
         <v>405</v>
       </c>
       <c r="C190" s="8" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="D190" s="9">
         <v>42226</v>
@@ -8247,12 +7552,8 @@
       <c r="E190" s="10">
         <v>2062.04</v>
       </c>
-      <c r="F190" s="22">
-        <v>7</v>
-      </c>
-      <c r="G190" s="13">
-        <v>883.73</v>
-      </c>
+      <c r="F190" s="22"/>
+      <c r="G190" s="13"/>
       <c r="H190" s="6"/>
       <c r="I190" s="6"/>
       <c r="J190" s="6"/>
@@ -8271,13 +7572,13 @@
     </row>
     <row r="191" spans="1:22" ht="14.25" customHeight="1">
       <c r="A191" s="2" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="B191" s="7">
         <v>143</v>
       </c>
       <c r="C191" s="8" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="D191" s="9">
         <v>36476</v>
@@ -8285,12 +7586,8 @@
       <c r="E191" s="10">
         <v>584.05999999999995</v>
       </c>
-      <c r="F191" s="10">
-        <v>7</v>
-      </c>
-      <c r="G191" s="11">
-        <v>0</v>
-      </c>
+      <c r="F191" s="10"/>
+      <c r="G191" s="11"/>
       <c r="H191" s="6"/>
       <c r="I191" s="6"/>
       <c r="J191" s="6"/>
@@ -8309,13 +7606,13 @@
     </row>
     <row r="192" spans="1:22" ht="14.25" customHeight="1">
       <c r="A192" s="2" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="B192" s="7">
         <v>144</v>
       </c>
       <c r="C192" s="8" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="D192" s="9">
         <v>36451</v>
@@ -8323,12 +7620,8 @@
       <c r="E192" s="10">
         <v>274.54000000000002</v>
       </c>
-      <c r="F192" s="10">
-        <v>7</v>
-      </c>
-      <c r="G192" s="11">
-        <v>0</v>
-      </c>
+      <c r="F192" s="10"/>
+      <c r="G192" s="11"/>
       <c r="H192" s="6"/>
       <c r="I192" s="6"/>
       <c r="J192" s="6"/>
@@ -8347,13 +7640,13 @@
     </row>
     <row r="193" spans="1:22" ht="14.25" customHeight="1">
       <c r="A193" s="2" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="B193" s="7">
         <v>187</v>
       </c>
       <c r="C193" s="8" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="D193" s="9">
         <v>37246</v>
@@ -8361,12 +7654,8 @@
       <c r="E193" s="10">
         <v>1036.69</v>
       </c>
-      <c r="F193" s="10">
-        <v>7</v>
-      </c>
-      <c r="G193" s="11">
-        <v>0</v>
-      </c>
+      <c r="F193" s="10"/>
+      <c r="G193" s="11"/>
       <c r="H193" s="6"/>
       <c r="I193" s="6"/>
       <c r="J193" s="6"/>
@@ -8385,13 +7674,13 @@
     </row>
     <row r="194" spans="1:22" ht="14.25" customHeight="1">
       <c r="A194" s="2" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="B194" s="7">
         <v>196</v>
       </c>
       <c r="C194" s="8" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="D194" s="9">
         <v>37210</v>
@@ -8399,12 +7688,8 @@
       <c r="E194" s="22">
         <v>836.34</v>
       </c>
-      <c r="F194" s="10">
-        <v>7</v>
-      </c>
-      <c r="G194" s="11">
-        <v>0</v>
-      </c>
+      <c r="F194" s="10"/>
+      <c r="G194" s="11"/>
       <c r="H194" s="6"/>
       <c r="I194" s="6"/>
       <c r="J194" s="6"/>
@@ -8423,13 +7708,13 @@
     </row>
     <row r="195" spans="1:22" ht="14.25" customHeight="1">
       <c r="A195" s="2" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="B195" s="23">
         <v>529</v>
       </c>
       <c r="C195" s="24" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="D195" s="9">
         <v>37210</v>
@@ -8437,12 +7722,8 @@
       <c r="E195" s="22">
         <v>836.34</v>
       </c>
-      <c r="F195" s="10">
-        <v>7</v>
-      </c>
-      <c r="G195" s="11">
-        <v>0</v>
-      </c>
+      <c r="F195" s="10"/>
+      <c r="G195" s="11"/>
       <c r="H195" s="6"/>
       <c r="I195" s="6"/>
       <c r="J195" s="6"/>
@@ -8461,13 +7742,13 @@
     </row>
     <row r="196" spans="1:22" ht="14.25" customHeight="1">
       <c r="A196" s="2" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="B196" s="23">
         <v>530</v>
       </c>
       <c r="C196" s="24" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="D196" s="9">
         <v>37210</v>
@@ -8475,12 +7756,8 @@
       <c r="E196" s="22">
         <v>836.34</v>
       </c>
-      <c r="F196" s="10">
-        <v>7</v>
-      </c>
-      <c r="G196" s="11">
-        <v>0</v>
-      </c>
+      <c r="F196" s="10"/>
+      <c r="G196" s="11"/>
       <c r="H196" s="6"/>
       <c r="I196" s="6"/>
       <c r="J196" s="6"/>
@@ -8499,13 +7776,13 @@
     </row>
     <row r="197" spans="1:22" ht="14.25" customHeight="1">
       <c r="A197" s="2" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="B197" s="23">
         <v>531</v>
       </c>
       <c r="C197" s="24" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="D197" s="9">
         <v>37210</v>
@@ -8513,12 +7790,8 @@
       <c r="E197" s="22">
         <v>836.34</v>
       </c>
-      <c r="F197" s="10">
-        <v>7</v>
-      </c>
-      <c r="G197" s="11">
-        <v>0</v>
-      </c>
+      <c r="F197" s="10"/>
+      <c r="G197" s="11"/>
       <c r="H197" s="6"/>
       <c r="I197" s="6"/>
       <c r="J197" s="6"/>
@@ -8537,13 +7810,13 @@
     </row>
     <row r="198" spans="1:22" ht="14.25" customHeight="1">
       <c r="A198" s="2" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="B198" s="23">
         <v>532</v>
       </c>
       <c r="C198" s="24" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="D198" s="9">
         <v>37210</v>
@@ -8551,12 +7824,8 @@
       <c r="E198" s="22">
         <v>836.34</v>
       </c>
-      <c r="F198" s="10">
-        <v>7</v>
-      </c>
-      <c r="G198" s="11">
-        <v>0</v>
-      </c>
+      <c r="F198" s="10"/>
+      <c r="G198" s="11"/>
       <c r="H198" s="6"/>
       <c r="I198" s="6"/>
       <c r="J198" s="6"/>
@@ -8575,13 +7844,13 @@
     </row>
     <row r="199" spans="1:22" ht="14.25" customHeight="1">
       <c r="A199" s="2" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="B199" s="23">
         <v>533</v>
       </c>
       <c r="C199" s="24" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="D199" s="9">
         <v>37210</v>
@@ -8589,12 +7858,8 @@
       <c r="E199" s="22">
         <v>836.34</v>
       </c>
-      <c r="F199" s="10">
-        <v>7</v>
-      </c>
-      <c r="G199" s="11">
-        <v>0</v>
-      </c>
+      <c r="F199" s="10"/>
+      <c r="G199" s="11"/>
       <c r="H199" s="6"/>
       <c r="I199" s="6"/>
       <c r="J199" s="6"/>
@@ -8613,13 +7878,13 @@
     </row>
     <row r="200" spans="1:22" ht="14.25" customHeight="1">
       <c r="A200" s="2" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="B200" s="23">
         <v>534</v>
       </c>
       <c r="C200" s="24" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="D200" s="9">
         <v>37210</v>
@@ -8627,12 +7892,8 @@
       <c r="E200" s="22">
         <v>836.34</v>
       </c>
-      <c r="F200" s="10">
-        <v>7</v>
-      </c>
-      <c r="G200" s="11">
-        <v>0</v>
-      </c>
+      <c r="F200" s="10"/>
+      <c r="G200" s="11"/>
       <c r="H200" s="6"/>
       <c r="I200" s="6"/>
       <c r="J200" s="6"/>
@@ -8651,13 +7912,13 @@
     </row>
     <row r="201" spans="1:22" ht="14.25" customHeight="1">
       <c r="A201" s="2" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="B201" s="23">
         <v>535</v>
       </c>
       <c r="C201" s="24" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="D201" s="9">
         <v>37210</v>
@@ -8665,12 +7926,8 @@
       <c r="E201" s="10">
         <v>836.34</v>
       </c>
-      <c r="F201" s="10">
-        <v>7</v>
-      </c>
-      <c r="G201" s="13">
-        <v>0</v>
-      </c>
+      <c r="F201" s="10"/>
+      <c r="G201" s="13"/>
       <c r="H201" s="6"/>
       <c r="I201" s="6"/>
       <c r="J201" s="6"/>
@@ -8689,13 +7946,13 @@
     </row>
     <row r="202" spans="1:22" ht="14.25" customHeight="1">
       <c r="A202" s="2" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="B202" s="7">
         <v>198</v>
       </c>
       <c r="C202" s="8" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="D202" s="9">
         <v>37181</v>
@@ -8703,12 +7960,8 @@
       <c r="E202" s="10">
         <v>7840.95</v>
       </c>
-      <c r="F202" s="22">
-        <v>7</v>
-      </c>
-      <c r="G202" s="11">
-        <v>0</v>
-      </c>
+      <c r="F202" s="22"/>
+      <c r="G202" s="11"/>
       <c r="H202" s="6"/>
       <c r="I202" s="6"/>
       <c r="J202" s="6"/>
@@ -8727,13 +7980,13 @@
     </row>
     <row r="203" spans="1:22" ht="14.25" customHeight="1">
       <c r="A203" s="2" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="B203" s="7">
         <v>240</v>
       </c>
       <c r="C203" s="8" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="D203" s="9">
         <v>37902</v>
@@ -8741,12 +7994,8 @@
       <c r="E203" s="10">
         <v>2731.62</v>
       </c>
-      <c r="F203" s="22">
-        <v>7</v>
-      </c>
-      <c r="G203" s="11">
-        <v>0</v>
-      </c>
+      <c r="F203" s="22"/>
+      <c r="G203" s="11"/>
       <c r="H203" s="6"/>
       <c r="I203" s="6"/>
       <c r="J203" s="6"/>
@@ -8765,13 +8014,13 @@
     </row>
     <row r="204" spans="1:22" ht="14.25" customHeight="1">
       <c r="A204" s="2" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="B204" s="7">
         <v>288</v>
       </c>
       <c r="C204" s="8" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="D204" s="9">
         <v>38140</v>
@@ -8779,12 +8028,8 @@
       <c r="E204" s="10">
         <v>419.08</v>
       </c>
-      <c r="F204" s="22">
-        <v>7</v>
-      </c>
-      <c r="G204" s="11">
-        <v>0</v>
-      </c>
+      <c r="F204" s="22"/>
+      <c r="G204" s="11"/>
       <c r="H204" s="6"/>
       <c r="I204" s="6"/>
       <c r="J204" s="6"/>
@@ -8803,13 +8048,13 @@
     </row>
     <row r="205" spans="1:22" ht="14.25" customHeight="1">
       <c r="A205" s="2" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="B205" s="23">
         <v>536</v>
       </c>
       <c r="C205" s="24" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="D205" s="9">
         <v>38140</v>
@@ -8817,12 +8062,8 @@
       <c r="E205" s="10">
         <v>419.08</v>
       </c>
-      <c r="F205" s="22">
-        <v>7</v>
-      </c>
-      <c r="G205" s="11">
-        <v>0</v>
-      </c>
+      <c r="F205" s="22"/>
+      <c r="G205" s="11"/>
       <c r="H205" s="6"/>
       <c r="I205" s="6"/>
       <c r="J205" s="6"/>
@@ -8841,13 +8082,13 @@
     </row>
     <row r="206" spans="1:22" ht="14.25" customHeight="1">
       <c r="A206" s="2" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="B206" s="23">
         <v>537</v>
       </c>
       <c r="C206" s="24" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="D206" s="9">
         <v>38140</v>
@@ -8855,12 +8096,8 @@
       <c r="E206" s="10">
         <v>420.06</v>
       </c>
-      <c r="F206" s="22">
-        <v>7</v>
-      </c>
-      <c r="G206" s="11">
-        <v>0</v>
-      </c>
+      <c r="F206" s="22"/>
+      <c r="G206" s="11"/>
       <c r="H206" s="6"/>
       <c r="I206" s="6"/>
       <c r="J206" s="6"/>
@@ -8879,13 +8116,13 @@
     </row>
     <row r="207" spans="1:22" ht="14.25" customHeight="1">
       <c r="A207" s="2" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="B207" s="7">
         <v>289</v>
       </c>
       <c r="C207" s="8" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="D207" s="9">
         <v>38129</v>
@@ -8893,12 +8130,8 @@
       <c r="E207" s="10">
         <v>1517.21</v>
       </c>
-      <c r="F207" s="22">
-        <v>7</v>
-      </c>
-      <c r="G207" s="11">
-        <v>0</v>
-      </c>
+      <c r="F207" s="22"/>
+      <c r="G207" s="11"/>
       <c r="H207" s="6"/>
       <c r="I207" s="6"/>
       <c r="J207" s="6"/>
@@ -8917,13 +8150,13 @@
     </row>
     <row r="208" spans="1:22" ht="14.25" customHeight="1">
       <c r="A208" s="2" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="B208" s="23">
         <v>538</v>
       </c>
       <c r="C208" s="24" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="D208" s="9">
         <v>38129</v>
@@ -8931,12 +8164,8 @@
       <c r="E208" s="10">
         <v>1517.21</v>
       </c>
-      <c r="F208" s="22">
-        <v>7</v>
-      </c>
-      <c r="G208" s="11">
-        <v>0</v>
-      </c>
+      <c r="F208" s="22"/>
+      <c r="G208" s="11"/>
       <c r="H208" s="6"/>
       <c r="I208" s="6"/>
       <c r="J208" s="6"/>
@@ -8955,13 +8184,13 @@
     </row>
     <row r="209" spans="1:22" ht="14.25" customHeight="1">
       <c r="A209" s="2" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="B209" s="23">
         <v>539</v>
       </c>
       <c r="C209" s="24" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="D209" s="9">
         <v>38129</v>
@@ -8969,12 +8198,8 @@
       <c r="E209" s="10">
         <v>1517.22</v>
       </c>
-      <c r="F209" s="22">
-        <v>7</v>
-      </c>
-      <c r="G209" s="11">
-        <v>0</v>
-      </c>
+      <c r="F209" s="22"/>
+      <c r="G209" s="11"/>
       <c r="H209" s="6"/>
       <c r="I209" s="6"/>
       <c r="J209" s="6"/>
@@ -8993,13 +8218,13 @@
     </row>
     <row r="210" spans="1:22" ht="14.25" customHeight="1">
       <c r="A210" s="2" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="B210" s="7">
         <v>304</v>
       </c>
       <c r="C210" s="8" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="D210" s="9">
         <v>38558</v>
@@ -9007,12 +8232,8 @@
       <c r="E210" s="10">
         <v>2668.02</v>
       </c>
-      <c r="F210" s="22">
-        <v>7</v>
-      </c>
-      <c r="G210" s="11">
-        <v>0</v>
-      </c>
+      <c r="F210" s="22"/>
+      <c r="G210" s="11"/>
       <c r="H210" s="6"/>
       <c r="I210" s="6"/>
       <c r="J210" s="6"/>
@@ -9031,13 +8252,13 @@
     </row>
     <row r="211" spans="1:22" ht="14.25" customHeight="1">
       <c r="A211" s="2" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="B211" s="7">
         <v>327</v>
       </c>
       <c r="C211" s="8" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="D211" s="9">
         <v>39553</v>
@@ -9045,12 +8266,8 @@
       <c r="E211" s="10">
         <v>3849.54</v>
       </c>
-      <c r="F211" s="22">
-        <v>7</v>
-      </c>
-      <c r="G211" s="11">
-        <v>0</v>
-      </c>
+      <c r="F211" s="22"/>
+      <c r="G211" s="11"/>
       <c r="H211" s="6"/>
       <c r="I211" s="6"/>
       <c r="J211" s="6"/>
@@ -9069,13 +8286,13 @@
     </row>
     <row r="212" spans="1:22" ht="14.25" customHeight="1">
       <c r="A212" s="2" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="B212" s="7">
         <v>343</v>
       </c>
       <c r="C212" s="8" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="D212" s="9">
         <v>40093</v>
@@ -9083,12 +8300,8 @@
       <c r="E212" s="10">
         <v>10506.14</v>
       </c>
-      <c r="F212" s="22">
-        <v>7</v>
-      </c>
-      <c r="G212" s="11">
-        <v>0</v>
-      </c>
+      <c r="F212" s="22"/>
+      <c r="G212" s="11"/>
       <c r="H212" s="6"/>
       <c r="I212" s="6"/>
       <c r="J212" s="6"/>
@@ -9107,13 +8320,13 @@
     </row>
     <row r="213" spans="1:22" ht="14.25" customHeight="1">
       <c r="A213" s="2" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="B213" s="7">
         <v>97</v>
       </c>
       <c r="C213" s="8" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="D213" s="9">
         <v>34795</v>
@@ -9121,12 +8334,8 @@
       <c r="E213" s="10">
         <v>2438.4</v>
       </c>
-      <c r="F213" s="10">
-        <v>7</v>
-      </c>
-      <c r="G213" s="11">
-        <v>0</v>
-      </c>
+      <c r="F213" s="10"/>
+      <c r="G213" s="11"/>
       <c r="H213" s="6"/>
       <c r="I213" s="6"/>
       <c r="J213" s="6"/>
@@ -9145,13 +8354,13 @@
     </row>
     <row r="214" spans="1:22" ht="14.25" customHeight="1">
       <c r="A214" s="2" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="B214" s="7">
         <v>194</v>
       </c>
       <c r="C214" s="8" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="D214" s="9">
         <v>37025</v>
@@ -9159,12 +8368,8 @@
       <c r="E214" s="10">
         <v>25635.759999999998</v>
       </c>
-      <c r="F214" s="10">
-        <v>7</v>
-      </c>
-      <c r="G214" s="11">
-        <v>0</v>
-      </c>
+      <c r="F214" s="10"/>
+      <c r="G214" s="11"/>
       <c r="H214" s="6"/>
       <c r="I214" s="6"/>
       <c r="J214" s="6"/>
@@ -9183,13 +8388,13 @@
     </row>
     <row r="215" spans="1:22" ht="14.25" customHeight="1">
       <c r="A215" s="2" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="B215" s="7">
         <v>229</v>
       </c>
       <c r="C215" s="8" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="D215" s="9">
         <v>37260</v>
@@ -9197,12 +8402,8 @@
       <c r="E215" s="10">
         <v>26235.74</v>
       </c>
-      <c r="F215" s="10">
-        <v>7</v>
-      </c>
-      <c r="G215" s="11">
-        <v>0</v>
-      </c>
+      <c r="F215" s="10"/>
+      <c r="G215" s="11"/>
       <c r="H215" s="6"/>
       <c r="I215" s="6"/>
       <c r="J215" s="6"/>
@@ -9221,13 +8422,13 @@
     </row>
     <row r="216" spans="1:22" ht="14.25" customHeight="1">
       <c r="A216" s="2" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="B216" s="7">
         <v>300</v>
       </c>
       <c r="C216" s="8" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="D216" s="9">
         <v>38504</v>
@@ -9235,12 +8436,8 @@
       <c r="E216" s="10">
         <v>15250.45</v>
       </c>
-      <c r="F216" s="10">
-        <v>15</v>
-      </c>
-      <c r="G216" s="10">
-        <v>2287.5500000000002</v>
-      </c>
+      <c r="F216" s="10"/>
+      <c r="G216" s="10"/>
       <c r="H216" s="12"/>
       <c r="I216" s="6"/>
       <c r="J216" s="6"/>
@@ -9259,13 +8456,13 @@
     </row>
     <row r="217" spans="1:22" ht="14.25" customHeight="1">
       <c r="A217" s="2" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="B217" s="7">
         <v>308</v>
       </c>
       <c r="C217" s="8" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="D217" s="9">
         <v>38869</v>
@@ -9273,12 +8470,8 @@
       <c r="E217" s="10">
         <v>81163.33</v>
       </c>
-      <c r="F217" s="10">
-        <v>15</v>
-      </c>
-      <c r="G217" s="10">
-        <v>29759.88</v>
-      </c>
+      <c r="F217" s="10"/>
+      <c r="G217" s="10"/>
       <c r="H217" s="12"/>
       <c r="I217" s="6"/>
       <c r="J217" s="6"/>
@@ -9297,13 +8490,13 @@
     </row>
     <row r="218" spans="1:22" ht="14.25" customHeight="1">
       <c r="A218" s="2" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="B218" s="7">
         <v>317</v>
       </c>
       <c r="C218" s="8" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="D218" s="9">
         <v>39295</v>
@@ -9311,12 +8504,8 @@
       <c r="E218" s="10">
         <v>9734.16</v>
       </c>
-      <c r="F218" s="10">
-        <v>15</v>
-      </c>
-      <c r="G218" s="10">
-        <v>4218.17</v>
-      </c>
+      <c r="F218" s="10"/>
+      <c r="G218" s="10"/>
       <c r="H218" s="12"/>
       <c r="I218" s="6"/>
       <c r="J218" s="6"/>
@@ -9335,13 +8524,13 @@
     </row>
     <row r="219" spans="1:22" ht="14.25" customHeight="1">
       <c r="A219" s="2" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="B219" s="7">
         <v>346</v>
       </c>
       <c r="C219" s="8" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="D219" s="9">
         <v>40137</v>
@@ -9349,12 +8538,8 @@
       <c r="E219" s="10">
         <v>4382.62</v>
       </c>
-      <c r="F219" s="10">
-        <v>15</v>
-      </c>
-      <c r="G219" s="10">
-        <v>1241.73</v>
-      </c>
+      <c r="F219" s="10"/>
+      <c r="G219" s="10"/>
       <c r="H219" s="12"/>
       <c r="I219" s="6"/>
       <c r="J219" s="6"/>
@@ -9373,13 +8558,13 @@
     </row>
     <row r="220" spans="1:22" ht="14.25" customHeight="1">
       <c r="A220" s="2" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="B220" s="7">
         <v>347</v>
       </c>
       <c r="C220" s="8" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="D220" s="9">
         <v>40148</v>
@@ -9387,12 +8572,8 @@
       <c r="E220" s="10">
         <v>2181.48</v>
       </c>
-      <c r="F220" s="10">
-        <v>15</v>
-      </c>
-      <c r="G220" s="11">
-        <v>618.05999999999995</v>
-      </c>
+      <c r="F220" s="10"/>
+      <c r="G220" s="11"/>
       <c r="H220" s="6"/>
       <c r="I220" s="6"/>
       <c r="J220" s="6"/>
@@ -9411,13 +8592,13 @@
     </row>
     <row r="221" spans="1:22" ht="14.25" customHeight="1">
       <c r="A221" s="2" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="B221" s="7">
         <v>348</v>
       </c>
       <c r="C221" s="8" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="D221" s="9">
         <v>40129</v>
@@ -9425,12 +8606,8 @@
       <c r="E221" s="28">
         <v>8750</v>
       </c>
-      <c r="F221" s="10">
-        <v>15</v>
-      </c>
-      <c r="G221" s="20">
-        <v>2479.15</v>
-      </c>
+      <c r="F221" s="10"/>
+      <c r="G221" s="20"/>
       <c r="H221" s="12"/>
       <c r="I221" s="6"/>
       <c r="J221" s="6"/>
@@ -9449,13 +8626,13 @@
     </row>
     <row r="222" spans="1:22" ht="14.25" customHeight="1">
       <c r="A222" s="2" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="B222" s="7">
         <v>345</v>
       </c>
       <c r="C222" s="8" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="D222" s="9">
         <v>40119</v>
@@ -9463,12 +8640,8 @@
       <c r="E222" s="10">
         <v>16056.24</v>
       </c>
-      <c r="F222" s="22">
-        <v>7</v>
-      </c>
-      <c r="G222" s="11">
-        <v>0</v>
-      </c>
+      <c r="F222" s="22"/>
+      <c r="G222" s="11"/>
       <c r="H222" s="6"/>
       <c r="I222" s="6"/>
       <c r="J222" s="6"/>

--- a/SpecsProject/Excel/Inventory_Project_SpecificationsV2.xlsx
+++ b/SpecsProject/Excel/Inventory_Project_SpecificationsV2.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Zelos\Documents\GitHub\SpecsProject\SpecsProject\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Steven J\git\SpecsProjectGIT\SpecsProject\SpecsProject\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17970" windowHeight="5655"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17976" windowHeight="5652"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="465" uniqueCount="203">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="466" uniqueCount="204">
   <si>
     <t>Item_Name</t>
   </si>
@@ -633,6 +633,9 @@
   </si>
   <si>
     <t>Warranty_Expiration_Date</t>
+  </si>
+  <si>
+    <t>Expiration_Date</t>
   </si>
 </sst>
 </file>
@@ -710,7 +713,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -740,6 +743,7 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1020,21 +1024,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:W223"/>
+  <dimension ref="A1:X223"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q1" sqref="Q1"/>
+    <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
+      <selection activeCell="AC26" sqref="AC26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="21.5703125" customWidth="1"/>
-    <col min="2" max="2" width="13.7109375" customWidth="1"/>
-    <col min="3" max="3" width="9.140625" customWidth="1"/>
-    <col min="7" max="7" width="9.140625" customWidth="1"/>
+    <col min="1" max="1" width="21.5546875" customWidth="1"/>
+    <col min="2" max="2" width="13.6640625" customWidth="1"/>
+    <col min="3" max="3" width="9.109375" customWidth="1"/>
+    <col min="7" max="7" width="9.109375" customWidth="1"/>
+    <col min="23" max="24" width="9.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" s="1" customFormat="1" ht="14.25" customHeight="1">
+    <row r="1" spans="1:24" s="1" customFormat="1" ht="14.25" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1104,8 +1109,11 @@
       <c r="W1" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="4" spans="1:23">
+      <c r="X1" s="3" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="4" spans="1:24">
       <c r="A4" s="5" t="s">
         <v>9</v>
       </c>
@@ -1121,8 +1129,12 @@
       <c r="U4" s="14">
         <v>1074.56</v>
       </c>
-    </row>
-    <row r="5" spans="1:23">
+      <c r="W4" s="17"/>
+      <c r="X4" s="17">
+        <v>43115</v>
+      </c>
+    </row>
+    <row r="5" spans="1:24">
       <c r="A5" s="5" t="s">
         <v>10</v>
       </c>
@@ -1139,7 +1151,7 @@
         <v>1074.56</v>
       </c>
     </row>
-    <row r="6" spans="1:23">
+    <row r="6" spans="1:24">
       <c r="A6" s="5" t="s">
         <v>11</v>
       </c>
@@ -1156,7 +1168,7 @@
         <v>4845.93</v>
       </c>
     </row>
-    <row r="7" spans="1:23">
+    <row r="7" spans="1:24">
       <c r="A7" s="5" t="s">
         <v>12</v>
       </c>
@@ -1173,7 +1185,7 @@
         <v>365.7</v>
       </c>
     </row>
-    <row r="8" spans="1:23">
+    <row r="8" spans="1:24">
       <c r="A8" s="5" t="s">
         <v>13</v>
       </c>
@@ -1190,7 +1202,7 @@
         <v>333.9</v>
       </c>
     </row>
-    <row r="9" spans="1:23">
+    <row r="9" spans="1:24">
       <c r="A9" s="5" t="s">
         <v>14</v>
       </c>
@@ -1207,7 +1219,7 @@
         <v>524.70000000000005</v>
       </c>
     </row>
-    <row r="10" spans="1:23">
+    <row r="10" spans="1:24">
       <c r="A10" s="5" t="s">
         <v>15</v>
       </c>
@@ -1224,7 +1236,7 @@
         <v>1134.2</v>
       </c>
     </row>
-    <row r="11" spans="1:23">
+    <row r="11" spans="1:24">
       <c r="A11" s="5" t="s">
         <v>16</v>
       </c>
@@ -1241,7 +1253,7 @@
         <v>524.70000000000005</v>
       </c>
     </row>
-    <row r="12" spans="1:23">
+    <row r="12" spans="1:24">
       <c r="A12" s="5" t="s">
         <v>17</v>
       </c>
@@ -1258,7 +1270,7 @@
         <v>365.7</v>
       </c>
     </row>
-    <row r="13" spans="1:23">
+    <row r="13" spans="1:24">
       <c r="A13" s="5" t="s">
         <v>18</v>
       </c>
@@ -1275,7 +1287,7 @@
         <v>524.70000000000005</v>
       </c>
     </row>
-    <row r="14" spans="1:23">
+    <row r="14" spans="1:24">
       <c r="A14" s="5" t="s">
         <v>19</v>
       </c>
@@ -1292,7 +1304,7 @@
         <v>524.70000000000005</v>
       </c>
     </row>
-    <row r="15" spans="1:23">
+    <row r="15" spans="1:24">
       <c r="A15" s="5" t="s">
         <v>20</v>
       </c>
@@ -1309,7 +1321,7 @@
         <v>1317.58</v>
       </c>
     </row>
-    <row r="16" spans="1:23">
+    <row r="16" spans="1:24">
       <c r="A16" s="5" t="s">
         <v>21</v>
       </c>
@@ -1325,8 +1337,12 @@
       <c r="U16" s="14">
         <v>318</v>
       </c>
-    </row>
-    <row r="17" spans="1:21">
+      <c r="W16" s="17"/>
+      <c r="X16" s="17">
+        <v>43508</v>
+      </c>
+    </row>
+    <row r="17" spans="1:24">
       <c r="A17" s="5" t="s">
         <v>22</v>
       </c>
@@ -1343,7 +1359,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="18" spans="1:21">
+    <row r="18" spans="1:24">
       <c r="A18" s="5" t="s">
         <v>23</v>
       </c>
@@ -1360,7 +1376,7 @@
         <v>1590</v>
       </c>
     </row>
-    <row r="19" spans="1:21">
+    <row r="19" spans="1:24">
       <c r="A19" s="5" t="s">
         <v>24</v>
       </c>
@@ -1377,7 +1393,7 @@
         <v>519.4</v>
       </c>
     </row>
-    <row r="20" spans="1:21">
+    <row r="20" spans="1:24">
       <c r="A20" s="5" t="s">
         <v>25</v>
       </c>
@@ -1394,7 +1410,7 @@
         <v>1054.7</v>
       </c>
     </row>
-    <row r="21" spans="1:21">
+    <row r="21" spans="1:24">
       <c r="A21" s="5" t="s">
         <v>26</v>
       </c>
@@ -1410,8 +1426,12 @@
       <c r="U21" s="14">
         <v>318</v>
       </c>
-    </row>
-    <row r="22" spans="1:21">
+      <c r="W21" s="17"/>
+      <c r="X21" s="17">
+        <v>44270</v>
+      </c>
+    </row>
+    <row r="22" spans="1:24">
       <c r="A22" s="5" t="s">
         <v>27</v>
       </c>
@@ -1428,7 +1448,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="23" spans="1:21">
+    <row r="23" spans="1:24">
       <c r="A23" s="5" t="s">
         <v>28</v>
       </c>
@@ -1445,7 +1465,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="24" spans="1:21">
+    <row r="24" spans="1:24">
       <c r="A24" s="5" t="s">
         <v>29</v>
       </c>
@@ -1462,7 +1482,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="25" spans="1:21">
+    <row r="25" spans="1:24">
       <c r="A25" s="5" t="s">
         <v>30</v>
       </c>
@@ -1479,7 +1499,7 @@
         <v>333.9</v>
       </c>
     </row>
-    <row r="26" spans="1:21">
+    <row r="26" spans="1:24">
       <c r="A26" s="5" t="s">
         <v>31</v>
       </c>
@@ -1496,7 +1516,7 @@
         <v>333.9</v>
       </c>
     </row>
-    <row r="27" spans="1:21">
+    <row r="27" spans="1:24">
       <c r="A27" s="5" t="s">
         <v>32</v>
       </c>
@@ -1513,7 +1533,7 @@
         <v>365.7</v>
       </c>
     </row>
-    <row r="28" spans="1:21" ht="15.75" thickBot="1">
+    <row r="28" spans="1:24" ht="15" thickBot="1">
       <c r="A28" s="5" t="s">
         <v>33</v>
       </c>
@@ -1530,7 +1550,7 @@
         <v>524.70000000000005</v>
       </c>
     </row>
-    <row r="29" spans="1:21" ht="16.5" thickBot="1">
+    <row r="29" spans="1:24" ht="16.2" thickBot="1">
       <c r="A29" s="5" t="s">
         <v>34</v>
       </c>
@@ -1547,7 +1567,7 @@
         <v>208.95</v>
       </c>
     </row>
-    <row r="30" spans="1:21" ht="16.5" thickBot="1">
+    <row r="30" spans="1:24" ht="16.2" thickBot="1">
       <c r="A30" s="6" t="s">
         <v>35</v>
       </c>
@@ -1563,8 +1583,12 @@
       <c r="U30" s="14">
         <v>901.69</v>
       </c>
-    </row>
-    <row r="31" spans="1:21" ht="16.5" thickBot="1">
+      <c r="W30" s="17"/>
+      <c r="X30" s="17">
+        <v>44390</v>
+      </c>
+    </row>
+    <row r="31" spans="1:24" ht="16.2" thickBot="1">
       <c r="A31" s="5" t="s">
         <v>36</v>
       </c>
@@ -1581,7 +1605,7 @@
         <v>312.7</v>
       </c>
     </row>
-    <row r="32" spans="1:21" ht="16.5" thickBot="1">
+    <row r="32" spans="1:24" ht="16.2" thickBot="1">
       <c r="A32" s="5" t="s">
         <v>37</v>
       </c>
@@ -1598,7 +1622,7 @@
         <v>263.94</v>
       </c>
     </row>
-    <row r="33" spans="1:21" ht="16.5" thickBot="1">
+    <row r="33" spans="1:24" ht="16.2" thickBot="1">
       <c r="A33" s="5" t="s">
         <v>38</v>
       </c>
@@ -1615,7 +1639,7 @@
         <v>147.34</v>
       </c>
     </row>
-    <row r="34" spans="1:21" ht="16.5" thickBot="1">
+    <row r="34" spans="1:24" ht="16.2" thickBot="1">
       <c r="A34" s="5" t="s">
         <v>39</v>
       </c>
@@ -1632,7 +1656,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="35" spans="1:21" ht="16.5" thickBot="1">
+    <row r="35" spans="1:24" ht="16.2" thickBot="1">
       <c r="A35" s="5" t="s">
         <v>40</v>
       </c>
@@ -1648,8 +1672,12 @@
       <c r="U35" s="14">
         <v>764.96</v>
       </c>
-    </row>
-    <row r="36" spans="1:21" ht="16.5" thickBot="1">
+      <c r="W35" s="17"/>
+      <c r="X35" s="17">
+        <v>43515</v>
+      </c>
+    </row>
+    <row r="36" spans="1:24" ht="16.2" thickBot="1">
       <c r="A36" s="5" t="s">
         <v>41</v>
       </c>
@@ -1666,7 +1694,7 @@
         <v>4817.43</v>
       </c>
     </row>
-    <row r="37" spans="1:21" ht="16.5" thickBot="1">
+    <row r="37" spans="1:24" ht="16.2" thickBot="1">
       <c r="A37" s="5" t="s">
         <v>42</v>
       </c>
@@ -1683,7 +1711,7 @@
         <v>1598.87</v>
       </c>
     </row>
-    <row r="38" spans="1:21" ht="16.5" thickBot="1">
+    <row r="38" spans="1:24" ht="16.2" thickBot="1">
       <c r="A38" s="5" t="s">
         <v>43</v>
       </c>
@@ -1700,7 +1728,7 @@
         <v>1598.77</v>
       </c>
     </row>
-    <row r="39" spans="1:21" ht="16.5" thickBot="1">
+    <row r="39" spans="1:24" ht="16.2" thickBot="1">
       <c r="A39" s="5" t="s">
         <v>44</v>
       </c>
@@ -1717,7 +1745,7 @@
         <v>4774.24</v>
       </c>
     </row>
-    <row r="40" spans="1:21" ht="16.5" thickBot="1">
+    <row r="40" spans="1:24" ht="16.2" thickBot="1">
       <c r="A40" s="5" t="s">
         <v>45</v>
       </c>
@@ -1734,7 +1762,7 @@
         <v>845.88</v>
       </c>
     </row>
-    <row r="41" spans="1:21" ht="16.5" thickBot="1">
+    <row r="41" spans="1:24" ht="16.2" thickBot="1">
       <c r="A41" s="5" t="s">
         <v>46</v>
       </c>
@@ -1751,7 +1779,7 @@
         <v>2189.5</v>
       </c>
     </row>
-    <row r="42" spans="1:21" ht="16.5" thickBot="1">
+    <row r="42" spans="1:24" ht="16.2" thickBot="1">
       <c r="A42" s="5" t="s">
         <v>47</v>
       </c>
@@ -1768,7 +1796,7 @@
         <v>563.91999999999996</v>
       </c>
     </row>
-    <row r="43" spans="1:21" ht="16.5" thickBot="1">
+    <row r="43" spans="1:24" ht="16.2" thickBot="1">
       <c r="A43" s="5" t="s">
         <v>47</v>
       </c>
@@ -1784,8 +1812,12 @@
       <c r="U43" s="14">
         <v>4803.13</v>
       </c>
-    </row>
-    <row r="44" spans="1:21" ht="16.5" thickBot="1">
+      <c r="W43" s="17"/>
+      <c r="X43" s="17">
+        <v>43690</v>
+      </c>
+    </row>
+    <row r="44" spans="1:24" ht="16.2" thickBot="1">
       <c r="A44" s="5" t="s">
         <v>48</v>
       </c>
@@ -1802,7 +1834,7 @@
         <v>1190</v>
       </c>
     </row>
-    <row r="45" spans="1:21" ht="16.5" thickBot="1">
+    <row r="45" spans="1:24" ht="16.2" thickBot="1">
       <c r="A45" s="5" t="s">
         <v>49</v>
       </c>
@@ -1819,7 +1851,7 @@
         <v>1794.17</v>
       </c>
     </row>
-    <row r="46" spans="1:21" ht="16.5" thickBot="1">
+    <row r="46" spans="1:24" ht="16.2" thickBot="1">
       <c r="A46" s="5" t="s">
         <v>50</v>
       </c>
@@ -1836,7 +1868,7 @@
         <v>1568.5</v>
       </c>
     </row>
-    <row r="47" spans="1:21" ht="16.5" thickBot="1">
+    <row r="47" spans="1:24" ht="16.2" thickBot="1">
       <c r="A47" s="5" t="s">
         <v>51</v>
       </c>
@@ -1853,7 +1885,7 @@
         <v>1314.4</v>
       </c>
     </row>
-    <row r="48" spans="1:21" ht="16.5" thickBot="1">
+    <row r="48" spans="1:24" ht="16.2" thickBot="1">
       <c r="A48" s="5" t="s">
         <v>52</v>
       </c>
@@ -1870,7 +1902,7 @@
         <v>1647.24</v>
       </c>
     </row>
-    <row r="49" spans="1:21" ht="16.5" thickBot="1">
+    <row r="49" spans="1:24" ht="16.2" thickBot="1">
       <c r="A49" s="5" t="s">
         <v>53</v>
       </c>
@@ -1887,7 +1919,7 @@
         <v>5342.4</v>
       </c>
     </row>
-    <row r="50" spans="1:21" ht="16.5" thickBot="1">
+    <row r="50" spans="1:24" ht="16.2" thickBot="1">
       <c r="A50" s="5" t="s">
         <v>54</v>
       </c>
@@ -1904,7 +1936,7 @@
         <v>6824.28</v>
       </c>
     </row>
-    <row r="51" spans="1:21" ht="16.5" thickBot="1">
+    <row r="51" spans="1:24" ht="16.2" thickBot="1">
       <c r="A51" s="5" t="s">
         <v>55</v>
       </c>
@@ -1921,7 +1953,7 @@
         <v>2117.6</v>
       </c>
     </row>
-    <row r="52" spans="1:21" ht="16.5" thickBot="1">
+    <row r="52" spans="1:24" ht="16.2" thickBot="1">
       <c r="A52" s="5" t="s">
         <v>53</v>
       </c>
@@ -1938,7 +1970,7 @@
         <v>2423.6</v>
       </c>
     </row>
-    <row r="53" spans="1:21" ht="16.5" thickBot="1">
+    <row r="53" spans="1:24" ht="16.2" thickBot="1">
       <c r="A53" s="5" t="s">
         <v>56</v>
       </c>
@@ -1955,7 +1987,7 @@
         <v>1490</v>
       </c>
     </row>
-    <row r="54" spans="1:21" ht="16.5" thickBot="1">
+    <row r="54" spans="1:24" ht="16.2" thickBot="1">
       <c r="A54" s="5" t="s">
         <v>57</v>
       </c>
@@ -1972,7 +2004,7 @@
         <v>200.34</v>
       </c>
     </row>
-    <row r="55" spans="1:21" ht="16.5" thickBot="1">
+    <row r="55" spans="1:24" ht="16.2" thickBot="1">
       <c r="A55" s="5" t="s">
         <v>58</v>
       </c>
@@ -1989,7 +2021,7 @@
         <v>1240.2</v>
       </c>
     </row>
-    <row r="56" spans="1:21" ht="16.5" thickBot="1">
+    <row r="56" spans="1:24" ht="16.2" thickBot="1">
       <c r="A56" s="5" t="s">
         <v>59</v>
       </c>
@@ -2006,7 +2038,7 @@
         <v>1234.9000000000001</v>
       </c>
     </row>
-    <row r="57" spans="1:21" ht="16.5" thickBot="1">
+    <row r="57" spans="1:24" ht="16.2" thickBot="1">
       <c r="A57" s="5" t="s">
         <v>60</v>
       </c>
@@ -2023,7 +2055,7 @@
         <v>1523.22</v>
       </c>
     </row>
-    <row r="58" spans="1:21" ht="16.5" thickBot="1">
+    <row r="58" spans="1:24" ht="16.2" thickBot="1">
       <c r="A58" s="5" t="s">
         <v>60</v>
       </c>
@@ -2040,7 +2072,7 @@
         <v>2779.85</v>
       </c>
     </row>
-    <row r="59" spans="1:21" ht="16.5" thickBot="1">
+    <row r="59" spans="1:24" ht="16.2" thickBot="1">
       <c r="A59" s="5" t="s">
         <v>61</v>
       </c>
@@ -2057,7 +2089,7 @@
         <v>1968.42</v>
       </c>
     </row>
-    <row r="60" spans="1:21" ht="16.5" thickBot="1">
+    <row r="60" spans="1:24" ht="16.2" thickBot="1">
       <c r="A60" s="5" t="s">
         <v>62</v>
       </c>
@@ -2074,7 +2106,7 @@
         <v>1796</v>
       </c>
     </row>
-    <row r="61" spans="1:21" ht="16.5" thickBot="1">
+    <row r="61" spans="1:24" ht="16.2" thickBot="1">
       <c r="A61" s="5" t="s">
         <v>63</v>
       </c>
@@ -2090,8 +2122,12 @@
       <c r="U61" s="14">
         <v>2201.12</v>
       </c>
-    </row>
-    <row r="62" spans="1:21" ht="16.5" thickBot="1">
+      <c r="W61" s="17"/>
+      <c r="X61" s="17">
+        <v>42259</v>
+      </c>
+    </row>
+    <row r="62" spans="1:24" ht="16.2" thickBot="1">
       <c r="A62" s="5" t="s">
         <v>64</v>
       </c>
@@ -2108,7 +2144,7 @@
         <v>1896.34</v>
       </c>
     </row>
-    <row r="63" spans="1:21" ht="16.5" thickBot="1">
+    <row r="63" spans="1:24" ht="16.2" thickBot="1">
       <c r="A63" s="5" t="s">
         <v>65</v>
       </c>
@@ -2125,7 +2161,7 @@
         <v>3051.69</v>
       </c>
     </row>
-    <row r="64" spans="1:21" ht="16.5" thickBot="1">
+    <row r="64" spans="1:24" ht="16.2" thickBot="1">
       <c r="A64" s="5" t="s">
         <v>66</v>
       </c>
@@ -2142,7 +2178,7 @@
         <v>2169.81</v>
       </c>
     </row>
-    <row r="65" spans="1:21" ht="16.5" thickBot="1">
+    <row r="65" spans="1:21" ht="16.2" thickBot="1">
       <c r="A65" s="5" t="s">
         <v>67</v>
       </c>
@@ -2159,7 +2195,7 @@
         <v>2134.31</v>
       </c>
     </row>
-    <row r="66" spans="1:21" ht="16.5" thickBot="1">
+    <row r="66" spans="1:21" ht="16.2" thickBot="1">
       <c r="A66" s="5" t="s">
         <v>68</v>
       </c>
@@ -2176,7 +2212,7 @@
         <v>2056.4</v>
       </c>
     </row>
-    <row r="67" spans="1:21" ht="16.5" thickBot="1">
+    <row r="67" spans="1:21" ht="16.2" thickBot="1">
       <c r="A67" s="5" t="s">
         <v>69</v>
       </c>
@@ -2193,7 +2229,7 @@
         <v>803.48</v>
       </c>
     </row>
-    <row r="68" spans="1:21" ht="16.5" thickBot="1">
+    <row r="68" spans="1:21" ht="16.2" thickBot="1">
       <c r="A68" s="5" t="s">
         <v>70</v>
       </c>
@@ -2210,7 +2246,7 @@
         <v>1641.94</v>
       </c>
     </row>
-    <row r="69" spans="1:21" ht="16.5" thickBot="1">
+    <row r="69" spans="1:21" ht="16.2" thickBot="1">
       <c r="A69" s="5" t="s">
         <v>70</v>
       </c>
@@ -2227,7 +2263,7 @@
         <v>1817.37</v>
       </c>
     </row>
-    <row r="70" spans="1:21" ht="16.5" thickBot="1">
+    <row r="70" spans="1:21" ht="16.2" thickBot="1">
       <c r="A70" s="5" t="s">
         <v>71</v>
       </c>
@@ -2244,7 +2280,7 @@
         <v>1206.68</v>
       </c>
     </row>
-    <row r="71" spans="1:21" ht="16.5" thickBot="1">
+    <row r="71" spans="1:21" ht="16.2" thickBot="1">
       <c r="A71" s="5" t="s">
         <v>71</v>
       </c>
@@ -2261,7 +2297,7 @@
         <v>1241.26</v>
       </c>
     </row>
-    <row r="72" spans="1:21" ht="16.5" thickBot="1">
+    <row r="72" spans="1:21" ht="16.2" thickBot="1">
       <c r="A72" s="5" t="s">
         <v>71</v>
       </c>
@@ -2278,7 +2314,7 @@
         <v>1206.68</v>
       </c>
     </row>
-    <row r="73" spans="1:21" ht="16.5" thickBot="1">
+    <row r="73" spans="1:21" ht="16.2" thickBot="1">
       <c r="A73" s="5" t="s">
         <v>71</v>
       </c>
@@ -2295,7 +2331,7 @@
         <v>1206.68</v>
       </c>
     </row>
-    <row r="74" spans="1:21" ht="16.5" thickBot="1">
+    <row r="74" spans="1:21" ht="16.2" thickBot="1">
       <c r="A74" s="5" t="s">
         <v>71</v>
       </c>
@@ -2312,7 +2348,7 @@
         <v>1206.67</v>
       </c>
     </row>
-    <row r="75" spans="1:21" ht="16.5" thickBot="1">
+    <row r="75" spans="1:21" ht="16.2" thickBot="1">
       <c r="A75" s="5" t="s">
         <v>71</v>
       </c>
@@ -2329,7 +2365,7 @@
         <v>1403.97</v>
       </c>
     </row>
-    <row r="76" spans="1:21" ht="16.5" thickBot="1">
+    <row r="76" spans="1:21" ht="16.2" thickBot="1">
       <c r="A76" s="5" t="s">
         <v>72</v>
       </c>
@@ -2346,7 +2382,7 @@
         <v>1338.62</v>
       </c>
     </row>
-    <row r="77" spans="1:21" ht="16.5" thickBot="1">
+    <row r="77" spans="1:21" ht="16.2" thickBot="1">
       <c r="A77" s="5" t="s">
         <v>73</v>
       </c>
@@ -2363,7 +2399,7 @@
         <v>1247.6199999999999</v>
       </c>
     </row>
-    <row r="78" spans="1:21" ht="16.5" thickBot="1">
+    <row r="78" spans="1:21" ht="16.2" thickBot="1">
       <c r="A78" s="5" t="s">
         <v>73</v>
       </c>
@@ -2380,7 +2416,7 @@
         <v>1247.6199999999999</v>
       </c>
     </row>
-    <row r="79" spans="1:21" ht="16.5" thickBot="1">
+    <row r="79" spans="1:21" ht="16.2" thickBot="1">
       <c r="A79" s="5" t="s">
         <v>73</v>
       </c>
@@ -2397,7 +2433,7 @@
         <v>1247.6199999999999</v>
       </c>
     </row>
-    <row r="80" spans="1:21" ht="16.5" thickBot="1">
+    <row r="80" spans="1:21" ht="16.2" thickBot="1">
       <c r="A80" s="5" t="s">
         <v>73</v>
       </c>
@@ -2414,7 +2450,7 @@
         <v>1247.6199999999999</v>
       </c>
     </row>
-    <row r="81" spans="1:21" ht="16.5" thickBot="1">
+    <row r="81" spans="1:21" ht="16.2" thickBot="1">
       <c r="A81" s="5" t="s">
         <v>73</v>
       </c>
@@ -2431,7 +2467,7 @@
         <v>1247.6199999999999</v>
       </c>
     </row>
-    <row r="82" spans="1:21" ht="16.5" thickBot="1">
+    <row r="82" spans="1:21" ht="16.2" thickBot="1">
       <c r="A82" s="5" t="s">
         <v>73</v>
       </c>
@@ -2448,7 +2484,7 @@
         <v>1247.6199999999999</v>
       </c>
     </row>
-    <row r="83" spans="1:21" ht="16.5" thickBot="1">
+    <row r="83" spans="1:21" ht="16.2" thickBot="1">
       <c r="A83" s="5" t="s">
         <v>74</v>
       </c>
@@ -2465,7 +2501,7 @@
         <v>1343.72</v>
       </c>
     </row>
-    <row r="84" spans="1:21" ht="16.5" thickBot="1">
+    <row r="84" spans="1:21" ht="16.2" thickBot="1">
       <c r="A84" s="5" t="s">
         <v>74</v>
       </c>
@@ -2482,7 +2518,7 @@
         <v>1343.72</v>
       </c>
     </row>
-    <row r="85" spans="1:21" ht="16.5" thickBot="1">
+    <row r="85" spans="1:21" ht="16.2" thickBot="1">
       <c r="A85" s="5" t="s">
         <v>74</v>
       </c>
@@ -2499,7 +2535,7 @@
         <v>1343.72</v>
       </c>
     </row>
-    <row r="86" spans="1:21" ht="16.5" thickBot="1">
+    <row r="86" spans="1:21" ht="16.2" thickBot="1">
       <c r="A86" s="5" t="s">
         <v>74</v>
       </c>
@@ -2516,7 +2552,7 @@
         <v>1343.72</v>
       </c>
     </row>
-    <row r="87" spans="1:21" ht="16.5" thickBot="1">
+    <row r="87" spans="1:21" ht="16.2" thickBot="1">
       <c r="A87" s="5" t="s">
         <v>74</v>
       </c>
@@ -2533,7 +2569,7 @@
         <v>1343.72</v>
       </c>
     </row>
-    <row r="88" spans="1:21" ht="16.5" thickBot="1">
+    <row r="88" spans="1:21" ht="16.2" thickBot="1">
       <c r="A88" s="5" t="s">
         <v>74</v>
       </c>
@@ -2550,7 +2586,7 @@
         <v>1343.76</v>
       </c>
     </row>
-    <row r="89" spans="1:21" ht="16.5" thickBot="1">
+    <row r="89" spans="1:21" ht="16.2" thickBot="1">
       <c r="A89" s="5" t="s">
         <v>75</v>
       </c>
@@ -2567,7 +2603,7 @@
         <v>1150.0999999999999</v>
       </c>
     </row>
-    <row r="90" spans="1:21" ht="16.5" thickBot="1">
+    <row r="90" spans="1:21" ht="16.2" thickBot="1">
       <c r="A90" s="5" t="s">
         <v>76</v>
       </c>
@@ -2584,7 +2620,7 @@
         <v>773.79</v>
       </c>
     </row>
-    <row r="91" spans="1:21" ht="16.5" thickBot="1">
+    <row r="91" spans="1:21" ht="16.2" thickBot="1">
       <c r="A91" s="5" t="s">
         <v>77</v>
       </c>
@@ -2601,7 +2637,7 @@
         <v>773.79</v>
       </c>
     </row>
-    <row r="92" spans="1:21" ht="16.5" thickBot="1">
+    <row r="92" spans="1:21" ht="16.2" thickBot="1">
       <c r="A92" s="5" t="s">
         <v>78</v>
       </c>
@@ -2618,7 +2654,7 @@
         <v>773.79</v>
       </c>
     </row>
-    <row r="93" spans="1:21" ht="16.5" thickBot="1">
+    <row r="93" spans="1:21" ht="16.2" thickBot="1">
       <c r="A93" s="5" t="s">
         <v>79</v>
       </c>
@@ -2635,7 +2671,7 @@
         <v>1156.46</v>
       </c>
     </row>
-    <row r="94" spans="1:21" ht="16.5" thickBot="1">
+    <row r="94" spans="1:21" ht="16.2" thickBot="1">
       <c r="A94" s="5" t="s">
         <v>80</v>
       </c>
@@ -2652,7 +2688,7 @@
         <v>1649.09</v>
       </c>
     </row>
-    <row r="95" spans="1:21" ht="16.5" thickBot="1">
+    <row r="95" spans="1:21" ht="16.2" thickBot="1">
       <c r="A95" s="5" t="s">
         <v>79</v>
       </c>
@@ -2669,7 +2705,7 @@
         <v>1407.68</v>
       </c>
     </row>
-    <row r="96" spans="1:21" ht="16.5" thickBot="1">
+    <row r="96" spans="1:21" ht="16.2" thickBot="1">
       <c r="A96" s="5" t="s">
         <v>81</v>
       </c>
@@ -2686,7 +2722,7 @@
         <v>1649.09</v>
       </c>
     </row>
-    <row r="97" spans="1:21" ht="16.5" thickBot="1">
+    <row r="97" spans="1:21" ht="16.2" thickBot="1">
       <c r="A97" s="5" t="s">
         <v>82</v>
       </c>
@@ -2703,7 +2739,7 @@
         <v>2431.64</v>
       </c>
     </row>
-    <row r="98" spans="1:21" ht="16.5" thickBot="1">
+    <row r="98" spans="1:21" ht="16.2" thickBot="1">
       <c r="A98" s="5" t="s">
         <v>83</v>
       </c>
@@ -2720,7 +2756,7 @@
         <v>505.44</v>
       </c>
     </row>
-    <row r="99" spans="1:21" ht="16.5" thickBot="1">
+    <row r="99" spans="1:21" ht="16.2" thickBot="1">
       <c r="A99" s="5" t="s">
         <v>84</v>
       </c>
@@ -2737,7 +2773,7 @@
         <v>604.20000000000005</v>
       </c>
     </row>
-    <row r="100" spans="1:21" ht="16.5" thickBot="1">
+    <row r="100" spans="1:21" ht="16.2" thickBot="1">
       <c r="A100" s="5" t="s">
         <v>85</v>
       </c>
@@ -2754,7 +2790,7 @@
         <v>1046.75</v>
       </c>
     </row>
-    <row r="101" spans="1:21" ht="16.5" thickBot="1">
+    <row r="101" spans="1:21" ht="16.2" thickBot="1">
       <c r="A101" s="5" t="s">
         <v>86</v>
       </c>
@@ -2774,7 +2810,7 @@
         <v>683.7</v>
       </c>
     </row>
-    <row r="102" spans="1:21" ht="16.5" thickBot="1">
+    <row r="102" spans="1:21" ht="16.2" thickBot="1">
       <c r="A102" s="5" t="s">
         <v>87</v>
       </c>
@@ -2794,7 +2830,7 @@
         <v>1058.94</v>
       </c>
     </row>
-    <row r="103" spans="1:21" ht="16.5" thickBot="1">
+    <row r="103" spans="1:21" ht="16.2" thickBot="1">
       <c r="A103" s="5" t="s">
         <v>88</v>
       </c>
@@ -2814,7 +2850,7 @@
         <v>583</v>
       </c>
     </row>
-    <row r="104" spans="1:21" ht="16.5" thickBot="1">
+    <row r="104" spans="1:21" ht="16.2" thickBot="1">
       <c r="A104" s="5" t="s">
         <v>89</v>
       </c>
@@ -2831,7 +2867,7 @@
         <v>1193.56</v>
       </c>
     </row>
-    <row r="105" spans="1:21" ht="16.5" thickBot="1">
+    <row r="105" spans="1:21" ht="16.2" thickBot="1">
       <c r="A105" s="5" t="s">
         <v>90</v>
       </c>
@@ -2851,7 +2887,7 @@
         <v>27931</v>
       </c>
     </row>
-    <row r="106" spans="1:21" ht="16.5" thickBot="1">
+    <row r="106" spans="1:21" ht="16.2" thickBot="1">
       <c r="A106" s="5" t="s">
         <v>91</v>
       </c>
@@ -2868,7 +2904,7 @@
         <v>17395.13</v>
       </c>
     </row>
-    <row r="107" spans="1:21" ht="16.5" thickBot="1">
+    <row r="107" spans="1:21" ht="16.2" thickBot="1">
       <c r="A107" s="5" t="s">
         <v>92</v>
       </c>
@@ -2885,7 +2921,7 @@
         <v>7593.84</v>
       </c>
     </row>
-    <row r="108" spans="1:21" ht="16.5" thickBot="1">
+    <row r="108" spans="1:21" ht="16.2" thickBot="1">
       <c r="A108" s="5" t="s">
         <v>93</v>
       </c>
@@ -2902,7 +2938,7 @@
         <v>5818.34</v>
       </c>
     </row>
-    <row r="109" spans="1:21" ht="16.5" thickBot="1">
+    <row r="109" spans="1:21" ht="16.2" thickBot="1">
       <c r="A109" s="5" t="s">
         <v>94</v>
       </c>
@@ -2919,7 +2955,7 @@
         <v>1976.9</v>
       </c>
     </row>
-    <row r="110" spans="1:21" ht="16.5" thickBot="1">
+    <row r="110" spans="1:21" ht="16.2" thickBot="1">
       <c r="A110" s="5" t="s">
         <v>95</v>
       </c>
@@ -2936,7 +2972,7 @@
         <v>3447.12</v>
       </c>
     </row>
-    <row r="111" spans="1:21" ht="16.5" thickBot="1">
+    <row r="111" spans="1:21" ht="16.2" thickBot="1">
       <c r="A111" s="5" t="s">
         <v>96</v>
       </c>
@@ -2953,7 +2989,7 @@
         <v>718.68</v>
       </c>
     </row>
-    <row r="112" spans="1:21" ht="16.5" thickBot="1">
+    <row r="112" spans="1:21" ht="16.2" thickBot="1">
       <c r="A112" s="5" t="s">
         <v>97</v>
       </c>
@@ -2970,7 +3006,7 @@
         <v>4779.54</v>
       </c>
     </row>
-    <row r="113" spans="1:21" ht="16.5" thickBot="1">
+    <row r="113" spans="1:21" ht="16.2" thickBot="1">
       <c r="A113" s="5" t="s">
         <v>98</v>
       </c>
@@ -2987,7 +3023,7 @@
         <v>328.6</v>
       </c>
     </row>
-    <row r="114" spans="1:21" ht="16.5" thickBot="1">
+    <row r="114" spans="1:21" ht="16.2" thickBot="1">
       <c r="A114" s="5" t="s">
         <v>99</v>
       </c>
@@ -3004,7 +3040,7 @@
         <v>178.08</v>
       </c>
     </row>
-    <row r="115" spans="1:21" ht="16.5" thickBot="1">
+    <row r="115" spans="1:21" ht="16.2" thickBot="1">
       <c r="A115" s="5" t="s">
         <v>100</v>
       </c>
@@ -3021,7 +3057,7 @@
         <v>10011.700000000001</v>
       </c>
     </row>
-    <row r="116" spans="1:21" ht="16.5" thickBot="1">
+    <row r="116" spans="1:21" ht="16.2" thickBot="1">
       <c r="A116" s="5" t="s">
         <v>101</v>
       </c>
@@ -3038,7 +3074,7 @@
         <v>569.75</v>
       </c>
     </row>
-    <row r="117" spans="1:21" ht="16.5" thickBot="1">
+    <row r="117" spans="1:21" ht="16.2" thickBot="1">
       <c r="A117" s="5" t="s">
         <v>102</v>
       </c>
@@ -3055,7 +3091,7 @@
         <v>5434.09</v>
       </c>
     </row>
-    <row r="118" spans="1:21" ht="16.5" thickBot="1">
+    <row r="118" spans="1:21" ht="16.2" thickBot="1">
       <c r="A118" s="5" t="s">
         <v>103</v>
       </c>
@@ -3072,7 +3108,7 @@
         <v>12705.69</v>
       </c>
     </row>
-    <row r="119" spans="1:21" ht="16.5" thickBot="1">
+    <row r="119" spans="1:21" ht="16.2" thickBot="1">
       <c r="A119" s="5" t="s">
         <v>104</v>
       </c>
@@ -3089,7 +3125,7 @@
         <v>1939.79</v>
       </c>
     </row>
-    <row r="120" spans="1:21" ht="16.5" thickBot="1">
+    <row r="120" spans="1:21" ht="16.2" thickBot="1">
       <c r="A120" s="5" t="s">
         <v>105</v>
       </c>
@@ -3106,7 +3142,7 @@
         <v>2104.4699999999998</v>
       </c>
     </row>
-    <row r="121" spans="1:21" ht="16.5" thickBot="1">
+    <row r="121" spans="1:21" ht="16.2" thickBot="1">
       <c r="A121" s="5" t="s">
         <v>106</v>
       </c>
@@ -3123,7 +3159,7 @@
         <v>2092.13</v>
       </c>
     </row>
-    <row r="122" spans="1:21" ht="16.5" thickBot="1">
+    <row r="122" spans="1:21" ht="16.2" thickBot="1">
       <c r="A122" s="5" t="s">
         <v>107</v>
       </c>
@@ -3140,7 +3176,7 @@
         <v>2093.14</v>
       </c>
     </row>
-    <row r="123" spans="1:21" ht="16.5" thickBot="1">
+    <row r="123" spans="1:21" ht="16.2" thickBot="1">
       <c r="A123" s="5" t="s">
         <v>108</v>
       </c>
@@ -3157,7 +3193,7 @@
         <v>2393.48</v>
       </c>
     </row>
-    <row r="124" spans="1:21" ht="16.5" thickBot="1">
+    <row r="124" spans="1:21" ht="16.2" thickBot="1">
       <c r="A124" s="5" t="s">
         <v>109</v>
       </c>
@@ -3174,7 +3210,7 @@
         <v>1914.79</v>
       </c>
     </row>
-    <row r="125" spans="1:21" ht="16.5" thickBot="1">
+    <row r="125" spans="1:21" ht="16.2" thickBot="1">
       <c r="A125" s="5" t="s">
         <v>110</v>
       </c>
@@ -3191,7 +3227,7 @@
         <v>740.94</v>
       </c>
     </row>
-    <row r="126" spans="1:21" ht="16.5" thickBot="1">
+    <row r="126" spans="1:21" ht="16.2" thickBot="1">
       <c r="A126" s="5" t="s">
         <v>111</v>
       </c>
@@ -3208,7 +3244,7 @@
         <v>1696</v>
       </c>
     </row>
-    <row r="127" spans="1:21" ht="16.5" thickBot="1">
+    <row r="127" spans="1:21" ht="16.2" thickBot="1">
       <c r="A127" s="5" t="s">
         <v>112</v>
       </c>
@@ -3225,7 +3261,7 @@
         <v>701.72</v>
       </c>
     </row>
-    <row r="128" spans="1:21" ht="16.5" thickBot="1">
+    <row r="128" spans="1:21" ht="16.2" thickBot="1">
       <c r="A128" s="5" t="s">
         <v>113</v>
       </c>
@@ -3242,7 +3278,7 @@
         <v>791.82</v>
       </c>
     </row>
-    <row r="129" spans="1:21" ht="16.5" thickBot="1">
+    <row r="129" spans="1:21" ht="16.2" thickBot="1">
       <c r="A129" s="5" t="s">
         <v>114</v>
       </c>
@@ -3259,7 +3295,7 @@
         <v>683.7</v>
       </c>
     </row>
-    <row r="130" spans="1:21" ht="16.5" thickBot="1">
+    <row r="130" spans="1:21" ht="16.2" thickBot="1">
       <c r="A130" s="5" t="s">
         <v>115</v>
       </c>
@@ -3276,7 +3312,7 @@
         <v>1452.88</v>
       </c>
     </row>
-    <row r="131" spans="1:21" ht="16.5" thickBot="1">
+    <row r="131" spans="1:21" ht="16.2" thickBot="1">
       <c r="A131" s="5" t="s">
         <v>116</v>
       </c>
@@ -3293,7 +3329,7 @@
         <v>669</v>
       </c>
     </row>
-    <row r="132" spans="1:21" ht="16.5" thickBot="1">
+    <row r="132" spans="1:21" ht="16.2" thickBot="1">
       <c r="A132" s="5" t="s">
         <v>117</v>
       </c>
@@ -3310,7 +3346,7 @@
         <v>879.98</v>
       </c>
     </row>
-    <row r="133" spans="1:21" ht="16.5" thickBot="1">
+    <row r="133" spans="1:21" ht="16.2" thickBot="1">
       <c r="A133" s="5" t="s">
         <v>118</v>
       </c>
@@ -3327,7 +3363,7 @@
         <v>14216.19</v>
       </c>
     </row>
-    <row r="134" spans="1:21" ht="16.5" thickBot="1">
+    <row r="134" spans="1:21" ht="16.2" thickBot="1">
       <c r="A134" s="5" t="s">
         <v>119</v>
       </c>
@@ -3344,7 +3380,7 @@
         <v>365.69</v>
       </c>
     </row>
-    <row r="135" spans="1:21" ht="16.5" thickBot="1">
+    <row r="135" spans="1:21" ht="16.2" thickBot="1">
       <c r="A135" s="5" t="s">
         <v>120</v>
       </c>
@@ -3361,7 +3397,7 @@
         <v>1282.5999999999999</v>
       </c>
     </row>
-    <row r="136" spans="1:21" ht="16.5" thickBot="1">
+    <row r="136" spans="1:21" ht="16.2" thickBot="1">
       <c r="A136" s="5" t="s">
         <v>121</v>
       </c>
@@ -3378,7 +3414,7 @@
         <v>941.94</v>
       </c>
     </row>
-    <row r="137" spans="1:21" ht="16.5" thickBot="1">
+    <row r="137" spans="1:21" ht="16.2" thickBot="1">
       <c r="A137" s="5" t="s">
         <v>122</v>
       </c>
@@ -3395,7 +3431,7 @@
         <v>705.43</v>
       </c>
     </row>
-    <row r="138" spans="1:21" ht="48" thickBot="1">
+    <row r="138" spans="1:21" ht="47.4" thickBot="1">
       <c r="A138" s="5" t="s">
         <v>123</v>
       </c>
@@ -3412,7 +3448,7 @@
         <v>705.43</v>
       </c>
     </row>
-    <row r="139" spans="1:21" ht="48" thickBot="1">
+    <row r="139" spans="1:21" ht="47.4" thickBot="1">
       <c r="A139" s="5" t="s">
         <v>124</v>
       </c>
@@ -3429,7 +3465,7 @@
         <v>1068.48</v>
       </c>
     </row>
-    <row r="140" spans="1:21" ht="48" thickBot="1">
+    <row r="140" spans="1:21" ht="47.4" thickBot="1">
       <c r="A140" s="5" t="s">
         <v>125</v>
       </c>
@@ -3446,7 +3482,7 @@
         <v>795</v>
       </c>
     </row>
-    <row r="141" spans="1:21" ht="48" thickBot="1">
+    <row r="141" spans="1:21" ht="47.4" thickBot="1">
       <c r="A141" s="5" t="s">
         <v>126</v>
       </c>
@@ -3463,7 +3499,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="142" spans="1:21" ht="48" thickBot="1">
+    <row r="142" spans="1:21" ht="47.4" thickBot="1">
       <c r="A142" s="5" t="s">
         <v>127</v>
       </c>
@@ -3480,7 +3516,7 @@
         <v>14000</v>
       </c>
     </row>
-    <row r="143" spans="1:21" ht="48" thickBot="1">
+    <row r="143" spans="1:21" ht="47.4" thickBot="1">
       <c r="A143" s="5" t="s">
         <v>128</v>
       </c>
@@ -3497,7 +3533,7 @@
         <v>704.89</v>
       </c>
     </row>
-    <row r="144" spans="1:21" ht="48" thickBot="1">
+    <row r="144" spans="1:21" ht="47.4" thickBot="1">
       <c r="A144" s="5" t="s">
         <v>129</v>
       </c>
@@ -3514,7 +3550,7 @@
         <v>1053.6400000000001</v>
       </c>
     </row>
-    <row r="145" spans="1:21" ht="48" thickBot="1">
+    <row r="145" spans="1:21" ht="47.4" thickBot="1">
       <c r="A145" s="5" t="s">
         <v>130</v>
       </c>
@@ -3531,7 +3567,7 @@
         <v>621.16</v>
       </c>
     </row>
-    <row r="146" spans="1:21" ht="48" thickBot="1">
+    <row r="146" spans="1:21" ht="47.4" thickBot="1">
       <c r="A146" s="5" t="s">
         <v>131</v>
       </c>
@@ -3548,7 +3584,7 @@
         <v>20543</v>
       </c>
     </row>
-    <row r="147" spans="1:21" ht="48" thickBot="1">
+    <row r="147" spans="1:21" ht="47.4" thickBot="1">
       <c r="A147" s="5" t="s">
         <v>132</v>
       </c>
@@ -3565,7 +3601,7 @@
         <v>1989</v>
       </c>
     </row>
-    <row r="148" spans="1:21" ht="48" thickBot="1">
+    <row r="148" spans="1:21" ht="47.4" thickBot="1">
       <c r="A148" s="5" t="s">
         <v>133</v>
       </c>
@@ -3582,7 +3618,7 @@
         <v>976</v>
       </c>
     </row>
-    <row r="149" spans="1:21" ht="48" thickBot="1">
+    <row r="149" spans="1:21" ht="47.4" thickBot="1">
       <c r="A149" s="5" t="s">
         <v>134</v>
       </c>
@@ -3599,7 +3635,7 @@
         <v>1035</v>
       </c>
     </row>
-    <row r="150" spans="1:21" ht="48" thickBot="1">
+    <row r="150" spans="1:21" ht="47.4" thickBot="1">
       <c r="A150" s="5" t="s">
         <v>135</v>
       </c>
@@ -3616,7 +3652,7 @@
         <v>1440.54</v>
       </c>
     </row>
-    <row r="151" spans="1:21" ht="48" thickBot="1">
+    <row r="151" spans="1:21" ht="47.4" thickBot="1">
       <c r="A151" s="5" t="s">
         <v>136</v>
       </c>
@@ -3633,7 +3669,7 @@
         <v>19857.080000000002</v>
       </c>
     </row>
-    <row r="152" spans="1:21" ht="48" thickBot="1">
+    <row r="152" spans="1:21" ht="47.4" thickBot="1">
       <c r="A152" s="5" t="s">
         <v>137</v>
       </c>
@@ -3650,7 +3686,7 @@
         <v>379.05</v>
       </c>
     </row>
-    <row r="153" spans="1:21" ht="48" thickBot="1">
+    <row r="153" spans="1:21" ht="47.4" thickBot="1">
       <c r="A153" s="5" t="s">
         <v>138</v>
       </c>
@@ -3667,7 +3703,7 @@
         <v>379.05</v>
       </c>
     </row>
-    <row r="154" spans="1:21" ht="48" thickBot="1">
+    <row r="154" spans="1:21" ht="47.4" thickBot="1">
       <c r="A154" s="5" t="s">
         <v>138</v>
       </c>
@@ -3684,7 +3720,7 @@
         <v>380.06</v>
       </c>
     </row>
-    <row r="155" spans="1:21" ht="48" thickBot="1">
+    <row r="155" spans="1:21" ht="47.4" thickBot="1">
       <c r="A155" s="5" t="s">
         <v>138</v>
       </c>
@@ -3701,7 +3737,7 @@
         <v>380.06</v>
       </c>
     </row>
-    <row r="156" spans="1:21" ht="48" thickBot="1">
+    <row r="156" spans="1:21" ht="47.4" thickBot="1">
       <c r="A156" s="5" t="s">
         <v>139</v>
       </c>
@@ -3718,7 +3754,7 @@
         <v>6340.56</v>
       </c>
     </row>
-    <row r="157" spans="1:21" ht="48" thickBot="1">
+    <row r="157" spans="1:21" ht="47.4" thickBot="1">
       <c r="A157" s="5" t="s">
         <v>140</v>
       </c>
@@ -3735,7 +3771,7 @@
         <v>5836.6</v>
       </c>
     </row>
-    <row r="158" spans="1:21" ht="48" thickBot="1">
+    <row r="158" spans="1:21" ht="47.4" thickBot="1">
       <c r="A158" s="5" t="s">
         <v>141</v>
       </c>
@@ -3752,7 +3788,7 @@
         <v>3189.03</v>
       </c>
     </row>
-    <row r="159" spans="1:21" ht="48" thickBot="1">
+    <row r="159" spans="1:21" ht="47.4" thickBot="1">
       <c r="A159" s="5" t="s">
         <v>142</v>
       </c>
@@ -3769,7 +3805,7 @@
         <v>12608.69</v>
       </c>
     </row>
-    <row r="160" spans="1:21" ht="48" thickBot="1">
+    <row r="160" spans="1:21" ht="47.4" thickBot="1">
       <c r="A160" s="5" t="s">
         <v>143</v>
       </c>
@@ -3786,7 +3822,7 @@
         <v>6631.34</v>
       </c>
     </row>
-    <row r="161" spans="1:21" ht="48" thickBot="1">
+    <row r="161" spans="1:21" ht="47.4" thickBot="1">
       <c r="A161" s="5" t="s">
         <v>144</v>
       </c>
@@ -3803,7 +3839,7 @@
         <v>4221.3</v>
       </c>
     </row>
-    <row r="162" spans="1:21" ht="48" thickBot="1">
+    <row r="162" spans="1:21" ht="47.4" thickBot="1">
       <c r="A162" s="5" t="s">
         <v>145</v>
       </c>
@@ -3820,7 +3856,7 @@
         <v>1250</v>
       </c>
     </row>
-    <row r="163" spans="1:21" ht="48" thickBot="1">
+    <row r="163" spans="1:21" ht="47.4" thickBot="1">
       <c r="A163" s="5" t="s">
         <v>146</v>
       </c>
@@ -3837,7 +3873,7 @@
         <v>2776.14</v>
       </c>
     </row>
-    <row r="164" spans="1:21" ht="48" thickBot="1">
+    <row r="164" spans="1:21" ht="47.4" thickBot="1">
       <c r="A164" s="5" t="s">
         <v>147</v>
       </c>
@@ -3854,7 +3890,7 @@
         <v>8013.63</v>
       </c>
     </row>
-    <row r="165" spans="1:21" ht="48" thickBot="1">
+    <row r="165" spans="1:21" ht="47.4" thickBot="1">
       <c r="A165" s="5" t="s">
         <v>148</v>
       </c>
@@ -3871,7 +3907,7 @@
         <v>6686.71</v>
       </c>
     </row>
-    <row r="166" spans="1:21" ht="48" thickBot="1">
+    <row r="166" spans="1:21" ht="47.4" thickBot="1">
       <c r="A166" s="5" t="s">
         <v>149</v>
       </c>
@@ -3888,7 +3924,7 @@
         <v>3323.7</v>
       </c>
     </row>
-    <row r="167" spans="1:21" ht="48" thickBot="1">
+    <row r="167" spans="1:21" ht="47.4" thickBot="1">
       <c r="A167" s="5" t="s">
         <v>150</v>
       </c>
@@ -3905,7 +3941,7 @@
         <v>1530</v>
       </c>
     </row>
-    <row r="168" spans="1:21" ht="48" thickBot="1">
+    <row r="168" spans="1:21" ht="47.4" thickBot="1">
       <c r="A168" s="5" t="s">
         <v>147</v>
       </c>
@@ -3922,7 +3958,7 @@
         <v>2460.08</v>
       </c>
     </row>
-    <row r="169" spans="1:21" ht="48" thickBot="1">
+    <row r="169" spans="1:21" ht="47.4" thickBot="1">
       <c r="A169" s="5" t="s">
         <v>129</v>
       </c>
@@ -3939,7 +3975,7 @@
         <v>6300</v>
       </c>
     </row>
-    <row r="170" spans="1:21" ht="48" thickBot="1">
+    <row r="170" spans="1:21" ht="47.4" thickBot="1">
       <c r="A170" s="5" t="s">
         <v>151</v>
       </c>
@@ -3956,7 +3992,7 @@
         <v>3698.34</v>
       </c>
     </row>
-    <row r="171" spans="1:21" ht="48" thickBot="1">
+    <row r="171" spans="1:21" ht="47.4" thickBot="1">
       <c r="A171" s="5" t="s">
         <v>152</v>
       </c>
@@ -3973,7 +4009,7 @@
         <v>2545.5</v>
       </c>
     </row>
-    <row r="172" spans="1:21" ht="48" thickBot="1">
+    <row r="172" spans="1:21" ht="47.4" thickBot="1">
       <c r="A172" s="5" t="s">
         <v>153</v>
       </c>
@@ -3990,7 +4026,7 @@
         <v>13192.28</v>
       </c>
     </row>
-    <row r="173" spans="1:21" ht="48" thickBot="1">
+    <row r="173" spans="1:21" ht="47.4" thickBot="1">
       <c r="A173" s="5" t="s">
         <v>154</v>
       </c>
@@ -4007,7 +4043,7 @@
         <v>958.98</v>
       </c>
     </row>
-    <row r="174" spans="1:21" ht="48" thickBot="1">
+    <row r="174" spans="1:21" ht="47.4" thickBot="1">
       <c r="A174" s="5" t="s">
         <v>154</v>
       </c>
@@ -4024,7 +4060,7 @@
         <v>958.98</v>
       </c>
     </row>
-    <row r="175" spans="1:21" ht="48" thickBot="1">
+    <row r="175" spans="1:21" ht="47.4" thickBot="1">
       <c r="A175" s="5" t="s">
         <v>154</v>
       </c>
@@ -4041,7 +4077,7 @@
         <v>958.98</v>
       </c>
     </row>
-    <row r="176" spans="1:21" ht="48" thickBot="1">
+    <row r="176" spans="1:21" ht="47.4" thickBot="1">
       <c r="A176" s="5" t="s">
         <v>154</v>
       </c>
@@ -4058,7 +4094,7 @@
         <v>958.98</v>
       </c>
     </row>
-    <row r="177" spans="1:21" ht="48" thickBot="1">
+    <row r="177" spans="1:21" ht="47.4" thickBot="1">
       <c r="A177" s="5" t="s">
         <v>154</v>
       </c>
@@ -4075,7 +4111,7 @@
         <v>958.98</v>
       </c>
     </row>
-    <row r="178" spans="1:21" ht="48" thickBot="1">
+    <row r="178" spans="1:21" ht="47.4" thickBot="1">
       <c r="A178" s="5" t="s">
         <v>154</v>
       </c>
@@ -4092,7 +4128,7 @@
         <v>958.98</v>
       </c>
     </row>
-    <row r="179" spans="1:21" ht="48" thickBot="1">
+    <row r="179" spans="1:21" ht="47.4" thickBot="1">
       <c r="A179" s="5" t="s">
         <v>154</v>
       </c>
@@ -4109,7 +4145,7 @@
         <v>958.98</v>
       </c>
     </row>
-    <row r="180" spans="1:21" ht="48" thickBot="1">
+    <row r="180" spans="1:21" ht="47.4" thickBot="1">
       <c r="A180" s="5" t="s">
         <v>154</v>
       </c>
@@ -4126,7 +4162,7 @@
         <v>958.98</v>
       </c>
     </row>
-    <row r="181" spans="1:21" ht="48" thickBot="1">
+    <row r="181" spans="1:21" ht="47.4" thickBot="1">
       <c r="A181" s="5" t="s">
         <v>154</v>
       </c>
@@ -4143,7 +4179,7 @@
         <v>958.98</v>
       </c>
     </row>
-    <row r="182" spans="1:21" ht="48" thickBot="1">
+    <row r="182" spans="1:21" ht="47.4" thickBot="1">
       <c r="A182" s="5" t="s">
         <v>154</v>
       </c>
@@ -4160,7 +4196,7 @@
         <v>958.98</v>
       </c>
     </row>
-    <row r="183" spans="1:21" ht="48" thickBot="1">
+    <row r="183" spans="1:21" ht="47.4" thickBot="1">
       <c r="A183" s="5" t="s">
         <v>155</v>
       </c>
@@ -4177,7 +4213,7 @@
         <v>938.98</v>
       </c>
     </row>
-    <row r="184" spans="1:21" ht="48" thickBot="1">
+    <row r="184" spans="1:21" ht="47.4" thickBot="1">
       <c r="A184" s="5" t="s">
         <v>155</v>
       </c>
@@ -4194,7 +4230,7 @@
         <v>938.98</v>
       </c>
     </row>
-    <row r="185" spans="1:21" ht="48" thickBot="1">
+    <row r="185" spans="1:21" ht="47.4" thickBot="1">
       <c r="A185" s="5" t="s">
         <v>155</v>
       </c>
@@ -4211,7 +4247,7 @@
         <v>938.98</v>
       </c>
     </row>
-    <row r="186" spans="1:21" ht="48" thickBot="1">
+    <row r="186" spans="1:21" ht="47.4" thickBot="1">
       <c r="A186" s="5" t="s">
         <v>155</v>
       </c>
@@ -4228,7 +4264,7 @@
         <v>938.98</v>
       </c>
     </row>
-    <row r="187" spans="1:21" ht="48" thickBot="1">
+    <row r="187" spans="1:21" ht="47.4" thickBot="1">
       <c r="A187" s="5" t="s">
         <v>155</v>
       </c>
@@ -4245,7 +4281,7 @@
         <v>938.98</v>
       </c>
     </row>
-    <row r="188" spans="1:21" ht="48" thickBot="1">
+    <row r="188" spans="1:21" ht="47.4" thickBot="1">
       <c r="A188" s="5" t="s">
         <v>155</v>
       </c>
@@ -4262,7 +4298,7 @@
         <v>938.98</v>
       </c>
     </row>
-    <row r="189" spans="1:21" ht="48" thickBot="1">
+    <row r="189" spans="1:21" ht="47.4" thickBot="1">
       <c r="A189" s="5" t="s">
         <v>156</v>
       </c>
@@ -4279,7 +4315,7 @@
         <v>9540</v>
       </c>
     </row>
-    <row r="190" spans="1:21" ht="48" thickBot="1">
+    <row r="190" spans="1:21" ht="47.4" thickBot="1">
       <c r="A190" s="5" t="s">
         <v>157</v>
       </c>
@@ -4296,7 +4332,7 @@
         <v>2062.04</v>
       </c>
     </row>
-    <row r="191" spans="1:21" ht="16.5" thickBot="1">
+    <row r="191" spans="1:21" ht="16.2" thickBot="1">
       <c r="A191" s="5" t="s">
         <v>158</v>
       </c>
@@ -4313,7 +4349,7 @@
         <v>584.05999999999995</v>
       </c>
     </row>
-    <row r="192" spans="1:21" ht="16.5" thickBot="1">
+    <row r="192" spans="1:21" ht="16.2" thickBot="1">
       <c r="A192" s="5" t="s">
         <v>159</v>
       </c>
@@ -4330,7 +4366,7 @@
         <v>274.54000000000002</v>
       </c>
     </row>
-    <row r="193" spans="1:21" ht="16.5" thickBot="1">
+    <row r="193" spans="1:21" ht="16.2" thickBot="1">
       <c r="A193" s="5" t="s">
         <v>160</v>
       </c>
@@ -4347,7 +4383,7 @@
         <v>1036.69</v>
       </c>
     </row>
-    <row r="194" spans="1:21" ht="16.5" thickBot="1">
+    <row r="194" spans="1:21" ht="16.2" thickBot="1">
       <c r="A194" s="5" t="s">
         <v>161</v>
       </c>
@@ -4364,7 +4400,7 @@
         <v>836.34</v>
       </c>
     </row>
-    <row r="195" spans="1:21" ht="16.5" thickBot="1">
+    <row r="195" spans="1:21" ht="16.2" thickBot="1">
       <c r="A195" s="5" t="s">
         <v>161</v>
       </c>
@@ -4381,7 +4417,7 @@
         <v>836.34</v>
       </c>
     </row>
-    <row r="196" spans="1:21" ht="16.5" thickBot="1">
+    <row r="196" spans="1:21" ht="16.2" thickBot="1">
       <c r="A196" s="5" t="s">
         <v>161</v>
       </c>
@@ -4398,7 +4434,7 @@
         <v>836.34</v>
       </c>
     </row>
-    <row r="197" spans="1:21" ht="16.5" thickBot="1">
+    <row r="197" spans="1:21" ht="16.2" thickBot="1">
       <c r="A197" s="5" t="s">
         <v>161</v>
       </c>
@@ -4415,7 +4451,7 @@
         <v>836.34</v>
       </c>
     </row>
-    <row r="198" spans="1:21" ht="16.5" thickBot="1">
+    <row r="198" spans="1:21" ht="16.2" thickBot="1">
       <c r="A198" s="5" t="s">
         <v>161</v>
       </c>
@@ -4432,7 +4468,7 @@
         <v>836.34</v>
       </c>
     </row>
-    <row r="199" spans="1:21" ht="16.5" thickBot="1">
+    <row r="199" spans="1:21" ht="16.2" thickBot="1">
       <c r="A199" s="5" t="s">
         <v>161</v>
       </c>
@@ -4449,7 +4485,7 @@
         <v>836.34</v>
       </c>
     </row>
-    <row r="200" spans="1:21" ht="16.5" thickBot="1">
+    <row r="200" spans="1:21" ht="16.2" thickBot="1">
       <c r="A200" s="5" t="s">
         <v>161</v>
       </c>
@@ -4466,7 +4502,7 @@
         <v>836.34</v>
       </c>
     </row>
-    <row r="201" spans="1:21" ht="16.5" thickBot="1">
+    <row r="201" spans="1:21" ht="16.2" thickBot="1">
       <c r="A201" s="5" t="s">
         <v>161</v>
       </c>
@@ -4483,7 +4519,7 @@
         <v>836.34</v>
       </c>
     </row>
-    <row r="202" spans="1:21" ht="16.5" thickBot="1">
+    <row r="202" spans="1:21" ht="16.2" thickBot="1">
       <c r="A202" s="5" t="s">
         <v>162</v>
       </c>
@@ -4500,7 +4536,7 @@
         <v>7840.95</v>
       </c>
     </row>
-    <row r="203" spans="1:21" ht="16.5" thickBot="1">
+    <row r="203" spans="1:21" ht="16.2" thickBot="1">
       <c r="A203" s="5" t="s">
         <v>163</v>
       </c>
@@ -4517,7 +4553,7 @@
         <v>2731.62</v>
       </c>
     </row>
-    <row r="204" spans="1:21" ht="16.5" thickBot="1">
+    <row r="204" spans="1:21" ht="16.2" thickBot="1">
       <c r="A204" s="5" t="s">
         <v>164</v>
       </c>
@@ -4534,7 +4570,7 @@
         <v>419.08</v>
       </c>
     </row>
-    <row r="205" spans="1:21" ht="16.5" thickBot="1">
+    <row r="205" spans="1:21" ht="16.2" thickBot="1">
       <c r="A205" s="5" t="s">
         <v>164</v>
       </c>
@@ -4551,7 +4587,7 @@
         <v>419.08</v>
       </c>
     </row>
-    <row r="206" spans="1:21" ht="16.5" thickBot="1">
+    <row r="206" spans="1:21" ht="16.2" thickBot="1">
       <c r="A206" s="5" t="s">
         <v>164</v>
       </c>
@@ -4568,7 +4604,7 @@
         <v>420.06</v>
       </c>
     </row>
-    <row r="207" spans="1:21" ht="16.5" thickBot="1">
+    <row r="207" spans="1:21" ht="16.2" thickBot="1">
       <c r="A207" s="5" t="s">
         <v>165</v>
       </c>
@@ -4585,7 +4621,7 @@
         <v>1517.21</v>
       </c>
     </row>
-    <row r="208" spans="1:21" ht="16.5" thickBot="1">
+    <row r="208" spans="1:21" ht="16.2" thickBot="1">
       <c r="A208" s="5" t="s">
         <v>165</v>
       </c>
@@ -4602,7 +4638,7 @@
         <v>1517.21</v>
       </c>
     </row>
-    <row r="209" spans="1:21" ht="16.5" thickBot="1">
+    <row r="209" spans="1:21" ht="16.2" thickBot="1">
       <c r="A209" s="5" t="s">
         <v>165</v>
       </c>
@@ -4619,7 +4655,7 @@
         <v>1517.22</v>
       </c>
     </row>
-    <row r="210" spans="1:21" ht="16.5" thickBot="1">
+    <row r="210" spans="1:21" ht="16.2" thickBot="1">
       <c r="A210" s="5" t="s">
         <v>166</v>
       </c>
@@ -4636,7 +4672,7 @@
         <v>2668.02</v>
       </c>
     </row>
-    <row r="211" spans="1:21" ht="16.5" thickBot="1">
+    <row r="211" spans="1:21" ht="16.2" thickBot="1">
       <c r="A211" s="5" t="s">
         <v>160</v>
       </c>
@@ -4653,7 +4689,7 @@
         <v>3849.54</v>
       </c>
     </row>
-    <row r="212" spans="1:21" ht="16.5" thickBot="1">
+    <row r="212" spans="1:21" ht="16.2" thickBot="1">
       <c r="A212" s="5" t="s">
         <v>167</v>
       </c>
@@ -4670,7 +4706,7 @@
         <v>10506.14</v>
       </c>
     </row>
-    <row r="213" spans="1:21" ht="16.5" thickBot="1">
+    <row r="213" spans="1:21" ht="16.2" thickBot="1">
       <c r="A213" s="5" t="s">
         <v>168</v>
       </c>
@@ -4687,7 +4723,7 @@
         <v>2438.4</v>
       </c>
     </row>
-    <row r="214" spans="1:21" ht="16.5" thickBot="1">
+    <row r="214" spans="1:21" ht="16.2" thickBot="1">
       <c r="A214" s="5" t="s">
         <v>169</v>
       </c>
@@ -4704,7 +4740,7 @@
         <v>25635.759999999998</v>
       </c>
     </row>
-    <row r="215" spans="1:21" ht="16.5" thickBot="1">
+    <row r="215" spans="1:21" ht="16.2" thickBot="1">
       <c r="A215" s="5" t="s">
         <v>170</v>
       </c>
@@ -4721,7 +4757,7 @@
         <v>26235.74</v>
       </c>
     </row>
-    <row r="216" spans="1:21" ht="16.5" thickBot="1">
+    <row r="216" spans="1:21" ht="16.2" thickBot="1">
       <c r="A216" s="5" t="s">
         <v>171</v>
       </c>
@@ -4738,7 +4774,7 @@
         <v>15250.45</v>
       </c>
     </row>
-    <row r="217" spans="1:21" ht="16.5" thickBot="1">
+    <row r="217" spans="1:21" ht="16.2" thickBot="1">
       <c r="A217" s="5" t="s">
         <v>171</v>
       </c>
@@ -4755,7 +4791,7 @@
         <v>81163.33</v>
       </c>
     </row>
-    <row r="218" spans="1:21" ht="16.5" thickBot="1">
+    <row r="218" spans="1:21" ht="16.2" thickBot="1">
       <c r="A218" s="5" t="s">
         <v>172</v>
       </c>
@@ -4772,7 +4808,7 @@
         <v>9734.16</v>
       </c>
     </row>
-    <row r="219" spans="1:21" ht="16.5" thickBot="1">
+    <row r="219" spans="1:21" ht="16.2" thickBot="1">
       <c r="A219" s="5" t="s">
         <v>173</v>
       </c>
@@ -4789,7 +4825,7 @@
         <v>4382.62</v>
       </c>
     </row>
-    <row r="220" spans="1:21" ht="16.5" thickBot="1">
+    <row r="220" spans="1:21" ht="16.2" thickBot="1">
       <c r="A220" s="5" t="s">
         <v>174</v>
       </c>
@@ -4806,7 +4842,7 @@
         <v>2181.48</v>
       </c>
     </row>
-    <row r="221" spans="1:21" ht="16.5" thickBot="1">
+    <row r="221" spans="1:21" ht="16.2" thickBot="1">
       <c r="A221" s="5" t="s">
         <v>175</v>
       </c>
@@ -4823,7 +4859,7 @@
         <v>8750</v>
       </c>
     </row>
-    <row r="222" spans="1:21" ht="16.5" thickBot="1">
+    <row r="222" spans="1:21" ht="16.2" thickBot="1">
       <c r="A222" s="5" t="s">
         <v>176</v>
       </c>

--- a/SpecsProject/Excel/Inventory_Project_SpecificationsV2.xlsx
+++ b/SpecsProject/Excel/Inventory_Project_SpecificationsV2.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17976" windowHeight="5652"/>
+    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="17976" windowHeight="5652"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1026,8 +1026,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X223"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
-      <selection activeCell="AC26" sqref="AC26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J1" sqref="J1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -1036,7 +1036,10 @@
     <col min="2" max="2" width="13.6640625" customWidth="1"/>
     <col min="3" max="3" width="9.109375" customWidth="1"/>
     <col min="7" max="7" width="9.109375" customWidth="1"/>
-    <col min="23" max="24" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="10.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:24" s="1" customFormat="1" ht="14.25" customHeight="1">
@@ -1067,7 +1070,7 @@
       <c r="I1" s="3" t="s">
         <v>192</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="J1" s="4" t="s">
         <v>193</v>
       </c>
       <c r="K1" s="3" t="s">
@@ -1085,7 +1088,7 @@
       <c r="O1" s="3" t="s">
         <v>196</v>
       </c>
-      <c r="P1" s="3" t="s">
+      <c r="P1" s="4" t="s">
         <v>202</v>
       </c>
       <c r="Q1" s="3" t="s">
@@ -1147,6 +1150,9 @@
       <c r="G5" s="12">
         <v>35697</v>
       </c>
+      <c r="J5" s="17">
+        <v>44211</v>
+      </c>
       <c r="U5" s="14">
         <v>1074.56</v>
       </c>
@@ -1181,6 +1187,9 @@
       <c r="G7" s="12">
         <v>37351</v>
       </c>
+      <c r="P7" s="17">
+        <v>42748</v>
+      </c>
       <c r="U7" s="14">
         <v>365.7</v>
       </c>
@@ -1249,6 +1258,9 @@
       <c r="G11" s="12">
         <v>37351</v>
       </c>
+      <c r="J11" s="17">
+        <v>43842</v>
+      </c>
       <c r="U11" s="14">
         <v>524.70000000000005</v>
       </c>
@@ -1334,6 +1346,9 @@
       <c r="G16" s="12">
         <v>37351</v>
       </c>
+      <c r="P16" s="17">
+        <v>42048</v>
+      </c>
       <c r="U16" s="14">
         <v>318</v>
       </c>
@@ -1375,6 +1390,9 @@
       <c r="U18" s="14">
         <v>1590</v>
       </c>
+      <c r="X18" s="17">
+        <v>41287</v>
+      </c>
     </row>
     <row r="19" spans="1:24">
       <c r="A19" s="5" t="s">
@@ -1389,6 +1407,9 @@
       <c r="G19" s="12">
         <v>37351</v>
       </c>
+      <c r="J19" s="17">
+        <v>43568</v>
+      </c>
       <c r="U19" s="14">
         <v>519.4</v>
       </c>
@@ -1498,6 +1519,9 @@
       <c r="U25" s="14">
         <v>333.9</v>
       </c>
+      <c r="X25" s="17">
+        <v>42049</v>
+      </c>
     </row>
     <row r="26" spans="1:24">
       <c r="A26" s="5" t="s">
@@ -1512,6 +1536,9 @@
       <c r="G26" s="12">
         <v>37351</v>
       </c>
+      <c r="P26" s="17">
+        <v>43902</v>
+      </c>
       <c r="U26" s="14">
         <v>333.9</v>
       </c>
@@ -1563,6 +1590,9 @@
       <c r="G29" s="12">
         <v>34992</v>
       </c>
+      <c r="J29" s="17">
+        <v>43182</v>
+      </c>
       <c r="U29" s="14">
         <v>208.95</v>
       </c>
@@ -1621,6 +1651,9 @@
       <c r="U32" s="14">
         <v>263.94</v>
       </c>
+      <c r="X32" s="17">
+        <v>36220</v>
+      </c>
     </row>
     <row r="33" spans="1:24" ht="16.2" thickBot="1">
       <c r="A33" s="5" t="s">
@@ -1690,6 +1723,9 @@
       <c r="G36" s="12">
         <v>36531</v>
       </c>
+      <c r="P36" s="17">
+        <v>46648</v>
+      </c>
       <c r="U36" s="14">
         <v>4817.43</v>
       </c>
@@ -1724,6 +1760,9 @@
       <c r="G38" s="12">
         <v>36769</v>
       </c>
+      <c r="J38" s="17">
+        <v>41866</v>
+      </c>
       <c r="U38" s="14">
         <v>1598.77</v>
       </c>
@@ -1744,6 +1783,9 @@
       <c r="U39" s="14">
         <v>4774.24</v>
       </c>
+      <c r="X39" s="17">
+        <v>35685</v>
+      </c>
     </row>
     <row r="40" spans="1:24" ht="16.2" thickBot="1">
       <c r="A40" s="5" t="s">
@@ -1830,6 +1872,9 @@
       <c r="G44" s="12">
         <v>39212</v>
       </c>
+      <c r="P44" s="17">
+        <v>43484</v>
+      </c>
       <c r="U44" s="14">
         <v>1190</v>
       </c>
@@ -1881,6 +1926,9 @@
       <c r="G47" s="12">
         <v>39645</v>
       </c>
+      <c r="J47" s="17">
+        <v>47528</v>
+      </c>
       <c r="U47" s="14">
         <v>1314.4</v>
       </c>
@@ -1969,6 +2017,9 @@
       <c r="U52" s="14">
         <v>2423.6</v>
       </c>
+      <c r="X52" s="17">
+        <v>36891</v>
+      </c>
     </row>
     <row r="53" spans="1:24" ht="16.2" thickBot="1">
       <c r="A53" s="5" t="s">
@@ -2017,6 +2068,9 @@
       <c r="G55" s="12">
         <v>40315</v>
       </c>
+      <c r="J55" s="17">
+        <v>41689</v>
+      </c>
       <c r="U55" s="14">
         <v>1240.2</v>
       </c>
@@ -2051,6 +2105,9 @@
       <c r="G57" s="12">
         <v>40746</v>
       </c>
+      <c r="P57" s="17">
+        <v>41438</v>
+      </c>
       <c r="U57" s="14">
         <v>1523.22</v>
       </c>
@@ -2191,6 +2248,9 @@
       <c r="G65" s="12">
         <v>40254</v>
       </c>
+      <c r="J65" s="17">
+        <v>47529</v>
+      </c>
       <c r="U65" s="14">
         <v>2134.31</v>
       </c>
@@ -2361,6 +2421,9 @@
       <c r="G75" s="12">
         <v>41115</v>
       </c>
+      <c r="P75" s="17">
+        <v>43659</v>
+      </c>
       <c r="U75" s="14">
         <v>1403.97</v>
       </c>
@@ -2633,6 +2696,9 @@
       <c r="G91" s="12">
         <v>41808</v>
       </c>
+      <c r="J91" s="17">
+        <v>45728</v>
+      </c>
       <c r="U91" s="14">
         <v>773.79</v>
       </c>
@@ -2718,6 +2784,9 @@
       <c r="G96" s="12">
         <v>41891</v>
       </c>
+      <c r="P96" s="17">
+        <v>43943</v>
+      </c>
       <c r="U96" s="14">
         <v>1649.09</v>
       </c>
@@ -2803,6 +2872,9 @@
       <c r="G101" s="12">
         <v>36208</v>
       </c>
+      <c r="J101" s="17">
+        <v>47615</v>
+      </c>
       <c r="S101" t="s">
         <v>188</v>
       </c>
@@ -2951,6 +3023,9 @@
       <c r="G109" s="12">
         <v>40315</v>
       </c>
+      <c r="P109" s="17">
+        <v>43600</v>
+      </c>
       <c r="U109" s="14">
         <v>1976.9</v>
       </c>
@@ -3086,6 +3161,9 @@
       </c>
       <c r="G117" s="12">
         <v>41715</v>
+      </c>
+      <c r="P117" s="17">
+        <v>44632</v>
       </c>
       <c r="U117" s="14">
         <v>5434.09</v>
@@ -4884,5 +4962,6 @@
     <sortCondition ref="D4"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
 </worksheet>
 </file>